--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B476A726-EAA6-41F8-8E14-CEC5F8893670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875DE2A-4581-4F83-A029-C1E1F4A62497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="14290" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="commodities" sheetId="9" r:id="rId4"/>
     <sheet name="management" sheetId="10" r:id="rId5"/>
     <sheet name="ALUM_V8_vertical with IUCN" sheetId="11" r:id="rId6"/>
+    <sheet name="SSSOM" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">commodities!$A$2:$F$268</definedName>
@@ -29,12 +30,45 @@
     <definedName name="Z_AB65B437_1B49_4040_B070_7D10DCCE9FB5_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$75</definedName>
     <definedName name="Z_E13C975D_9911_46DF_BB53_0E45A3160659_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$77</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0881399C-9480-46CC-A4A5-3D9FD195EE39}</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0881399C-9480-46CC-A4A5-3D9FD195EE39}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An ORCID is preferred here. 
+I can see three Craig MacFarlane in ORCID but the details are hidden
+Your ResearcherID on your CSIRO webpage is broken ☹️ </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="1045">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3299,31 +3333,80 @@
     <t>F1 Rivers and streams</t>
   </si>
   <si>
-    <t>F2.6 Permanent salt and soda lakes
-F2.7 Ephemeral salt lakes</t>
-  </si>
-  <si>
     <t>NVIS</t>
   </si>
   <si>
     <t>MFT1.3 Coastal saltmarshes and reedbeds</t>
   </si>
   <si>
-    <t>FM1Semi-confined transitional waters biome
-MFT1.1 Coastal river deltas</t>
-  </si>
-  <si>
     <t>F2 Lakes</t>
   </si>
   <si>
-    <t>TF1Palustrine wetlands biome</t>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>subject_label</t>
+  </si>
+  <si>
+    <t>predicate_id</t>
+  </si>
+  <si>
+    <t>object_id</t>
+  </si>
+  <si>
+    <t>object_label</t>
+  </si>
+  <si>
+    <t>mapping_justification</t>
+  </si>
+  <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>mapping_date</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>TF1 Palustrine wetlands biome</t>
+  </si>
+  <si>
+    <t>FM1 Semi-confined transitional waters biome</t>
+  </si>
+  <si>
+    <t>MFT1.1 Coastal river deltas</t>
+  </si>
+  <si>
+    <t>F2.6 Permanent salt and soda lakes</t>
+  </si>
+  <si>
+    <t>F2.7 Ephemeral salt lakes</t>
+  </si>
+  <si>
+    <t>skos:broadMatch</t>
+  </si>
+  <si>
+    <t>skos:exactMatch</t>
+  </si>
+  <si>
+    <t>skos:narrowMatch</t>
+  </si>
+  <si>
+    <t>semapv:ManualMappingCuration</t>
+  </si>
+  <si>
+    <t>mailto:Craig.Macfarlane@csiro.au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3625,6 +3708,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3952,7 +4054,7 @@
     <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4276,6 +4378,11 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -4310,6 +4417,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4597,14 +4708,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2023-12-31T06:22:35.80" personId="{00000000-0000-0000-0000-000000000000}" id="{0881399C-9480-46CC-A4A5-3D9FD195EE39}">
+    <text xml:space="preserve">An ORCID is preferred here. 
+I can see three Craig MacFarlane in ORCID but the details are hidden
+Your ResearcherID on your CSIRO webpage is broken ☹️ </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7339,7 +7462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y75"/>
@@ -9758,6 +9881,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AX76"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -13103,6 +13227,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14297,7 +14422,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="98" t="s">
         <v>639</v>
       </c>
@@ -14721,7 +14846,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="98" t="s">
         <v>591</v>
       </c>
@@ -14771,7 +14896,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="98" t="s">
         <v>642</v>
       </c>
@@ -14827,7 +14952,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="98" t="s">
         <v>346</v>
       </c>
@@ -17281,7 +17406,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="98" t="s">
         <v>818</v>
       </c>
@@ -18163,7 +18288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G63"/>
@@ -18906,7 +19031,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="98" t="s">
         <v>593</v>
       </c>
@@ -19074,18 +19199,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C192"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K175" sqref="K175"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -19267,7 +19393,7 @@
         <v>478</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19278,7 +19404,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19289,7 +19415,7 @@
         <v>391</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19300,7 +19426,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19329,7 +19455,7 @@
         <v>991</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19340,7 +19466,7 @@
         <v>233</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19724,7 +19850,7 @@
         <v>394</v>
       </c>
       <c r="C60" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19735,7 +19861,7 @@
         <v>395</v>
       </c>
       <c r="C61" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19746,7 +19872,7 @@
         <v>396</v>
       </c>
       <c r="C62" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19757,7 +19883,7 @@
         <v>397</v>
       </c>
       <c r="C63" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19768,7 +19894,7 @@
         <v>445</v>
       </c>
       <c r="C64" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20163,7 +20289,7 @@
         <v>398</v>
       </c>
       <c r="C101" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20174,7 +20300,7 @@
         <v>399</v>
       </c>
       <c r="C102" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20185,7 +20311,7 @@
         <v>400</v>
       </c>
       <c r="C103" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20196,7 +20322,7 @@
         <v>992</v>
       </c>
       <c r="C104" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20207,7 +20333,7 @@
         <v>449</v>
       </c>
       <c r="C105" s="137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20880,7 +21006,7 @@
         <v>174</v>
       </c>
       <c r="C168" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20891,7 +21017,7 @@
         <v>176</v>
       </c>
       <c r="C169" s="137" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20902,10 +21028,10 @@
         <v>178</v>
       </c>
       <c r="C170" s="137" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>456</v>
       </c>
@@ -20913,35 +21039,35 @@
         <v>457</v>
       </c>
       <c r="C171" s="148" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="116" t="s">
+      <c r="A172" t="s">
+        <v>456</v>
+      </c>
+      <c r="B172" t="s">
+        <v>457</v>
+      </c>
+      <c r="C172" s="148" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="116" t="s">
         <v>378</v>
       </c>
-      <c r="B172" s="116" t="s">
+      <c r="B173" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="C172" s="135"/>
-    </row>
-    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>180</v>
-      </c>
-      <c r="B173" t="s">
-        <v>179</v>
-      </c>
-      <c r="C173" s="135" t="s">
-        <v>1017</v>
-      </c>
+      <c r="C173" s="135"/>
     </row>
     <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>387</v>
+        <v>179</v>
       </c>
       <c r="C174" s="135" t="s">
         <v>1017</v>
@@ -20949,41 +21075,41 @@
     </row>
     <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>387</v>
       </c>
       <c r="C175" s="135" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A176" s="116" t="s">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" s="135" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="116" t="s">
         <v>379</v>
       </c>
-      <c r="B176" s="116" t="s">
+      <c r="B177" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="C176" s="137"/>
-    </row>
-    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>186</v>
-      </c>
-      <c r="B177" t="s">
-        <v>187</v>
-      </c>
-      <c r="C177" s="137" t="s">
-        <v>1021</v>
-      </c>
+      <c r="C177" s="137"/>
     </row>
     <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C178" s="137" t="s">
         <v>1021</v>
@@ -20991,41 +21117,41 @@
     </row>
     <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C179" s="137" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="116" t="s">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+      <c r="C180" s="137" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="B180" s="116" t="s">
+      <c r="B181" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="C180" s="135"/>
-    </row>
-    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>193</v>
-      </c>
-      <c r="B181" t="s">
-        <v>194</v>
-      </c>
-      <c r="C181" s="135" t="s">
-        <v>1018</v>
-      </c>
+      <c r="C181" s="135"/>
     </row>
     <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C182" s="135" t="s">
         <v>1018</v>
@@ -21033,108 +21159,152 @@
     </row>
     <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
       <c r="B183" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C183" s="135" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="116" t="s">
+      <c r="A184" t="s">
+        <v>455</v>
+      </c>
+      <c r="B184" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" s="135" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="B184" s="116" t="s">
+      <c r="B185" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="C184" s="137"/>
-    </row>
-    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>198</v>
-      </c>
-      <c r="B185" t="s">
-        <v>199</v>
-      </c>
-      <c r="C185" s="137" t="s">
-        <v>1027</v>
-      </c>
+      <c r="C185" s="137"/>
     </row>
     <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C186" s="137" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C187" s="137" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" s="137" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>458</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>459</v>
       </c>
-      <c r="C188" s="137" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A189" s="116" t="s">
+      <c r="C189" s="137" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="116" t="s">
+      <c r="B190" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="C189" s="137"/>
-    </row>
-    <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C190" s="137"/>
+    </row>
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>205</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>206</v>
       </c>
-      <c r="C190" s="148" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C191" s="148" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" t="s">
+        <v>206</v>
+      </c>
+      <c r="C192" s="148" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>207</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B193" t="s">
         <v>208</v>
       </c>
-      <c r="C191" s="148" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C193" s="148" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>207</v>
+      </c>
+      <c r="B194" t="s">
+        <v>208</v>
+      </c>
+      <c r="C194" s="148" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>209</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B195" t="s">
         <v>210</v>
       </c>
-      <c r="C192" s="148" t="s">
-        <v>1025</v>
+      <c r="C195" s="148" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>209</v>
+      </c>
+      <c r="B196" t="s">
+        <v>210</v>
+      </c>
+      <c r="C196" s="148" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -21143,13 +21313,5746 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAEF26-8574-478F-B8F3-4FDF27AEE69E}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:J196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H196"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="159" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1" s="159" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E1" s="159" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1" s="159" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G1" s="159" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H1" s="159" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I1" s="159" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J1" s="159" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2," - ","")," ","_"),"/","_or_"))</f>
+        <v>alum8:Nature_conservation</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B2</f>
+        <v>Nature conservation</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D25" si="0">(IF(LEN(A2),IF(ISNUMBER(SEARCH(" ",E2)),IF(ISNUMBER(SEARCH(".",E2)),_xlfn.CONCAT("get:groups/",LEFT(E2,FIND(" ",E2)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E2,FIND(" ",E2)-1))),"")))</f>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C2=0,"",'ALUM_V8_vertical with IUCN'!C2)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F2" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="1">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3," - ","")," ","_"),"/","_or_"))</f>
+        <v>alum8:Strict_nature_reserves</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B3</f>
+        <v>Strict nature reserves</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C3=0,"",'ALUM_V8_vertical with IUCN'!C3)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F3" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H3" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Wilderness_area</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B4</f>
+        <v>Wilderness area</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C4=0,"",'ALUM_V8_vertical with IUCN'!C4)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H4" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:National_park</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B5</f>
+        <v>National park</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C5=0,"",'ALUM_V8_vertical with IUCN'!C5)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H5" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Natural_feature_protection</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B6</f>
+        <v>Natural feature protection</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C6=0,"",'ALUM_V8_vertical with IUCN'!C6)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F6" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H6" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Habitat_or_species_management_area</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B7</f>
+        <v>Habitat/species management area</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C7=0,"",'ALUM_V8_vertical with IUCN'!C7)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F7" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H7" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Protected_landscape</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B8</f>
+        <v>Protected landscape</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C8=0,"",'ALUM_V8_vertical with IUCN'!C8)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H8" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Other_conserved_area</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B9</f>
+        <v>Other conserved area</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C9=0,"",'ALUM_V8_vertical with IUCN'!C9)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F9" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H9" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Managed_resource_protection</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B10</f>
+        <v>Managed resource protection</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C10=0,"",'ALUM_V8_vertical with IUCN'!C10)</f>
+        <v/>
+      </c>
+      <c r="F10" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H10" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Biodiversity</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B11</f>
+        <v>Biodiversity</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C11=0,"",'ALUM_V8_vertical with IUCN'!C11)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F11" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H11" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Surface_water_supply</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B12</f>
+        <v>Surface water supply</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C12=0,"",'ALUM_V8_vertical with IUCN'!C12)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F12" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H12" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Groundwater</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B13</f>
+        <v>Groundwater</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C13=0,"",'ALUM_V8_vertical with IUCN'!C13)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F13" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H13" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Landscape</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B14</f>
+        <v>Landscape</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C14=0,"",'ALUM_V8_vertical with IUCN'!C14)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F14" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H14" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Traditional_Indigenous_uses</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B15</f>
+        <v>Traditional Indigenous uses</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C15=0,"",'ALUM_V8_vertical with IUCN'!C15)</f>
+        <v>Administrative</v>
+      </c>
+      <c r="F15" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H15" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Other_minimal_use</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B16</f>
+        <v>Other minimal use</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C16=0,"",'ALUM_V8_vertical with IUCN'!C16)</f>
+        <v/>
+      </c>
+      <c r="F16" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H16" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Defence_landnatural_areas</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B17</f>
+        <v>Defence land - natural areas</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C17=0,"",'ALUM_V8_vertical with IUCN'!C17)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F17" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H17" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Stock_route</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B18</f>
+        <v>Stock route</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C18=0,"",'ALUM_V8_vertical with IUCN'!C18)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F18" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H18" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Residual_native_cover</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B19</f>
+        <v>Residual native cover</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C19=0,"",'ALUM_V8_vertical with IUCN'!C19)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F19" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H19" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Rehabilitation</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B20</f>
+        <v>Rehabilitation</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C20=0,"",'ALUM_V8_vertical with IUCN'!C20)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F20" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H20" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Grazing_native_vegetation</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B21</f>
+        <v>Grazing native vegetation</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C21=0,"",'ALUM_V8_vertical with IUCN'!C21)</f>
+        <v/>
+      </c>
+      <c r="F21" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H21" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Production_native_forests</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B22</f>
+        <v>Production native forests</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C22=0,"",'ALUM_V8_vertical with IUCN'!C22)</f>
+        <v/>
+      </c>
+      <c r="F22" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H22" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Wood_production_forestry</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B23</f>
+        <v>Wood production forestry</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C23=0,"",'ALUM_V8_vertical with IUCN'!C23)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F23" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H23" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Other_forest_production</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B24</f>
+        <v>Other forest production</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C24=0,"",'ALUM_V8_vertical with IUCN'!C24)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F24" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H24" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Plantation_forests</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B25</f>
+        <v>Plantation forests</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C25=0,"",'ALUM_V8_vertical with IUCN'!C25)</f>
+        <v/>
+      </c>
+      <c r="F25" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H25" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Hardwood_plantation_forestry</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B26</f>
+        <v>Hardwood plantation forestry</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D26" t="str">
+        <f>(IF(LEN(A26),IF(ISNUMBER(SEARCH(" ",E26)),IF(ISNUMBER(SEARCH(".",E26)),_xlfn.CONCAT("get:groups/",LEFT(E26,FIND(" ",E26)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E26,FIND(" ",E26)-1))),"")))</f>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C26=0,"",'ALUM_V8_vertical with IUCN'!C26)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F26" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H26" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Softwood_plantation_forestry</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B27</f>
+        <v>Softwood plantation forestry</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27:D90" si="2">(IF(LEN(A27),IF(ISNUMBER(SEARCH(" ",E27)),IF(ISNUMBER(SEARCH(".",E27)),_xlfn.CONCAT("get:groups/",LEFT(E27,FIND(" ",E27)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E27,FIND(" ",E27)-1))),"")))</f>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C27=0,"",'ALUM_V8_vertical with IUCN'!C27)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F27" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H27" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Other_forest_plantation</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B28</f>
+        <v>Other forest plantation</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C28=0,"",'ALUM_V8_vertical with IUCN'!C28)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F28" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H28" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Environmental_forest_plantation</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B29</f>
+        <v>Environmental forest plantation</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C29=0,"",'ALUM_V8_vertical with IUCN'!C29)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F29" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H29" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Grazing_modified_pastures</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B30</f>
+        <v>Grazing modified pastures</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C30=0,"",'ALUM_V8_vertical with IUCN'!C30)</f>
+        <v/>
+      </c>
+      <c r="F30" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H30" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Native_or_exotic_pasture_mosaic</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B31</f>
+        <v>Native/exotic pasture mosaic</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C31=0,"",'ALUM_V8_vertical with IUCN'!C31)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F31" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H31" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Woody_fodder_plants_</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B32</f>
+        <v xml:space="preserve">Woody fodder plants </v>
+      </c>
+      <c r="C32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C32=0,"",'ALUM_V8_vertical with IUCN'!C32)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F32" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H32" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Pasture_legumes</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B33</f>
+        <v>Pasture legumes</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C33=0,"",'ALUM_V8_vertical with IUCN'!C33)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F33" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H33" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Pasture_legume_or_grass_mixtures</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B34</f>
+        <v>Pasture legume/grass mixtures</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C34=0,"",'ALUM_V8_vertical with IUCN'!C34)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F34" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H34" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Sown_grasses</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B35</f>
+        <v>Sown grasses</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C35=0,"",'ALUM_V8_vertical with IUCN'!C35)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F35" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H35" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Cropping</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B36</f>
+        <v>Cropping</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C36=0,"",'ALUM_V8_vertical with IUCN'!C36)</f>
+        <v/>
+      </c>
+      <c r="F36" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H36" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Cereals</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B37</f>
+        <v>Cereals</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C37=0,"",'ALUM_V8_vertical with IUCN'!C37)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F37" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H37" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Beverage_and_spice_crops</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B38</f>
+        <v>Beverage and spice crops</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C38=0,"",'ALUM_V8_vertical with IUCN'!C38)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F38" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H38" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Hay_and_silage_</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B39</f>
+        <v xml:space="preserve">Hay and silage </v>
+      </c>
+      <c r="C39" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C39=0,"",'ALUM_V8_vertical with IUCN'!C39)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F39" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H39" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Oilseeds</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B40</f>
+        <v>Oilseeds</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C40=0,"",'ALUM_V8_vertical with IUCN'!C40)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F40" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H40" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Sugar</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B41</f>
+        <v>Sugar</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C41=0,"",'ALUM_V8_vertical with IUCN'!C41)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F41" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H41" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Cotton</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B42</f>
+        <v>Cotton</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E42" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C42=0,"",'ALUM_V8_vertical with IUCN'!C42)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F42" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H42" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Alkaloid_poppies</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B43</f>
+        <v>Alkaloid poppies</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E43" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C43=0,"",'ALUM_V8_vertical with IUCN'!C43)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F43" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H43" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Pulses</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B44</f>
+        <v>Pulses</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E44" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C44=0,"",'ALUM_V8_vertical with IUCN'!C44)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F44" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H44" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Perennial_horticulture</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B45</f>
+        <v>Perennial horticulture</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C45=0,"",'ALUM_V8_vertical with IUCN'!C45)</f>
+        <v/>
+      </c>
+      <c r="F45" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H45" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Tree_fruits</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B46</f>
+        <v>Tree fruits</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E46" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C46=0,"",'ALUM_V8_vertical with IUCN'!C46)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F46" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H46" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Olives</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B47</f>
+        <v>Olives</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E47" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C47=0,"",'ALUM_V8_vertical with IUCN'!C47)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F47" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H47" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Tree_nuts</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B48</f>
+        <v>Tree nuts</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E48" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C48=0,"",'ALUM_V8_vertical with IUCN'!C48)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F48" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H48" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Vine_fruits</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B49</f>
+        <v>Vine fruits</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E49" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C49=0,"",'ALUM_V8_vertical with IUCN'!C49)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F49" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H49" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Shrub_berries_and_fruits</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B50</f>
+        <v>Shrub berries and fruits</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C50=0,"",'ALUM_V8_vertical with IUCN'!C50)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F50" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H50" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Perennial_flowers_and_bulbs</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B51</f>
+        <v>Perennial flowers and bulbs</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E51" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C51=0,"",'ALUM_V8_vertical with IUCN'!C51)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F51" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H51" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Perennial_vegetables_and_herbs</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B52</f>
+        <v>Perennial vegetables and herbs</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C52=0,"",'ALUM_V8_vertical with IUCN'!C52)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F52" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H52" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Citrus</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B53</f>
+        <v>Citrus</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E53" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C53=0,"",'ALUM_V8_vertical with IUCN'!C53)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F53" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H53" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Grapes</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B54</f>
+        <v>Grapes</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C54=0,"",'ALUM_V8_vertical with IUCN'!C54)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F54" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H54" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Seasonal_horticulture</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B55</f>
+        <v>Seasonal horticulture</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C55=0,"",'ALUM_V8_vertical with IUCN'!C55)</f>
+        <v/>
+      </c>
+      <c r="F55" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H55" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Seasonal_fruits_</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B56</f>
+        <v xml:space="preserve">Seasonal fruits </v>
+      </c>
+      <c r="C56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E56" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C56=0,"",'ALUM_V8_vertical with IUCN'!C56)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F56" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H56" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Seasonal_flowers_and_bulbs</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B57</f>
+        <v>Seasonal flowers and bulbs</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E57" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C57=0,"",'ALUM_V8_vertical with IUCN'!C57)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F57" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H57" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Seasonal_vegetables_and_herbs</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B58</f>
+        <v>Seasonal vegetables and herbs</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E58" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C58=0,"",'ALUM_V8_vertical with IUCN'!C58)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F58" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H58" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Land_in_transition</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B59</f>
+        <v>Land in transition</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C59=0,"",'ALUM_V8_vertical with IUCN'!C59)</f>
+        <v/>
+      </c>
+      <c r="F59" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H59" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Degraded_land</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B60</f>
+        <v>Degraded land</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C60=0,"",'ALUM_V8_vertical with IUCN'!C60)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F60" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H60" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Abandoned_land</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B61</f>
+        <v>Abandoned land</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C61=0,"",'ALUM_V8_vertical with IUCN'!C61)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F61" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H61" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Land_under_rehabilitation</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B62</f>
+        <v>Land under rehabilitation</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C62=0,"",'ALUM_V8_vertical with IUCN'!C62)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F62" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H62" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:No_defined_use</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B63</f>
+        <v>No defined use</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C63=0,"",'ALUM_V8_vertical with IUCN'!C63)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F63" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H63" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Abandoned_perennial_horticulture</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B64</f>
+        <v>Abandoned perennial horticulture</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C64=0,"",'ALUM_V8_vertical with IUCN'!C64)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F64" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H64" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Irrigated_plantation_forests</v>
+      </c>
+      <c r="B65" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B65</f>
+        <v>Irrigated plantation forests</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C65=0,"",'ALUM_V8_vertical with IUCN'!C65)</f>
+        <v/>
+      </c>
+      <c r="F65" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H65" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f t="shared" si="1"/>
+        <v>alum8:Irrigated_hardwood_plantation_forestry</v>
+      </c>
+      <c r="B66" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B66</f>
+        <v>Irrigated hardwood plantation forestry</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E66" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C66=0,"",'ALUM_V8_vertical with IUCN'!C66)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F66" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H66" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A130" si="3">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B67," - ","")," ","_"),"/","_or_"))</f>
+        <v>alum8:Irrigated_softwood_plantation_forestry</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B67</f>
+        <v>Irrigated softwood plantation forestry</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E67" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C67=0,"",'ALUM_V8_vertical with IUCN'!C67)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F67" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H67" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_other_forest_plantation</v>
+      </c>
+      <c r="B68" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B68</f>
+        <v>Irrigated other forest plantation</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E68" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C68=0,"",'ALUM_V8_vertical with IUCN'!C68)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F68" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H68" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_environmental_forest_plantation</v>
+      </c>
+      <c r="B69" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B69</f>
+        <v>Irrigated environmental forest plantation</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.3</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C69=0,"",'ALUM_V8_vertical with IUCN'!C69)</f>
+        <v>T7.3 Plantations</v>
+      </c>
+      <c r="F69" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H69" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Grazing_irrigated_modified_pastures</v>
+      </c>
+      <c r="B70" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B70</f>
+        <v>Grazing irrigated modified pastures</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C70=0,"",'ALUM_V8_vertical with IUCN'!C70)</f>
+        <v/>
+      </c>
+      <c r="F70" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H70" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_woody_fodder_plants</v>
+      </c>
+      <c r="B71" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B71</f>
+        <v>Irrigated woody fodder plants</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E71" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C71=0,"",'ALUM_V8_vertical with IUCN'!C71)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F71" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H71" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_pasture_legumes</v>
+      </c>
+      <c r="B72" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B72</f>
+        <v>Irrigated pasture legumes</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E72" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C72=0,"",'ALUM_V8_vertical with IUCN'!C72)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F72" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H72" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_legume_or_grass_mixtures</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B73</f>
+        <v>Irrigated legume/grass mixtures</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E73" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C73=0,"",'ALUM_V8_vertical with IUCN'!C73)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F73" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H73" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_sown_grasses</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B74</f>
+        <v>Irrigated sown grasses</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.2</v>
+      </c>
+      <c r="E74" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C74=0,"",'ALUM_V8_vertical with IUCN'!C74)</f>
+        <v>T7.2 Sown pastures and fields</v>
+      </c>
+      <c r="F74" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H74" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_cropping</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B75</f>
+        <v>Irrigated cropping</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E75" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C75=0,"",'ALUM_V8_vertical with IUCN'!C75)</f>
+        <v/>
+      </c>
+      <c r="F75" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H75" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_cereals</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B76</f>
+        <v>Irrigated cereals</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E76" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C76=0,"",'ALUM_V8_vertical with IUCN'!C76)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F76" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H76" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_beverage_and_spice_crops</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B77</f>
+        <v>Irrigated beverage and spice crops</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E77" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C77=0,"",'ALUM_V8_vertical with IUCN'!C77)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F77" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H77" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_hay_and_silage_</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B78</f>
+        <v xml:space="preserve">Irrigated hay and silage </v>
+      </c>
+      <c r="C78" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E78" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C78=0,"",'ALUM_V8_vertical with IUCN'!C78)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F78" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H78" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_oilseeds</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B79</f>
+        <v>Irrigated oilseeds</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E79" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C79=0,"",'ALUM_V8_vertical with IUCN'!C79)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F79" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H79" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_sugar</v>
+      </c>
+      <c r="B80" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B80</f>
+        <v>Irrigated sugar</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E80" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C80=0,"",'ALUM_V8_vertical with IUCN'!C80)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F80" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H80" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_cotton</v>
+      </c>
+      <c r="B81" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B81</f>
+        <v>Irrigated cotton</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E81" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C81=0,"",'ALUM_V8_vertical with IUCN'!C81)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F81" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H81" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_alkaloid_poppies</v>
+      </c>
+      <c r="B82" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B82</f>
+        <v>Irrigated alkaloid poppies</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E82" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C82=0,"",'ALUM_V8_vertical with IUCN'!C82)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F82" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H82" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_pulses</v>
+      </c>
+      <c r="B83" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B83</f>
+        <v>Irrigated pulses</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E83" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C83=0,"",'ALUM_V8_vertical with IUCN'!C83)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F83" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H83" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_rice</v>
+      </c>
+      <c r="B84" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B84</f>
+        <v>Irrigated rice</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/F3.3</v>
+      </c>
+      <c r="E84" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C84=0,"",'ALUM_V8_vertical with IUCN'!C84)</f>
+        <v>F3.3 Rice paddies</v>
+      </c>
+      <c r="F84" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H84" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_perennial_horticulture</v>
+      </c>
+      <c r="B85" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B85</f>
+        <v>Irrigated perennial horticulture</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C85=0,"",'ALUM_V8_vertical with IUCN'!C85)</f>
+        <v/>
+      </c>
+      <c r="F85" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H85" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_tree_fruits</v>
+      </c>
+      <c r="B86" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B86</f>
+        <v>Irrigated tree fruits</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E86" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C86=0,"",'ALUM_V8_vertical with IUCN'!C86)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F86" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H86" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_olives</v>
+      </c>
+      <c r="B87" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B87</f>
+        <v>Irrigated olives</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E87" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C87=0,"",'ALUM_V8_vertical with IUCN'!C87)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F87" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H87" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_tree_nuts</v>
+      </c>
+      <c r="B88" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B88</f>
+        <v>Irrigated tree nuts</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E88" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C88=0,"",'ALUM_V8_vertical with IUCN'!C88)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F88" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H88" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_vine_fruits</v>
+      </c>
+      <c r="B89" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B89</f>
+        <v>Irrigated vine fruits</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E89" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C89=0,"",'ALUM_V8_vertical with IUCN'!C89)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F89" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H89" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_shrub_berries_and_fruits</v>
+      </c>
+      <c r="B90" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B90</f>
+        <v>Irrigated shrub berries and fruits</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E90" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C90=0,"",'ALUM_V8_vertical with IUCN'!C90)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F90" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H90" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated__perennial_flowers_and_bulbs</v>
+      </c>
+      <c r="B91" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B91</f>
+        <v>Irrigated  perennial flowers and bulbs</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" ref="D91:D154" si="4">(IF(LEN(A91),IF(ISNUMBER(SEARCH(" ",E91)),IF(ISNUMBER(SEARCH(".",E91)),_xlfn.CONCAT("get:groups/",LEFT(E91,FIND(" ",E91)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E91,FIND(" ",E91)-1))),"")))</f>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E91" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C91=0,"",'ALUM_V8_vertical with IUCN'!C91)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F91" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H91" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_perennial_vegetables_and_herbs</v>
+      </c>
+      <c r="B92" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B92</f>
+        <v>Irrigated perennial vegetables and herbs</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E92" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C92=0,"",'ALUM_V8_vertical with IUCN'!C92)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F92" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H92" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_citrus</v>
+      </c>
+      <c r="B93" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B93</f>
+        <v>Irrigated citrus</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E93" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C93=0,"",'ALUM_V8_vertical with IUCN'!C93)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F93" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H93" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_grapes</v>
+      </c>
+      <c r="B94" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B94</f>
+        <v>Irrigated grapes</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E94" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C94=0,"",'ALUM_V8_vertical with IUCN'!C94)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F94" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H94" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_seasonal_horticulture</v>
+      </c>
+      <c r="B95" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B95</f>
+        <v>Irrigated seasonal horticulture</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E95" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C95=0,"",'ALUM_V8_vertical with IUCN'!C95)</f>
+        <v/>
+      </c>
+      <c r="F95" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H95" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_seasonal_fruits_</v>
+      </c>
+      <c r="B96" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B96</f>
+        <v xml:space="preserve">Irrigated seasonal fruits </v>
+      </c>
+      <c r="C96" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E96" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C96=0,"",'ALUM_V8_vertical with IUCN'!C96)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F96" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H96" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_seasonal_flowers_and_bulbs</v>
+      </c>
+      <c r="B97" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B97</f>
+        <v>Irrigated seasonal flowers and bulbs</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E97" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C97=0,"",'ALUM_V8_vertical with IUCN'!C97)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F97" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H97" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_seasonal_vegetables_and_herbs</v>
+      </c>
+      <c r="B98" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B98</f>
+        <v>Irrigated seasonal vegetables and herbs</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E98" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C98=0,"",'ALUM_V8_vertical with IUCN'!C98)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F98" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H98" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_turf_farming</v>
+      </c>
+      <c r="B99" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B99</f>
+        <v>Irrigated turf farming</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.1</v>
+      </c>
+      <c r="E99" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C99=0,"",'ALUM_V8_vertical with IUCN'!C99)</f>
+        <v>T7.1 Croplands</v>
+      </c>
+      <c r="F99" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H99" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_land_in_transition</v>
+      </c>
+      <c r="B100" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B100</f>
+        <v>Irrigated land in transition</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E100" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C100=0,"",'ALUM_V8_vertical with IUCN'!C100)</f>
+        <v/>
+      </c>
+      <c r="F100" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H100" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Degraded_irrigated_land</v>
+      </c>
+      <c r="B101" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B101</f>
+        <v>Degraded irrigated land</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E101" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C101=0,"",'ALUM_V8_vertical with IUCN'!C101)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F101" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H101" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Abandoned_irrigated_land</v>
+      </c>
+      <c r="B102" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B102</f>
+        <v>Abandoned irrigated land</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C102=0,"",'ALUM_V8_vertical with IUCN'!C102)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F102" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H102" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Irrigated_land_under_rehabilitation</v>
+      </c>
+      <c r="B103" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B103</f>
+        <v>Irrigated land under rehabilitation</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E103" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C103=0,"",'ALUM_V8_vertical with IUCN'!C103)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F103" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H103" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:No_defined_useirrigation</v>
+      </c>
+      <c r="B104" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B104</f>
+        <v>No defined use - irrigation</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E104" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C104=0,"",'ALUM_V8_vertical with IUCN'!C104)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F104" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H104" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Abandoned_irrigated_perennial_horticulture</v>
+      </c>
+      <c r="B105" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B105</f>
+        <v>Abandoned irrigated perennial horticulture</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E105" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C105=0,"",'ALUM_V8_vertical with IUCN'!C105)</f>
+        <v>NVIS</v>
+      </c>
+      <c r="F105" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H105" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Intensive_horticulture</v>
+      </c>
+      <c r="B106" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B106</f>
+        <v>Intensive horticulture</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E106" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C106=0,"",'ALUM_V8_vertical with IUCN'!C106)</f>
+        <v/>
+      </c>
+      <c r="F106" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H106" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Production_nurseries</v>
+      </c>
+      <c r="B107" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B107</f>
+        <v>Production nurseries</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E107" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C107=0,"",'ALUM_V8_vertical with IUCN'!C107)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F107" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H107" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Shadehouses</v>
+      </c>
+      <c r="B108" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B108</f>
+        <v>Shadehouses</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E108" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C108=0,"",'ALUM_V8_vertical with IUCN'!C108)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F108" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H108" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Glasshouses</v>
+      </c>
+      <c r="B109" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B109</f>
+        <v>Glasshouses</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E109" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C109=0,"",'ALUM_V8_vertical with IUCN'!C109)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F109" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H109" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Glasshouseshydroponic</v>
+      </c>
+      <c r="B110" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B110</f>
+        <v>Glasshouses - hydroponic</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E110" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C110=0,"",'ALUM_V8_vertical with IUCN'!C110)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F110" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H110" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Abandoned_intensive_horticulture</v>
+      </c>
+      <c r="B111" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B111</f>
+        <v>Abandoned intensive horticulture</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E111" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C111=0,"",'ALUM_V8_vertical with IUCN'!C111)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F111" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H111" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Intensive_animal_production</v>
+      </c>
+      <c r="B112" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B112</f>
+        <v>Intensive animal production</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E112" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C112=0,"",'ALUM_V8_vertical with IUCN'!C112)</f>
+        <v/>
+      </c>
+      <c r="F112" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H112" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Dairy_sheds_and_yards</v>
+      </c>
+      <c r="B113" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B113</f>
+        <v>Dairy sheds and yards</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E113" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C113=0,"",'ALUM_V8_vertical with IUCN'!C113)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F113" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H113" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Feedlots</v>
+      </c>
+      <c r="B114" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B114</f>
+        <v>Feedlots</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E114" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C114=0,"",'ALUM_V8_vertical with IUCN'!C114)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F114" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H114" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Poultry_farms</v>
+      </c>
+      <c r="B115" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B115</f>
+        <v>Poultry farms</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E115" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C115=0,"",'ALUM_V8_vertical with IUCN'!C115)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F115" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H115" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Piggeries</v>
+      </c>
+      <c r="B116" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B116</f>
+        <v>Piggeries</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E116" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C116=0,"",'ALUM_V8_vertical with IUCN'!C116)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F116" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H116" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Aquaculture</v>
+      </c>
+      <c r="B117" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B117</f>
+        <v>Aquaculture</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/F3.4</v>
+      </c>
+      <c r="E117" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C117=0,"",'ALUM_V8_vertical with IUCN'!C117)</f>
+        <v>F3.4 Freshwater aquafarms</v>
+      </c>
+      <c r="F117" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H117" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Horse_studs</v>
+      </c>
+      <c r="B118" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B118</f>
+        <v>Horse studs</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E118" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C118=0,"",'ALUM_V8_vertical with IUCN'!C118)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F118" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H118" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Saleyards_or_stockyards_</v>
+      </c>
+      <c r="B119" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B119</f>
+        <v xml:space="preserve">Saleyards/stockyards </v>
+      </c>
+      <c r="C119" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E119" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C119=0,"",'ALUM_V8_vertical with IUCN'!C119)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F119" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H119" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Abandoned_intensive_animal_production</v>
+      </c>
+      <c r="B120" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B120</f>
+        <v>Abandoned intensive animal production</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E120" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C120=0,"",'ALUM_V8_vertical with IUCN'!C120)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F120" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H120" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Manufacturing_and_industrial</v>
+      </c>
+      <c r="B121" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B121</f>
+        <v>Manufacturing and industrial</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E121" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C121=0,"",'ALUM_V8_vertical with IUCN'!C121)</f>
+        <v/>
+      </c>
+      <c r="F121" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H121" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:General_purpose_factory</v>
+      </c>
+      <c r="B122" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B122</f>
+        <v>General purpose factory</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E122" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C122=0,"",'ALUM_V8_vertical with IUCN'!C122)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F122" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H122" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Food_processing_factory</v>
+      </c>
+      <c r="B123" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B123</f>
+        <v>Food processing factory</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E123" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C123=0,"",'ALUM_V8_vertical with IUCN'!C123)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F123" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H123" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Major_industrial_complex</v>
+      </c>
+      <c r="B124" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B124</f>
+        <v>Major industrial complex</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E124" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C124=0,"",'ALUM_V8_vertical with IUCN'!C124)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F124" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H124" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Bulk_grain_storage</v>
+      </c>
+      <c r="B125" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B125</f>
+        <v>Bulk grain storage</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E125" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C125=0,"",'ALUM_V8_vertical with IUCN'!C125)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F125" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H125" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Abattoirs</v>
+      </c>
+      <c r="B126" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B126</f>
+        <v>Abattoirs</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E126" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C126=0,"",'ALUM_V8_vertical with IUCN'!C126)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F126" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H126" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Oil_refinery</v>
+      </c>
+      <c r="B127" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B127</f>
+        <v>Oil refinery</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E127" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C127=0,"",'ALUM_V8_vertical with IUCN'!C127)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F127" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H127" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Sawmill</v>
+      </c>
+      <c r="B128" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B128</f>
+        <v>Sawmill</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E128" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C128=0,"",'ALUM_V8_vertical with IUCN'!C128)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F128" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H128" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Abandoned_manufacturing_and_industrial</v>
+      </c>
+      <c r="B129" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B129</f>
+        <v>Abandoned manufacturing and industrial</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E129" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C129=0,"",'ALUM_V8_vertical with IUCN'!C129)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F129" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H129" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="str">
+        <f t="shared" si="3"/>
+        <v>alum8:Residential_and_farm_infrastructure</v>
+      </c>
+      <c r="B130" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B130</f>
+        <v>Residential and farm infrastructure</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E130" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C130=0,"",'ALUM_V8_vertical with IUCN'!C130)</f>
+        <v/>
+      </c>
+      <c r="F130" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H130" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="str">
+        <f t="shared" ref="A131:A195" si="5">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B131," - ","")," ","_"),"/","_or_"))</f>
+        <v>alum8:Urban_residential</v>
+      </c>
+      <c r="B131" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B131</f>
+        <v>Urban residential</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E131" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C131=0,"",'ALUM_V8_vertical with IUCN'!C131)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F131" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H131" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Rural_residential_with_agriculture</v>
+      </c>
+      <c r="B132" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B132</f>
+        <v>Rural residential with agriculture</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E132" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C132=0,"",'ALUM_V8_vertical with IUCN'!C132)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F132" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H132" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Rural_residential_without_agriculture</v>
+      </c>
+      <c r="B133" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B133</f>
+        <v>Rural residential without agriculture</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E133" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C133=0,"",'ALUM_V8_vertical with IUCN'!C133)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F133" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H133" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Remote_communities</v>
+      </c>
+      <c r="B134" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B134</f>
+        <v>Remote communities</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E134" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C134=0,"",'ALUM_V8_vertical with IUCN'!C134)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F134" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H134" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Farm_buildings_or_infrastructure</v>
+      </c>
+      <c r="B135" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B135</f>
+        <v>Farm buildings/infrastructure</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E135" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C135=0,"",'ALUM_V8_vertical with IUCN'!C135)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F135" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H135" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Services</v>
+      </c>
+      <c r="B136" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B136</f>
+        <v>Services</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E136" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C136=0,"",'ALUM_V8_vertical with IUCN'!C136)</f>
+        <v/>
+      </c>
+      <c r="F136" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H136" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Commercial_services</v>
+      </c>
+      <c r="B137" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B137</f>
+        <v>Commercial services</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E137" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C137=0,"",'ALUM_V8_vertical with IUCN'!C137)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F137" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H137" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Public_services</v>
+      </c>
+      <c r="B138" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B138</f>
+        <v>Public services</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E138" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C138=0,"",'ALUM_V8_vertical with IUCN'!C138)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F138" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H138" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Recreation_and_culture</v>
+      </c>
+      <c r="B139" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B139</f>
+        <v>Recreation and culture</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E139" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C139=0,"",'ALUM_V8_vertical with IUCN'!C139)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F139" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H139" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Defence_facilitiesurban</v>
+      </c>
+      <c r="B140" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B140</f>
+        <v>Defence facilities - urban</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E140" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C140=0,"",'ALUM_V8_vertical with IUCN'!C140)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F140" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H140" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Research_facilities</v>
+      </c>
+      <c r="B141" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B141</f>
+        <v>Research facilities</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E141" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C141=0,"",'ALUM_V8_vertical with IUCN'!C141)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F141" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H141" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Utilities</v>
+      </c>
+      <c r="B142" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B142</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E142" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C142=0,"",'ALUM_V8_vertical with IUCN'!C142)</f>
+        <v/>
+      </c>
+      <c r="F142" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H142" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Fuel_powered_electricity_generation</v>
+      </c>
+      <c r="B143" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B143</f>
+        <v>Fuel powered electricity generation</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E143" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C143=0,"",'ALUM_V8_vertical with IUCN'!C143)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F143" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H143" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Hydro_electricity_generation</v>
+      </c>
+      <c r="B144" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B144</f>
+        <v>Hydro electricity generation</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E144" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C144=0,"",'ALUM_V8_vertical with IUCN'!C144)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F144" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H144" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Wind_electricity_generation</v>
+      </c>
+      <c r="B145" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B145</f>
+        <v>Wind electricity generation</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E145" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C145=0,"",'ALUM_V8_vertical with IUCN'!C145)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F145" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H145" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Solar_electricity_generation</v>
+      </c>
+      <c r="B146" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B146</f>
+        <v>Solar electricity generation</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E146" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C146=0,"",'ALUM_V8_vertical with IUCN'!C146)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F146" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H146" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Electricity_substations_and_transmission</v>
+      </c>
+      <c r="B147" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B147</f>
+        <v>Electricity substations and transmission</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E147" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C147=0,"",'ALUM_V8_vertical with IUCN'!C147)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F147" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H147" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Gas_treatment,_storage_and_transmission</v>
+      </c>
+      <c r="B148" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B148</f>
+        <v>Gas treatment, storage and transmission</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E148" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C148=0,"",'ALUM_V8_vertical with IUCN'!C148)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F148" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H148" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Water_extraction_and_transmission</v>
+      </c>
+      <c r="B149" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B149</f>
+        <v>Water extraction and transmission</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E149" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C149=0,"",'ALUM_V8_vertical with IUCN'!C149)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F149" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H149" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Transport_and_communication</v>
+      </c>
+      <c r="B150" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B150</f>
+        <v>Transport and communication</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E150" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C150=0,"",'ALUM_V8_vertical with IUCN'!C150)</f>
+        <v/>
+      </c>
+      <c r="F150" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H150" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Airports_or_aerodromes</v>
+      </c>
+      <c r="B151" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B151</f>
+        <v>Airports/aerodromes</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E151" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C151=0,"",'ALUM_V8_vertical with IUCN'!C151)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F151" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H151" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Roads</v>
+      </c>
+      <c r="B152" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B152</f>
+        <v>Roads</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E152" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C152=0,"",'ALUM_V8_vertical with IUCN'!C152)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F152" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H152" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Railways</v>
+      </c>
+      <c r="B153" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B153</f>
+        <v>Railways</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E153" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C153=0,"",'ALUM_V8_vertical with IUCN'!C153)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F153" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H153" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Ports_and_water_transport</v>
+      </c>
+      <c r="B154" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B154</f>
+        <v>Ports and water transport</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="4"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E154" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C154=0,"",'ALUM_V8_vertical with IUCN'!C154)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F154" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H154" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Navigation_and_communication</v>
+      </c>
+      <c r="B155" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B155</f>
+        <v>Navigation and communication</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" ref="D155:D196" si="6">(IF(LEN(A155),IF(ISNUMBER(SEARCH(" ",E155)),IF(ISNUMBER(SEARCH(".",E155)),_xlfn.CONCAT("get:groups/",LEFT(E155,FIND(" ",E155)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E155,FIND(" ",E155)-1))),"")))</f>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E155" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C155=0,"",'ALUM_V8_vertical with IUCN'!C155)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F155" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H155" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Mining</v>
+      </c>
+      <c r="B156" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B156</f>
+        <v>Mining</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E156" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C156=0,"",'ALUM_V8_vertical with IUCN'!C156)</f>
+        <v/>
+      </c>
+      <c r="F156" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H156" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Mines</v>
+      </c>
+      <c r="B157" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B157</f>
+        <v>Mines</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E157" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C157=0,"",'ALUM_V8_vertical with IUCN'!C157)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F157" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H157" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Quarries</v>
+      </c>
+      <c r="B158" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B158</f>
+        <v>Quarries</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E158" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C158=0,"",'ALUM_V8_vertical with IUCN'!C158)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F158" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H158" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Tailings</v>
+      </c>
+      <c r="B159" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B159</f>
+        <v>Tailings</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E159" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C159=0,"",'ALUM_V8_vertical with IUCN'!C159)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F159" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H159" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Extractive_Industry_not_in_use</v>
+      </c>
+      <c r="B160" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B160</f>
+        <v>Extractive Industry not in use</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E160" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C160=0,"",'ALUM_V8_vertical with IUCN'!C160)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F160" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H160" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Waste_treatment_and_disposal</v>
+      </c>
+      <c r="B161" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B161</f>
+        <v>Waste treatment and disposal</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E161" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C161=0,"",'ALUM_V8_vertical with IUCN'!C161)</f>
+        <v/>
+      </c>
+      <c r="F161" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H161" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Effluent_pond</v>
+      </c>
+      <c r="B162" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B162</f>
+        <v>Effluent pond</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E162" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C162=0,"",'ALUM_V8_vertical with IUCN'!C162)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F162" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H162" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Landfill</v>
+      </c>
+      <c r="B163" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B163</f>
+        <v>Landfill</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E163" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C163=0,"",'ALUM_V8_vertical with IUCN'!C163)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F163" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H163" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Solid_garbage</v>
+      </c>
+      <c r="B164" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B164</f>
+        <v>Solid garbage</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E164" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C164=0,"",'ALUM_V8_vertical with IUCN'!C164)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F164" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H164" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Incinerators</v>
+      </c>
+      <c r="B165" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B165</f>
+        <v>Incinerators</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E165" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C165=0,"",'ALUM_V8_vertical with IUCN'!C165)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F165" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H165" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Sewage_or_sewerage</v>
+      </c>
+      <c r="B166" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B166</f>
+        <v>Sewage/sewerage</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/T7.4</v>
+      </c>
+      <c r="E166" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C166=0,"",'ALUM_V8_vertical with IUCN'!C166)</f>
+        <v>T7.4 Urban and industrial ecosystems</v>
+      </c>
+      <c r="F166" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H166" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Lake</v>
+      </c>
+      <c r="B167" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B167</f>
+        <v>Lake</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E167" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C167=0,"",'ALUM_V8_vertical with IUCN'!C167)</f>
+        <v/>
+      </c>
+      <c r="F167" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H167" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Lakeconservation</v>
+      </c>
+      <c r="B168" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B168</f>
+        <v>Lake - conservation</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/F2</v>
+      </c>
+      <c r="E168" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C168=0,"",'ALUM_V8_vertical with IUCN'!C168)</f>
+        <v>F2 Lakes</v>
+      </c>
+      <c r="F168" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H168" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Lakeproduction</v>
+      </c>
+      <c r="B169" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B169</f>
+        <v>Lake - production</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/F2</v>
+      </c>
+      <c r="E169" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C169=0,"",'ALUM_V8_vertical with IUCN'!C169)</f>
+        <v>F2 Lakes</v>
+      </c>
+      <c r="F169" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H169" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Lakeintensive_use</v>
+      </c>
+      <c r="B170" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B170</f>
+        <v>Lake - intensive use</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/F2</v>
+      </c>
+      <c r="E170" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C170=0,"",'ALUM_V8_vertical with IUCN'!C170)</f>
+        <v>F2 Lakes</v>
+      </c>
+      <c r="F170" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H170" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Lakesaline</v>
+      </c>
+      <c r="B171" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B171</f>
+        <v>Lake - saline</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F2.6</v>
+      </c>
+      <c r="E171" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C171=0,"",'ALUM_V8_vertical with IUCN'!C171)</f>
+        <v>F2.6 Permanent salt and soda lakes</v>
+      </c>
+      <c r="F171" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H171" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Lakesaline</v>
+      </c>
+      <c r="B172" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B172</f>
+        <v>Lake - saline</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F2.7</v>
+      </c>
+      <c r="E172" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C172=0,"",'ALUM_V8_vertical with IUCN'!C172)</f>
+        <v>F2.7 Ephemeral salt lakes</v>
+      </c>
+      <c r="F172" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H172" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Reservoir_or_dam</v>
+      </c>
+      <c r="B173" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B173</f>
+        <v>Reservoir/dam</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E173" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C173=0,"",'ALUM_V8_vertical with IUCN'!C173)</f>
+        <v/>
+      </c>
+      <c r="F173" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H173" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Reservoir</v>
+      </c>
+      <c r="B174" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B174</f>
+        <v>Reservoir</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F3.1</v>
+      </c>
+      <c r="E174" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C174=0,"",'ALUM_V8_vertical with IUCN'!C174)</f>
+        <v>F3.1 Large reservoirs</v>
+      </c>
+      <c r="F174" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H174" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Water_storageintensive_use_or_farm_dams</v>
+      </c>
+      <c r="B175" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B175</f>
+        <v>Water storage - intensive use/farm dams</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F3.1</v>
+      </c>
+      <c r="E175" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C175=0,"",'ALUM_V8_vertical with IUCN'!C175)</f>
+        <v>F3.1 Large reservoirs</v>
+      </c>
+      <c r="F175" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H175" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Evaporation_basin</v>
+      </c>
+      <c r="B176" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B176</f>
+        <v>Evaporation basin</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F3.1</v>
+      </c>
+      <c r="E176" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C176=0,"",'ALUM_V8_vertical with IUCN'!C176)</f>
+        <v>F3.1 Large reservoirs</v>
+      </c>
+      <c r="F176" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H176" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:River</v>
+      </c>
+      <c r="B177" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B177</f>
+        <v>River</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E177" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C177=0,"",'ALUM_V8_vertical with IUCN'!C177)</f>
+        <v/>
+      </c>
+      <c r="F177" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H177" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Riverconservation</v>
+      </c>
+      <c r="B178" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B178</f>
+        <v>River - conservation</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/F1</v>
+      </c>
+      <c r="E178" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C178=0,"",'ALUM_V8_vertical with IUCN'!C178)</f>
+        <v>F1 Rivers and streams</v>
+      </c>
+      <c r="F178" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H178" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Riverproduction</v>
+      </c>
+      <c r="B179" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B179</f>
+        <v>River - production</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/F1</v>
+      </c>
+      <c r="E179" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C179=0,"",'ALUM_V8_vertical with IUCN'!C179)</f>
+        <v>F1 Rivers and streams</v>
+      </c>
+      <c r="F179" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H179" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Riverintensive_use</v>
+      </c>
+      <c r="B180" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B180</f>
+        <v>River - intensive use</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/F1</v>
+      </c>
+      <c r="E180" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C180=0,"",'ALUM_V8_vertical with IUCN'!C180)</f>
+        <v>F1 Rivers and streams</v>
+      </c>
+      <c r="F180" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H180" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Channel_or_aqueduct</v>
+      </c>
+      <c r="B181" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B181</f>
+        <v>Channel/aqueduct</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E181" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C181=0,"",'ALUM_V8_vertical with IUCN'!C181)</f>
+        <v/>
+      </c>
+      <c r="F181" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H181" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Supply_channel_or_aqueduct</v>
+      </c>
+      <c r="B182" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B182</f>
+        <v>Supply channel/aqueduct</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F3.5</v>
+      </c>
+      <c r="E182" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C182=0,"",'ALUM_V8_vertical with IUCN'!C182)</f>
+        <v>F3.5 Canals, ditches and drains</v>
+      </c>
+      <c r="F182" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H182" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Drainage_channel_or_aqueduct</v>
+      </c>
+      <c r="B183" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B183</f>
+        <v>Drainage channel/aqueduct</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F3.5</v>
+      </c>
+      <c r="E183" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C183=0,"",'ALUM_V8_vertical with IUCN'!C183)</f>
+        <v>F3.5 Canals, ditches and drains</v>
+      </c>
+      <c r="F183" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H183" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Stormwater</v>
+      </c>
+      <c r="B184" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B184</f>
+        <v>Stormwater</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/F3.5</v>
+      </c>
+      <c r="E184" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C184=0,"",'ALUM_V8_vertical with IUCN'!C184)</f>
+        <v>F3.5 Canals, ditches and drains</v>
+      </c>
+      <c r="F184" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H184" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Marsh_or_wetland</v>
+      </c>
+      <c r="B185" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B185</f>
+        <v>Marsh/wetland</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E185" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C185=0,"",'ALUM_V8_vertical with IUCN'!C185)</f>
+        <v/>
+      </c>
+      <c r="F185" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H185" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Marsh_or_wetlandconservation</v>
+      </c>
+      <c r="B186" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B186</f>
+        <v>Marsh/wetland - conservation</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/TF1</v>
+      </c>
+      <c r="E186" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C186=0,"",'ALUM_V8_vertical with IUCN'!C186)</f>
+        <v>TF1 Palustrine wetlands biome</v>
+      </c>
+      <c r="F186" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H186" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Marsh_or_wetlandproduction</v>
+      </c>
+      <c r="B187" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B187</f>
+        <v>Marsh/wetland - production</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/TF1</v>
+      </c>
+      <c r="E187" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C187=0,"",'ALUM_V8_vertical with IUCN'!C187)</f>
+        <v>TF1 Palustrine wetlands biome</v>
+      </c>
+      <c r="F187" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H187" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Marsh_or_wetlandintensive_use</v>
+      </c>
+      <c r="B188" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B188</f>
+        <v>Marsh/wetland - intensive use</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/TF1</v>
+      </c>
+      <c r="E188" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C188=0,"",'ALUM_V8_vertical with IUCN'!C188)</f>
+        <v>TF1 Palustrine wetlands biome</v>
+      </c>
+      <c r="F188" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H188" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Marsh_or_wetlandsaline</v>
+      </c>
+      <c r="B189" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B189</f>
+        <v>Marsh/wetland - saline</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/MFT1.3</v>
+      </c>
+      <c r="E189" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C189=0,"",'ALUM_V8_vertical with IUCN'!C189)</f>
+        <v>MFT1.3 Coastal saltmarshes and reedbeds</v>
+      </c>
+      <c r="F189" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H189" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Estuary_or_coastal_waters</v>
+      </c>
+      <c r="B190" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B190</f>
+        <v>Estuary/coastal waters</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E190" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C190=0,"",'ALUM_V8_vertical with IUCN'!C190)</f>
+        <v/>
+      </c>
+      <c r="F190" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H190" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Estuary_or_coastal_watersconservation</v>
+      </c>
+      <c r="B191" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B191</f>
+        <v>Estuary/coastal waters - conservation</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/FM1</v>
+      </c>
+      <c r="E191" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C191=0,"",'ALUM_V8_vertical with IUCN'!C191)</f>
+        <v>FM1 Semi-confined transitional waters biome</v>
+      </c>
+      <c r="F191" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H191" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Estuary_or_coastal_watersconservation</v>
+      </c>
+      <c r="B192" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B192</f>
+        <v>Estuary/coastal waters - conservation</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/MFT1.1</v>
+      </c>
+      <c r="E192" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C192=0,"",'ALUM_V8_vertical with IUCN'!C192)</f>
+        <v>MFT1.1 Coastal river deltas</v>
+      </c>
+      <c r="F192" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H192" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Estuary_or_coastal_watersproduction</v>
+      </c>
+      <c r="B193" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B193</f>
+        <v>Estuary/coastal waters - production</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/FM1</v>
+      </c>
+      <c r="E193" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C193=0,"",'ALUM_V8_vertical with IUCN'!C193)</f>
+        <v>FM1 Semi-confined transitional waters biome</v>
+      </c>
+      <c r="F193" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H193" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Estuary_or_coastal_watersproduction</v>
+      </c>
+      <c r="B194" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B194</f>
+        <v>Estuary/coastal waters - production</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/MFT1.1</v>
+      </c>
+      <c r="E194" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C194=0,"",'ALUM_V8_vertical with IUCN'!C194)</f>
+        <v>MFT1.1 Coastal river deltas</v>
+      </c>
+      <c r="F194" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H194" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="str">
+        <f t="shared" si="5"/>
+        <v>alum8:Estuary_or_coastal_watersintensive_use</v>
+      </c>
+      <c r="B195" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B195</f>
+        <v>Estuary/coastal waters - intensive use</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="6"/>
+        <v>get:biomes/FM1</v>
+      </c>
+      <c r="E195" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C195=0,"",'ALUM_V8_vertical with IUCN'!C195)</f>
+        <v>FM1 Semi-confined transitional waters biome</v>
+      </c>
+      <c r="F195" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H195" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="str">
+        <f t="shared" ref="A196" si="7">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B196," - ","")," ","_"),"/","_or_"))</f>
+        <v>alum8:Estuary_or_coastal_watersintensive_use</v>
+      </c>
+      <c r="B196" t="str">
+        <f>'ALUM_V8_vertical with IUCN'!B196</f>
+        <v>Estuary/coastal waters - intensive use</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="6"/>
+        <v>get:groups/MFT1.1</v>
+      </c>
+      <c r="E196" t="str">
+        <f>IF('ALUM_V8_vertical with IUCN'!C196=0,"",'ALUM_V8_vertical with IUCN'!C196)</f>
+        <v>MFT1.1 Coastal river deltas</v>
+      </c>
+      <c r="F196" s="160" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H196" s="161">
+        <v>45261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21285,20 +27188,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21322,9 +27223,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875DE2A-4581-4F83-A029-C1E1F4A62497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C215534-B76D-48E8-81A8-13525A9E56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="14290" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="3240" windowWidth="17280" windowHeight="16200" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -3406,7 +3406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3435,6 +3435,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3720,12 +3721,6 @@
       <sz val="9"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4348,6 +4343,11 @@
     <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4378,11 +4378,6 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -4417,10 +4412,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4778,25 +4769,25 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="152" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9922,25 +9913,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="O1" s="151" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="O1" s="154" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -9959,10 +9950,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="151" t="s">
+      <c r="Q2" s="154" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="151"/>
+      <c r="R2" s="154"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -9983,10 +9974,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="153" t="s">
+      <c r="AP2" s="156" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="153"/>
+      <c r="AQ2" s="156"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -10053,10 +10044,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="152" t="s">
+      <c r="AT3" s="155" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="152"/>
+      <c r="AU3" s="155"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -13246,13 +13237,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="158"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
@@ -14422,7 +14413,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="98" t="s">
         <v>639</v>
       </c>
@@ -14846,7 +14837,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="98" t="s">
         <v>591</v>
       </c>
@@ -14896,7 +14887,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="98" t="s">
         <v>642</v>
       </c>
@@ -14952,7 +14943,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="98" t="s">
         <v>346</v>
       </c>
@@ -17406,7 +17397,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="98" t="s">
         <v>818</v>
       </c>
@@ -18310,13 +18301,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="158"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
@@ -19031,7 +19022,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="98" t="s">
         <v>593</v>
       </c>
@@ -21241,7 +21232,7 @@
       </c>
       <c r="C190" s="137"/>
     </row>
-    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -21263,7 +21254,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -21318,9 +21309,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21338,283 +21329,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="149" t="s">
         <v>1025</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="149" t="s">
         <v>1026</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="149" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="149" t="s">
         <v>1028</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="149" t="s">
         <v>1029</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="149" t="s">
         <v>1030</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="149" t="s">
         <v>1031</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="149" t="s">
         <v>1032</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="149" t="s">
         <v>1033</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="149" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2," - ","")," ","_"),"/","_or_"))</f>
-        <v>alum8:Nature_conservation</v>
+        <f t="shared" ref="A2" si="0">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2," - ","")," ","-"),"/","-or-"))</f>
+        <v>alum8:Nature-conservation</v>
       </c>
       <c r="B2" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B2</f>
         <v>Nature conservation</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D25" si="0">(IF(LEN(A2),IF(ISNUMBER(SEARCH(" ",E2)),IF(ISNUMBER(SEARCH(".",E2)),_xlfn.CONCAT("get:groups/",LEFT(E2,FIND(" ",E2)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E2,FIND(" ",E2)-1))),"")))</f>
+        <f t="shared" ref="D2:D25" si="1">(IF(LEN(A2),IF(ISNUMBER(SEARCH(" ",E2)),IF(ISNUMBER(SEARCH(".",E2)),_xlfn.CONCAT("get:groups/",LEFT(E2,FIND(" ",E2)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E2,FIND(" ",E2)-1))),"")))</f>
         <v/>
       </c>
       <c r="E2" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C2=0,"",'ALUM_V8_vertical with IUCN'!C2)</f>
         <v>Administrative</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G2" t="s">
         <v>1044</v>
       </c>
-      <c r="H2" s="161">
+      <c r="H2" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="1">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3," - ","")," ","_"),"/","_or_"))</f>
-        <v>alum8:Strict_nature_reserves</v>
+        <f>_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3," - ","")," ","-"),"/","-or-"))</f>
+        <v>alum8:Strict-nature-reserves</v>
       </c>
       <c r="B3" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B3</f>
         <v>Strict nature reserves</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E3" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C3=0,"",'ALUM_V8_vertical with IUCN'!C3)</f>
         <v>Administrative</v>
       </c>
-      <c r="F3" s="160" t="s">
+      <c r="F3" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G3" t="s">
         <v>1044</v>
       </c>
-      <c r="H3" s="161">
+      <c r="H3" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Wilderness_area</v>
+        <f t="shared" ref="A4:A67" si="2">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4," - ","")," ","-"),"/","-or-"))</f>
+        <v>alum8:Wilderness-area</v>
       </c>
       <c r="B4" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B4</f>
         <v>Wilderness area</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E4" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C4=0,"",'ALUM_V8_vertical with IUCN'!C4)</f>
         <v>Administrative</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G4" t="s">
         <v>1044</v>
       </c>
-      <c r="H4" s="161">
+      <c r="H4" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:National_park</v>
+        <f t="shared" si="2"/>
+        <v>alum8:National-park</v>
       </c>
       <c r="B5" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B5</f>
         <v>National park</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E5" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C5=0,"",'ALUM_V8_vertical with IUCN'!C5)</f>
         <v>Administrative</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G5" t="s">
         <v>1044</v>
       </c>
-      <c r="H5" s="161">
+      <c r="H5" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Natural_feature_protection</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Natural-feature-protection</v>
       </c>
       <c r="B6" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B6</f>
         <v>Natural feature protection</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E6" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C6=0,"",'ALUM_V8_vertical with IUCN'!C6)</f>
         <v>Administrative</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G6" t="s">
         <v>1044</v>
       </c>
-      <c r="H6" s="161">
+      <c r="H6" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Habitat_or_species_management_area</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Habitat-or-species-management-area</v>
       </c>
       <c r="B7" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B7</f>
         <v>Habitat/species management area</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E7" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C7=0,"",'ALUM_V8_vertical with IUCN'!C7)</f>
         <v>Administrative</v>
       </c>
-      <c r="F7" s="160" t="s">
+      <c r="F7" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G7" t="s">
         <v>1044</v>
       </c>
-      <c r="H7" s="161">
+      <c r="H7" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Protected_landscape</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Protected-landscape</v>
       </c>
       <c r="B8" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B8</f>
         <v>Protected landscape</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E8" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C8=0,"",'ALUM_V8_vertical with IUCN'!C8)</f>
         <v>Administrative</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G8" t="s">
         <v>1044</v>
       </c>
-      <c r="H8" s="161">
+      <c r="H8" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Other_conserved_area</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Other-conserved-area</v>
       </c>
       <c r="B9" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B9</f>
         <v>Other conserved area</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E9" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C9=0,"",'ALUM_V8_vertical with IUCN'!C9)</f>
         <v>Administrative</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G9" t="s">
         <v>1044</v>
       </c>
-      <c r="H9" s="161">
+      <c r="H9" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Managed_resource_protection</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Managed-resource-protection</v>
       </c>
       <c r="B10" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B10</f>
         <v>Managed resource protection</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E10" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C10=0,"",'ALUM_V8_vertical with IUCN'!C10)</f>
         <v/>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G10" t="s">
         <v>1044</v>
       </c>
-      <c r="H10" s="161">
+      <c r="H10" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Biodiversity</v>
       </c>
       <c r="B11" t="str">
@@ -21622,53 +21613,53 @@
         <v>Biodiversity</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C11=0,"",'ALUM_V8_vertical with IUCN'!C11)</f>
         <v>Administrative</v>
       </c>
-      <c r="F11" s="160" t="s">
+      <c r="F11" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G11" t="s">
         <v>1044</v>
       </c>
-      <c r="H11" s="161">
+      <c r="H11" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Surface_water_supply</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Surface-water-supply</v>
       </c>
       <c r="B12" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B12</f>
         <v>Surface water supply</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E12" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C12=0,"",'ALUM_V8_vertical with IUCN'!C12)</f>
         <v>Administrative</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G12" t="s">
         <v>1044</v>
       </c>
-      <c r="H12" s="161">
+      <c r="H12" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Groundwater</v>
       </c>
       <c r="B13" t="str">
@@ -21676,26 +21667,26 @@
         <v>Groundwater</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C13=0,"",'ALUM_V8_vertical with IUCN'!C13)</f>
         <v>Administrative</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G13" t="s">
         <v>1044</v>
       </c>
-      <c r="H13" s="161">
+      <c r="H13" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Landscape</v>
       </c>
       <c r="B14" t="str">
@@ -21703,161 +21694,161 @@
         <v>Landscape</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E14" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C14=0,"",'ALUM_V8_vertical with IUCN'!C14)</f>
         <v>Administrative</v>
       </c>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G14" t="s">
         <v>1044</v>
       </c>
-      <c r="H14" s="161">
+      <c r="H14" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Traditional_Indigenous_uses</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Traditional-Indigenous-uses</v>
       </c>
       <c r="B15" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B15</f>
         <v>Traditional Indigenous uses</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C15=0,"",'ALUM_V8_vertical with IUCN'!C15)</f>
         <v>Administrative</v>
       </c>
-      <c r="F15" s="160" t="s">
+      <c r="F15" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G15" t="s">
         <v>1044</v>
       </c>
-      <c r="H15" s="161">
+      <c r="H15" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Other_minimal_use</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Other-minimal-use</v>
       </c>
       <c r="B16" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B16</f>
         <v>Other minimal use</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C16=0,"",'ALUM_V8_vertical with IUCN'!C16)</f>
         <v/>
       </c>
-      <c r="F16" s="160" t="s">
+      <c r="F16" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G16" t="s">
         <v>1044</v>
       </c>
-      <c r="H16" s="161">
+      <c r="H16" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Defence_landnatural_areas</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Defence-landnatural-areas</v>
       </c>
       <c r="B17" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B17</f>
         <v>Defence land - natural areas</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E17" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C17=0,"",'ALUM_V8_vertical with IUCN'!C17)</f>
         <v>NVIS</v>
       </c>
-      <c r="F17" s="160" t="s">
+      <c r="F17" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G17" t="s">
         <v>1044</v>
       </c>
-      <c r="H17" s="161">
+      <c r="H17" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Stock_route</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Stock-route</v>
       </c>
       <c r="B18" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B18</f>
         <v>Stock route</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E18" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C18=0,"",'ALUM_V8_vertical with IUCN'!C18)</f>
         <v>NVIS</v>
       </c>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G18" t="s">
         <v>1044</v>
       </c>
-      <c r="H18" s="161">
+      <c r="H18" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Residual_native_cover</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Residual-native-cover</v>
       </c>
       <c r="B19" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B19</f>
         <v>Residual native cover</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E19" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C19=0,"",'ALUM_V8_vertical with IUCN'!C19)</f>
         <v>NVIS</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G19" t="s">
         <v>1044</v>
       </c>
-      <c r="H19" s="161">
+      <c r="H19" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Rehabilitation</v>
       </c>
       <c r="B20" t="str">
@@ -21865,162 +21856,162 @@
         <v>Rehabilitation</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E20" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C20=0,"",'ALUM_V8_vertical with IUCN'!C20)</f>
         <v>NVIS</v>
       </c>
-      <c r="F20" s="160" t="s">
+      <c r="F20" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G20" t="s">
         <v>1044</v>
       </c>
-      <c r="H20" s="161">
+      <c r="H20" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Grazing_native_vegetation</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Grazing-native-vegetation</v>
       </c>
       <c r="B21" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B21</f>
         <v>Grazing native vegetation</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E21" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C21=0,"",'ALUM_V8_vertical with IUCN'!C21)</f>
         <v/>
       </c>
-      <c r="F21" s="160" t="s">
+      <c r="F21" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G21" t="s">
         <v>1044</v>
       </c>
-      <c r="H21" s="161">
+      <c r="H21" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Production_native_forests</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Production-native-forests</v>
       </c>
       <c r="B22" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B22</f>
         <v>Production native forests</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E22" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C22=0,"",'ALUM_V8_vertical with IUCN'!C22)</f>
         <v/>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G22" t="s">
         <v>1044</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Wood_production_forestry</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Wood-production-forestry</v>
       </c>
       <c r="B23" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B23</f>
         <v>Wood production forestry</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E23" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C23=0,"",'ALUM_V8_vertical with IUCN'!C23)</f>
         <v>NVIS</v>
       </c>
-      <c r="F23" s="160" t="s">
+      <c r="F23" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G23" t="s">
         <v>1044</v>
       </c>
-      <c r="H23" s="161">
+      <c r="H23" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Other_forest_production</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Other-forest-production</v>
       </c>
       <c r="B24" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B24</f>
         <v>Other forest production</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E24" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C24=0,"",'ALUM_V8_vertical with IUCN'!C24)</f>
         <v>NVIS</v>
       </c>
-      <c r="F24" s="160" t="s">
+      <c r="F24" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G24" t="s">
         <v>1044</v>
       </c>
-      <c r="H24" s="161">
+      <c r="H24" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Plantation_forests</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Plantation-forests</v>
       </c>
       <c r="B25" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B25</f>
         <v>Plantation forests</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E25" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C25=0,"",'ALUM_V8_vertical with IUCN'!C25)</f>
         <v/>
       </c>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G25" t="s">
         <v>1044</v>
       </c>
-      <c r="H25" s="161">
+      <c r="H25" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Hardwood_plantation_forestry</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Hardwood-plantation-forestry</v>
       </c>
       <c r="B26" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B26</f>
@@ -22037,20 +22028,20 @@
         <f>IF('ALUM_V8_vertical with IUCN'!C26=0,"",'ALUM_V8_vertical with IUCN'!C26)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F26" s="160" t="s">
+      <c r="F26" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G26" t="s">
         <v>1044</v>
       </c>
-      <c r="H26" s="161">
+      <c r="H26" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Softwood_plantation_forestry</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Softwood-plantation-forestry</v>
       </c>
       <c r="B27" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B27</f>
@@ -22060,27 +22051,27 @@
         <v>1040</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D90" si="2">(IF(LEN(A27),IF(ISNUMBER(SEARCH(" ",E27)),IF(ISNUMBER(SEARCH(".",E27)),_xlfn.CONCAT("get:groups/",LEFT(E27,FIND(" ",E27)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E27,FIND(" ",E27)-1))),"")))</f>
+        <f t="shared" ref="D27:D90" si="3">(IF(LEN(A27),IF(ISNUMBER(SEARCH(" ",E27)),IF(ISNUMBER(SEARCH(".",E27)),_xlfn.CONCAT("get:groups/",LEFT(E27,FIND(" ",E27)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E27,FIND(" ",E27)-1))),"")))</f>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E27" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C27=0,"",'ALUM_V8_vertical with IUCN'!C27)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F27" s="160" t="s">
+      <c r="F27" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G27" t="s">
         <v>1044</v>
       </c>
-      <c r="H27" s="161">
+      <c r="H27" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Other_forest_plantation</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Other-forest-plantation</v>
       </c>
       <c r="B28" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B28</f>
@@ -22090,27 +22081,27 @@
         <v>1040</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E28" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C28=0,"",'ALUM_V8_vertical with IUCN'!C28)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F28" s="160" t="s">
+      <c r="F28" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G28" t="s">
         <v>1044</v>
       </c>
-      <c r="H28" s="161">
+      <c r="H28" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Environmental_forest_plantation</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Environmental-forest-plantation</v>
       </c>
       <c r="B29" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B29</f>
@@ -22120,54 +22111,54 @@
         <v>1040</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E29" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C29=0,"",'ALUM_V8_vertical with IUCN'!C29)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F29" s="160" t="s">
+      <c r="F29" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G29" t="s">
         <v>1044</v>
       </c>
-      <c r="H29" s="161">
+      <c r="H29" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Grazing_modified_pastures</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Grazing-modified-pastures</v>
       </c>
       <c r="B30" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B30</f>
         <v>Grazing modified pastures</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E30" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C30=0,"",'ALUM_V8_vertical with IUCN'!C30)</f>
         <v/>
       </c>
-      <c r="F30" s="160" t="s">
+      <c r="F30" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G30" t="s">
         <v>1044</v>
       </c>
-      <c r="H30" s="161">
+      <c r="H30" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Native_or_exotic_pasture_mosaic</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Native-or-exotic-pasture-mosaic</v>
       </c>
       <c r="B31" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B31</f>
@@ -22177,27 +22168,27 @@
         <v>1040</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E31" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C31=0,"",'ALUM_V8_vertical with IUCN'!C31)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F31" s="160" t="s">
+      <c r="F31" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G31" t="s">
         <v>1044</v>
       </c>
-      <c r="H31" s="161">
+      <c r="H31" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Woody_fodder_plants_</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Woody-fodder-plants-</v>
       </c>
       <c r="B32" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B32</f>
@@ -22207,27 +22198,27 @@
         <v>1040</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E32" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C32=0,"",'ALUM_V8_vertical with IUCN'!C32)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F32" s="160" t="s">
+      <c r="F32" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G32" t="s">
         <v>1044</v>
       </c>
-      <c r="H32" s="161">
+      <c r="H32" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Pasture_legumes</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Pasture-legumes</v>
       </c>
       <c r="B33" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B33</f>
@@ -22237,27 +22228,27 @@
         <v>1040</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E33" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C33=0,"",'ALUM_V8_vertical with IUCN'!C33)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F33" s="160" t="s">
+      <c r="F33" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G33" t="s">
         <v>1044</v>
       </c>
-      <c r="H33" s="161">
+      <c r="H33" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Pasture_legume_or_grass_mixtures</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Pasture-legume-or-grass-mixtures</v>
       </c>
       <c r="B34" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B34</f>
@@ -22267,27 +22258,27 @@
         <v>1040</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E34" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C34=0,"",'ALUM_V8_vertical with IUCN'!C34)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F34" s="160" t="s">
+      <c r="F34" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G34" t="s">
         <v>1044</v>
       </c>
-      <c r="H34" s="161">
+      <c r="H34" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Sown_grasses</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Sown-grasses</v>
       </c>
       <c r="B35" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B35</f>
@@ -22297,26 +22288,26 @@
         <v>1040</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E35" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C35=0,"",'ALUM_V8_vertical with IUCN'!C35)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F35" s="160" t="s">
+      <c r="F35" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G35" t="s">
         <v>1044</v>
       </c>
-      <c r="H35" s="161">
+      <c r="H35" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Cropping</v>
       </c>
       <c r="B36" t="str">
@@ -22324,26 +22315,26 @@
         <v>Cropping</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E36" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C36=0,"",'ALUM_V8_vertical with IUCN'!C36)</f>
         <v/>
       </c>
-      <c r="F36" s="160" t="s">
+      <c r="F36" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G36" t="s">
         <v>1044</v>
       </c>
-      <c r="H36" s="161">
+      <c r="H36" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Cereals</v>
       </c>
       <c r="B37" t="str">
@@ -22354,27 +22345,27 @@
         <v>1040</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E37" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C37=0,"",'ALUM_V8_vertical with IUCN'!C37)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F37" s="160" t="s">
+      <c r="F37" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G37" t="s">
         <v>1044</v>
       </c>
-      <c r="H37" s="161">
+      <c r="H37" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Beverage_and_spice_crops</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Beverage-and-spice-crops</v>
       </c>
       <c r="B38" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B38</f>
@@ -22384,27 +22375,27 @@
         <v>1040</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E38" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C38=0,"",'ALUM_V8_vertical with IUCN'!C38)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F38" s="160" t="s">
+      <c r="F38" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G38" t="s">
         <v>1044</v>
       </c>
-      <c r="H38" s="161">
+      <c r="H38" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Hay_and_silage_</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Hay-and-silage-</v>
       </c>
       <c r="B39" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B39</f>
@@ -22414,26 +22405,26 @@
         <v>1040</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E39" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C39=0,"",'ALUM_V8_vertical with IUCN'!C39)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F39" s="160" t="s">
+      <c r="F39" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G39" t="s">
         <v>1044</v>
       </c>
-      <c r="H39" s="161">
+      <c r="H39" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Oilseeds</v>
       </c>
       <c r="B40" t="str">
@@ -22444,26 +22435,26 @@
         <v>1040</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E40" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C40=0,"",'ALUM_V8_vertical with IUCN'!C40)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F40" s="160" t="s">
+      <c r="F40" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G40" t="s">
         <v>1044</v>
       </c>
-      <c r="H40" s="161">
+      <c r="H40" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Sugar</v>
       </c>
       <c r="B41" t="str">
@@ -22474,26 +22465,26 @@
         <v>1040</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E41" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C41=0,"",'ALUM_V8_vertical with IUCN'!C41)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F41" s="160" t="s">
+      <c r="F41" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G41" t="s">
         <v>1044</v>
       </c>
-      <c r="H41" s="161">
+      <c r="H41" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Cotton</v>
       </c>
       <c r="B42" t="str">
@@ -22504,27 +22495,27 @@
         <v>1040</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E42" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C42=0,"",'ALUM_V8_vertical with IUCN'!C42)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F42" s="160" t="s">
+      <c r="F42" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G42" t="s">
         <v>1044</v>
       </c>
-      <c r="H42" s="161">
+      <c r="H42" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Alkaloid_poppies</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Alkaloid-poppies</v>
       </c>
       <c r="B43" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B43</f>
@@ -22534,26 +22525,26 @@
         <v>1040</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E43" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C43=0,"",'ALUM_V8_vertical with IUCN'!C43)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F43" s="160" t="s">
+      <c r="F43" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G43" t="s">
         <v>1044</v>
       </c>
-      <c r="H43" s="161">
+      <c r="H43" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Pulses</v>
       </c>
       <c r="B44" t="str">
@@ -22564,54 +22555,54 @@
         <v>1040</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E44" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C44=0,"",'ALUM_V8_vertical with IUCN'!C44)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F44" s="160" t="s">
+      <c r="F44" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G44" t="s">
         <v>1044</v>
       </c>
-      <c r="H44" s="161">
+      <c r="H44" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Perennial_horticulture</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Perennial-horticulture</v>
       </c>
       <c r="B45" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B45</f>
         <v>Perennial horticulture</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E45" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C45=0,"",'ALUM_V8_vertical with IUCN'!C45)</f>
         <v/>
       </c>
-      <c r="F45" s="160" t="s">
+      <c r="F45" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G45" t="s">
         <v>1044</v>
       </c>
-      <c r="H45" s="161">
+      <c r="H45" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Tree_fruits</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Tree-fruits</v>
       </c>
       <c r="B46" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B46</f>
@@ -22621,26 +22612,26 @@
         <v>1040</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E46" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C46=0,"",'ALUM_V8_vertical with IUCN'!C46)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F46" s="160" t="s">
+      <c r="F46" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G46" t="s">
         <v>1044</v>
       </c>
-      <c r="H46" s="161">
+      <c r="H46" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Olives</v>
       </c>
       <c r="B47" t="str">
@@ -22651,27 +22642,27 @@
         <v>1040</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E47" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C47=0,"",'ALUM_V8_vertical with IUCN'!C47)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F47" s="160" t="s">
+      <c r="F47" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G47" t="s">
         <v>1044</v>
       </c>
-      <c r="H47" s="161">
+      <c r="H47" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Tree_nuts</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Tree-nuts</v>
       </c>
       <c r="B48" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B48</f>
@@ -22681,27 +22672,27 @@
         <v>1040</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E48" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C48=0,"",'ALUM_V8_vertical with IUCN'!C48)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F48" s="160" t="s">
+      <c r="F48" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G48" t="s">
         <v>1044</v>
       </c>
-      <c r="H48" s="161">
+      <c r="H48" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Vine_fruits</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Vine-fruits</v>
       </c>
       <c r="B49" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B49</f>
@@ -22711,27 +22702,27 @@
         <v>1040</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E49" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C49=0,"",'ALUM_V8_vertical with IUCN'!C49)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F49" s="160" t="s">
+      <c r="F49" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G49" t="s">
         <v>1044</v>
       </c>
-      <c r="H49" s="161">
+      <c r="H49" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Shrub_berries_and_fruits</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Shrub-berries-and-fruits</v>
       </c>
       <c r="B50" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B50</f>
@@ -22741,27 +22732,27 @@
         <v>1040</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E50" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C50=0,"",'ALUM_V8_vertical with IUCN'!C50)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F50" s="160" t="s">
+      <c r="F50" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G50" t="s">
         <v>1044</v>
       </c>
-      <c r="H50" s="161">
+      <c r="H50" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Perennial_flowers_and_bulbs</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Perennial-flowers-and-bulbs</v>
       </c>
       <c r="B51" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B51</f>
@@ -22771,27 +22762,27 @@
         <v>1040</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E51" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C51=0,"",'ALUM_V8_vertical with IUCN'!C51)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F51" s="160" t="s">
+      <c r="F51" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G51" t="s">
         <v>1044</v>
       </c>
-      <c r="H51" s="161">
+      <c r="H51" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Perennial_vegetables_and_herbs</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Perennial-vegetables-and-herbs</v>
       </c>
       <c r="B52" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B52</f>
@@ -22801,26 +22792,26 @@
         <v>1040</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E52" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C52=0,"",'ALUM_V8_vertical with IUCN'!C52)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F52" s="160" t="s">
+      <c r="F52" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G52" t="s">
         <v>1044</v>
       </c>
-      <c r="H52" s="161">
+      <c r="H52" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Citrus</v>
       </c>
       <c r="B53" t="str">
@@ -22831,26 +22822,26 @@
         <v>1040</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E53" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C53=0,"",'ALUM_V8_vertical with IUCN'!C53)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F53" s="160" t="s">
+      <c r="F53" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G53" t="s">
         <v>1044</v>
       </c>
-      <c r="H53" s="161">
+      <c r="H53" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alum8:Grapes</v>
       </c>
       <c r="B54" t="str">
@@ -22861,54 +22852,54 @@
         <v>1040</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E54" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C54=0,"",'ALUM_V8_vertical with IUCN'!C54)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F54" s="160" t="s">
+      <c r="F54" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G54" t="s">
         <v>1044</v>
       </c>
-      <c r="H54" s="161">
+      <c r="H54" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Seasonal_horticulture</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Seasonal-horticulture</v>
       </c>
       <c r="B55" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B55</f>
         <v>Seasonal horticulture</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E55" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C55=0,"",'ALUM_V8_vertical with IUCN'!C55)</f>
         <v/>
       </c>
-      <c r="F55" s="160" t="s">
+      <c r="F55" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G55" t="s">
         <v>1044</v>
       </c>
-      <c r="H55" s="161">
+      <c r="H55" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Seasonal_fruits_</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Seasonal-fruits-</v>
       </c>
       <c r="B56" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B56</f>
@@ -22918,27 +22909,27 @@
         <v>1040</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E56" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C56=0,"",'ALUM_V8_vertical with IUCN'!C56)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F56" s="160" t="s">
+      <c r="F56" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G56" t="s">
         <v>1044</v>
       </c>
-      <c r="H56" s="161">
+      <c r="H56" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Seasonal_flowers_and_bulbs</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Seasonal-flowers-and-bulbs</v>
       </c>
       <c r="B57" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B57</f>
@@ -22948,27 +22939,27 @@
         <v>1040</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E57" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C57=0,"",'ALUM_V8_vertical with IUCN'!C57)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F57" s="160" t="s">
+      <c r="F57" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G57" t="s">
         <v>1044</v>
       </c>
-      <c r="H57" s="161">
+      <c r="H57" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Seasonal_vegetables_and_herbs</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Seasonal-vegetables-and-herbs</v>
       </c>
       <c r="B58" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B58</f>
@@ -22978,216 +22969,216 @@
         <v>1040</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E58" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C58=0,"",'ALUM_V8_vertical with IUCN'!C58)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F58" s="160" t="s">
+      <c r="F58" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G58" t="s">
         <v>1044</v>
       </c>
-      <c r="H58" s="161">
+      <c r="H58" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Land_in_transition</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Land-in-transition</v>
       </c>
       <c r="B59" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B59</f>
         <v>Land in transition</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E59" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C59=0,"",'ALUM_V8_vertical with IUCN'!C59)</f>
         <v/>
       </c>
-      <c r="F59" s="160" t="s">
+      <c r="F59" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G59" t="s">
         <v>1044</v>
       </c>
-      <c r="H59" s="161">
+      <c r="H59" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Degraded_land</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Degraded-land</v>
       </c>
       <c r="B60" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B60</f>
         <v>Degraded land</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C60=0,"",'ALUM_V8_vertical with IUCN'!C60)</f>
         <v>NVIS</v>
       </c>
-      <c r="F60" s="160" t="s">
+      <c r="F60" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G60" t="s">
         <v>1044</v>
       </c>
-      <c r="H60" s="161">
+      <c r="H60" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Abandoned_land</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Abandoned-land</v>
       </c>
       <c r="B61" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B61</f>
         <v>Abandoned land</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E61" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C61=0,"",'ALUM_V8_vertical with IUCN'!C61)</f>
         <v>NVIS</v>
       </c>
-      <c r="F61" s="160" t="s">
+      <c r="F61" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G61" t="s">
         <v>1044</v>
       </c>
-      <c r="H61" s="161">
+      <c r="H61" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Land_under_rehabilitation</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Land-under-rehabilitation</v>
       </c>
       <c r="B62" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B62</f>
         <v>Land under rehabilitation</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E62" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C62=0,"",'ALUM_V8_vertical with IUCN'!C62)</f>
         <v>NVIS</v>
       </c>
-      <c r="F62" s="160" t="s">
+      <c r="F62" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G62" t="s">
         <v>1044</v>
       </c>
-      <c r="H62" s="161">
+      <c r="H62" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:No_defined_use</v>
+        <f t="shared" si="2"/>
+        <v>alum8:No-defined-use</v>
       </c>
       <c r="B63" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B63</f>
         <v>No defined use</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E63" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C63=0,"",'ALUM_V8_vertical with IUCN'!C63)</f>
         <v>NVIS</v>
       </c>
-      <c r="F63" s="160" t="s">
+      <c r="F63" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G63" t="s">
         <v>1044</v>
       </c>
-      <c r="H63" s="161">
+      <c r="H63" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Abandoned_perennial_horticulture</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Abandoned-perennial-horticulture</v>
       </c>
       <c r="B64" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B64</f>
         <v>Abandoned perennial horticulture</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E64" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C64=0,"",'ALUM_V8_vertical with IUCN'!C64)</f>
         <v>NVIS</v>
       </c>
-      <c r="F64" s="160" t="s">
+      <c r="F64" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G64" t="s">
         <v>1044</v>
       </c>
-      <c r="H64" s="161">
+      <c r="H64" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Irrigated_plantation_forests</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Irrigated-plantation-forests</v>
       </c>
       <c r="B65" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B65</f>
         <v>Irrigated plantation forests</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E65" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C65=0,"",'ALUM_V8_vertical with IUCN'!C65)</f>
         <v/>
       </c>
-      <c r="F65" s="160" t="s">
+      <c r="F65" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G65" t="s">
         <v>1044</v>
       </c>
-      <c r="H65" s="161">
+      <c r="H65" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="1"/>
-        <v>alum8:Irrigated_hardwood_plantation_forestry</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Irrigated-hardwood-plantation-forestry</v>
       </c>
       <c r="B66" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B66</f>
@@ -23197,27 +23188,27 @@
         <v>1040</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E66" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C66=0,"",'ALUM_V8_vertical with IUCN'!C66)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F66" s="160" t="s">
+      <c r="F66" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G66" t="s">
         <v>1044</v>
       </c>
-      <c r="H66" s="161">
+      <c r="H66" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="3">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B67," - ","")," ","_"),"/","_or_"))</f>
-        <v>alum8:Irrigated_softwood_plantation_forestry</v>
+        <f t="shared" si="2"/>
+        <v>alum8:Irrigated-softwood-plantation-forestry</v>
       </c>
       <c r="B67" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B67</f>
@@ -23227,27 +23218,27 @@
         <v>1040</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E67" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C67=0,"",'ALUM_V8_vertical with IUCN'!C67)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F67" s="160" t="s">
+      <c r="F67" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G67" t="s">
         <v>1044</v>
       </c>
-      <c r="H67" s="161">
+      <c r="H67" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_other_forest_plantation</v>
+        <f t="shared" ref="A68:A131" si="4">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B68," - ","")," ","-"),"/","-or-"))</f>
+        <v>alum8:Irrigated-other-forest-plantation</v>
       </c>
       <c r="B68" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B68</f>
@@ -23257,27 +23248,27 @@
         <v>1040</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E68" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C68=0,"",'ALUM_V8_vertical with IUCN'!C68)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F68" s="160" t="s">
+      <c r="F68" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G68" t="s">
         <v>1044</v>
       </c>
-      <c r="H68" s="161">
+      <c r="H68" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_environmental_forest_plantation</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-environmental-forest-plantation</v>
       </c>
       <c r="B69" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B69</f>
@@ -23287,54 +23278,54 @@
         <v>1040</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.3</v>
       </c>
       <c r="E69" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C69=0,"",'ALUM_V8_vertical with IUCN'!C69)</f>
         <v>T7.3 Plantations</v>
       </c>
-      <c r="F69" s="160" t="s">
+      <c r="F69" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G69" t="s">
         <v>1044</v>
       </c>
-      <c r="H69" s="161">
+      <c r="H69" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Grazing_irrigated_modified_pastures</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Grazing-irrigated-modified-pastures</v>
       </c>
       <c r="B70" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B70</f>
         <v>Grazing irrigated modified pastures</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E70" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C70=0,"",'ALUM_V8_vertical with IUCN'!C70)</f>
         <v/>
       </c>
-      <c r="F70" s="160" t="s">
+      <c r="F70" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G70" t="s">
         <v>1044</v>
       </c>
-      <c r="H70" s="161">
+      <c r="H70" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_woody_fodder_plants</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-woody-fodder-plants</v>
       </c>
       <c r="B71" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B71</f>
@@ -23344,27 +23335,27 @@
         <v>1040</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E71" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C71=0,"",'ALUM_V8_vertical with IUCN'!C71)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F71" s="160" t="s">
+      <c r="F71" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G71" t="s">
         <v>1044</v>
       </c>
-      <c r="H71" s="161">
+      <c r="H71" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_pasture_legumes</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-pasture-legumes</v>
       </c>
       <c r="B72" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B72</f>
@@ -23374,27 +23365,27 @@
         <v>1040</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E72" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C72=0,"",'ALUM_V8_vertical with IUCN'!C72)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F72" s="160" t="s">
+      <c r="F72" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G72" t="s">
         <v>1044</v>
       </c>
-      <c r="H72" s="161">
+      <c r="H72" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_legume_or_grass_mixtures</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-legume-or-grass-mixtures</v>
       </c>
       <c r="B73" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B73</f>
@@ -23404,27 +23395,27 @@
         <v>1040</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E73" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C73=0,"",'ALUM_V8_vertical with IUCN'!C73)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F73" s="160" t="s">
+      <c r="F73" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G73" t="s">
         <v>1044</v>
       </c>
-      <c r="H73" s="161">
+      <c r="H73" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_sown_grasses</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-sown-grasses</v>
       </c>
       <c r="B74" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B74</f>
@@ -23434,54 +23425,54 @@
         <v>1040</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.2</v>
       </c>
       <c r="E74" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C74=0,"",'ALUM_V8_vertical with IUCN'!C74)</f>
         <v>T7.2 Sown pastures and fields</v>
       </c>
-      <c r="F74" s="160" t="s">
+      <c r="F74" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G74" t="s">
         <v>1044</v>
       </c>
-      <c r="H74" s="161">
+      <c r="H74" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_cropping</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-cropping</v>
       </c>
       <c r="B75" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B75</f>
         <v>Irrigated cropping</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E75" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C75=0,"",'ALUM_V8_vertical with IUCN'!C75)</f>
         <v/>
       </c>
-      <c r="F75" s="160" t="s">
+      <c r="F75" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G75" t="s">
         <v>1044</v>
       </c>
-      <c r="H75" s="161">
+      <c r="H75" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_cereals</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-cereals</v>
       </c>
       <c r="B76" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B76</f>
@@ -23491,27 +23482,27 @@
         <v>1040</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E76" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C76=0,"",'ALUM_V8_vertical with IUCN'!C76)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F76" s="160" t="s">
+      <c r="F76" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G76" t="s">
         <v>1044</v>
       </c>
-      <c r="H76" s="161">
+      <c r="H76" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_beverage_and_spice_crops</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-beverage-and-spice-crops</v>
       </c>
       <c r="B77" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B77</f>
@@ -23521,27 +23512,27 @@
         <v>1040</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E77" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C77=0,"",'ALUM_V8_vertical with IUCN'!C77)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F77" s="160" t="s">
+      <c r="F77" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G77" t="s">
         <v>1044</v>
       </c>
-      <c r="H77" s="161">
+      <c r="H77" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_hay_and_silage_</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-hay-and-silage-</v>
       </c>
       <c r="B78" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B78</f>
@@ -23551,27 +23542,27 @@
         <v>1040</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E78" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C78=0,"",'ALUM_V8_vertical with IUCN'!C78)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F78" s="160" t="s">
+      <c r="F78" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G78" t="s">
         <v>1044</v>
       </c>
-      <c r="H78" s="161">
+      <c r="H78" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_oilseeds</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-oilseeds</v>
       </c>
       <c r="B79" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B79</f>
@@ -23581,27 +23572,27 @@
         <v>1040</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E79" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C79=0,"",'ALUM_V8_vertical with IUCN'!C79)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F79" s="160" t="s">
+      <c r="F79" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G79" t="s">
         <v>1044</v>
       </c>
-      <c r="H79" s="161">
+      <c r="H79" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_sugar</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-sugar</v>
       </c>
       <c r="B80" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B80</f>
@@ -23611,27 +23602,27 @@
         <v>1040</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E80" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C80=0,"",'ALUM_V8_vertical with IUCN'!C80)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F80" s="160" t="s">
+      <c r="F80" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G80" t="s">
         <v>1044</v>
       </c>
-      <c r="H80" s="161">
+      <c r="H80" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_cotton</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-cotton</v>
       </c>
       <c r="B81" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B81</f>
@@ -23641,27 +23632,27 @@
         <v>1040</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E81" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C81=0,"",'ALUM_V8_vertical with IUCN'!C81)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F81" s="160" t="s">
+      <c r="F81" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G81" t="s">
         <v>1044</v>
       </c>
-      <c r="H81" s="161">
+      <c r="H81" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_alkaloid_poppies</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-alkaloid-poppies</v>
       </c>
       <c r="B82" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B82</f>
@@ -23671,27 +23662,27 @@
         <v>1040</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E82" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C82=0,"",'ALUM_V8_vertical with IUCN'!C82)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F82" s="160" t="s">
+      <c r="F82" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G82" t="s">
         <v>1044</v>
       </c>
-      <c r="H82" s="161">
+      <c r="H82" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_pulses</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-pulses</v>
       </c>
       <c r="B83" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B83</f>
@@ -23701,27 +23692,27 @@
         <v>1040</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E83" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C83=0,"",'ALUM_V8_vertical with IUCN'!C83)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F83" s="160" t="s">
+      <c r="F83" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G83" t="s">
         <v>1044</v>
       </c>
-      <c r="H83" s="161">
+      <c r="H83" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_rice</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-rice</v>
       </c>
       <c r="B84" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B84</f>
@@ -23731,54 +23722,54 @@
         <v>1041</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/F3.3</v>
       </c>
       <c r="E84" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C84=0,"",'ALUM_V8_vertical with IUCN'!C84)</f>
         <v>F3.3 Rice paddies</v>
       </c>
-      <c r="F84" s="160" t="s">
+      <c r="F84" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G84" t="s">
         <v>1044</v>
       </c>
-      <c r="H84" s="161">
+      <c r="H84" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_perennial_horticulture</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-perennial-horticulture</v>
       </c>
       <c r="B85" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B85</f>
         <v>Irrigated perennial horticulture</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E85" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C85=0,"",'ALUM_V8_vertical with IUCN'!C85)</f>
         <v/>
       </c>
-      <c r="F85" s="160" t="s">
+      <c r="F85" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G85" t="s">
         <v>1044</v>
       </c>
-      <c r="H85" s="161">
+      <c r="H85" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_tree_fruits</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-tree-fruits</v>
       </c>
       <c r="B86" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B86</f>
@@ -23788,27 +23779,27 @@
         <v>1040</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E86" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C86=0,"",'ALUM_V8_vertical with IUCN'!C86)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F86" s="160" t="s">
+      <c r="F86" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G86" t="s">
         <v>1044</v>
       </c>
-      <c r="H86" s="161">
+      <c r="H86" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_olives</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-olives</v>
       </c>
       <c r="B87" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B87</f>
@@ -23818,27 +23809,27 @@
         <v>1040</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E87" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C87=0,"",'ALUM_V8_vertical with IUCN'!C87)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F87" s="160" t="s">
+      <c r="F87" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G87" t="s">
         <v>1044</v>
       </c>
-      <c r="H87" s="161">
+      <c r="H87" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_tree_nuts</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-tree-nuts</v>
       </c>
       <c r="B88" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B88</f>
@@ -23848,27 +23839,27 @@
         <v>1040</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E88" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C88=0,"",'ALUM_V8_vertical with IUCN'!C88)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F88" s="160" t="s">
+      <c r="F88" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G88" t="s">
         <v>1044</v>
       </c>
-      <c r="H88" s="161">
+      <c r="H88" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_vine_fruits</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-vine-fruits</v>
       </c>
       <c r="B89" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B89</f>
@@ -23878,27 +23869,27 @@
         <v>1040</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E89" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C89=0,"",'ALUM_V8_vertical with IUCN'!C89)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F89" s="160" t="s">
+      <c r="F89" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G89" t="s">
         <v>1044</v>
       </c>
-      <c r="H89" s="161">
+      <c r="H89" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_shrub_berries_and_fruits</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-shrub-berries-and-fruits</v>
       </c>
       <c r="B90" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B90</f>
@@ -23908,27 +23899,27 @@
         <v>1040</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E90" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C90=0,"",'ALUM_V8_vertical with IUCN'!C90)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F90" s="160" t="s">
+      <c r="F90" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G90" t="s">
         <v>1044</v>
       </c>
-      <c r="H90" s="161">
+      <c r="H90" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated__perennial_flowers_and_bulbs</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated--perennial-flowers-and-bulbs</v>
       </c>
       <c r="B91" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B91</f>
@@ -23938,27 +23929,27 @@
         <v>1040</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91:D154" si="4">(IF(LEN(A91),IF(ISNUMBER(SEARCH(" ",E91)),IF(ISNUMBER(SEARCH(".",E91)),_xlfn.CONCAT("get:groups/",LEFT(E91,FIND(" ",E91)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E91,FIND(" ",E91)-1))),"")))</f>
+        <f t="shared" ref="D91:D154" si="5">(IF(LEN(A91),IF(ISNUMBER(SEARCH(" ",E91)),IF(ISNUMBER(SEARCH(".",E91)),_xlfn.CONCAT("get:groups/",LEFT(E91,FIND(" ",E91)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E91,FIND(" ",E91)-1))),"")))</f>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E91" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C91=0,"",'ALUM_V8_vertical with IUCN'!C91)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F91" s="160" t="s">
+      <c r="F91" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G91" t="s">
         <v>1044</v>
       </c>
-      <c r="H91" s="161">
+      <c r="H91" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_perennial_vegetables_and_herbs</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-perennial-vegetables-and-herbs</v>
       </c>
       <c r="B92" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B92</f>
@@ -23968,27 +23959,27 @@
         <v>1040</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E92" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C92=0,"",'ALUM_V8_vertical with IUCN'!C92)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F92" s="160" t="s">
+      <c r="F92" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G92" t="s">
         <v>1044</v>
       </c>
-      <c r="H92" s="161">
+      <c r="H92" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_citrus</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-citrus</v>
       </c>
       <c r="B93" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B93</f>
@@ -23998,27 +23989,27 @@
         <v>1040</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E93" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C93=0,"",'ALUM_V8_vertical with IUCN'!C93)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F93" s="160" t="s">
+      <c r="F93" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G93" t="s">
         <v>1044</v>
       </c>
-      <c r="H93" s="161">
+      <c r="H93" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_grapes</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-grapes</v>
       </c>
       <c r="B94" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B94</f>
@@ -24028,54 +24019,54 @@
         <v>1040</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E94" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C94=0,"",'ALUM_V8_vertical with IUCN'!C94)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F94" s="160" t="s">
+      <c r="F94" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G94" t="s">
         <v>1044</v>
       </c>
-      <c r="H94" s="161">
+      <c r="H94" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_seasonal_horticulture</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-seasonal-horticulture</v>
       </c>
       <c r="B95" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B95</f>
         <v>Irrigated seasonal horticulture</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E95" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C95=0,"",'ALUM_V8_vertical with IUCN'!C95)</f>
         <v/>
       </c>
-      <c r="F95" s="160" t="s">
+      <c r="F95" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G95" t="s">
         <v>1044</v>
       </c>
-      <c r="H95" s="161">
+      <c r="H95" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_seasonal_fruits_</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-seasonal-fruits-</v>
       </c>
       <c r="B96" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B96</f>
@@ -24085,27 +24076,27 @@
         <v>1040</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E96" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C96=0,"",'ALUM_V8_vertical with IUCN'!C96)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F96" s="160" t="s">
+      <c r="F96" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G96" t="s">
         <v>1044</v>
       </c>
-      <c r="H96" s="161">
+      <c r="H96" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_seasonal_flowers_and_bulbs</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-seasonal-flowers-and-bulbs</v>
       </c>
       <c r="B97" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B97</f>
@@ -24115,27 +24106,27 @@
         <v>1040</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E97" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C97=0,"",'ALUM_V8_vertical with IUCN'!C97)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F97" s="160" t="s">
+      <c r="F97" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G97" t="s">
         <v>1044</v>
       </c>
-      <c r="H97" s="161">
+      <c r="H97" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_seasonal_vegetables_and_herbs</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-seasonal-vegetables-and-herbs</v>
       </c>
       <c r="B98" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B98</f>
@@ -24145,27 +24136,27 @@
         <v>1040</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E98" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C98=0,"",'ALUM_V8_vertical with IUCN'!C98)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F98" s="160" t="s">
+      <c r="F98" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G98" t="s">
         <v>1044</v>
       </c>
-      <c r="H98" s="161">
+      <c r="H98" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_turf_farming</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-turf-farming</v>
       </c>
       <c r="B99" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B99</f>
@@ -24175,216 +24166,216 @@
         <v>1040</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.1</v>
       </c>
       <c r="E99" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C99=0,"",'ALUM_V8_vertical with IUCN'!C99)</f>
         <v>T7.1 Croplands</v>
       </c>
-      <c r="F99" s="160" t="s">
+      <c r="F99" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G99" t="s">
         <v>1044</v>
       </c>
-      <c r="H99" s="161">
+      <c r="H99" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_land_in_transition</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-land-in-transition</v>
       </c>
       <c r="B100" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B100</f>
         <v>Irrigated land in transition</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E100" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C100=0,"",'ALUM_V8_vertical with IUCN'!C100)</f>
         <v/>
       </c>
-      <c r="F100" s="160" t="s">
+      <c r="F100" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G100" t="s">
         <v>1044</v>
       </c>
-      <c r="H100" s="161">
+      <c r="H100" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Degraded_irrigated_land</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Degraded-irrigated-land</v>
       </c>
       <c r="B101" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B101</f>
         <v>Degraded irrigated land</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E101" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C101=0,"",'ALUM_V8_vertical with IUCN'!C101)</f>
         <v>NVIS</v>
       </c>
-      <c r="F101" s="160" t="s">
+      <c r="F101" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G101" t="s">
         <v>1044</v>
       </c>
-      <c r="H101" s="161">
+      <c r="H101" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Abandoned_irrigated_land</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Abandoned-irrigated-land</v>
       </c>
       <c r="B102" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B102</f>
         <v>Abandoned irrigated land</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E102" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C102=0,"",'ALUM_V8_vertical with IUCN'!C102)</f>
         <v>NVIS</v>
       </c>
-      <c r="F102" s="160" t="s">
+      <c r="F102" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G102" t="s">
         <v>1044</v>
       </c>
-      <c r="H102" s="161">
+      <c r="H102" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Irrigated_land_under_rehabilitation</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Irrigated-land-under-rehabilitation</v>
       </c>
       <c r="B103" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B103</f>
         <v>Irrigated land under rehabilitation</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E103" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C103=0,"",'ALUM_V8_vertical with IUCN'!C103)</f>
         <v>NVIS</v>
       </c>
-      <c r="F103" s="160" t="s">
+      <c r="F103" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G103" t="s">
         <v>1044</v>
       </c>
-      <c r="H103" s="161">
+      <c r="H103" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:No_defined_useirrigation</v>
+        <f t="shared" si="4"/>
+        <v>alum8:No-defined-useirrigation</v>
       </c>
       <c r="B104" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B104</f>
         <v>No defined use - irrigation</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E104" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C104=0,"",'ALUM_V8_vertical with IUCN'!C104)</f>
         <v>NVIS</v>
       </c>
-      <c r="F104" s="160" t="s">
+      <c r="F104" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G104" t="s">
         <v>1044</v>
       </c>
-      <c r="H104" s="161">
+      <c r="H104" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Abandoned_irrigated_perennial_horticulture</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Abandoned-irrigated-perennial-horticulture</v>
       </c>
       <c r="B105" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B105</f>
         <v>Abandoned irrigated perennial horticulture</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E105" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C105=0,"",'ALUM_V8_vertical with IUCN'!C105)</f>
         <v>NVIS</v>
       </c>
-      <c r="F105" s="160" t="s">
+      <c r="F105" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G105" t="s">
         <v>1044</v>
       </c>
-      <c r="H105" s="161">
+      <c r="H105" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Intensive_horticulture</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Intensive-horticulture</v>
       </c>
       <c r="B106" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B106</f>
         <v>Intensive horticulture</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E106" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C106=0,"",'ALUM_V8_vertical with IUCN'!C106)</f>
         <v/>
       </c>
-      <c r="F106" s="160" t="s">
+      <c r="F106" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G106" t="s">
         <v>1044</v>
       </c>
-      <c r="H106" s="161">
+      <c r="H106" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Production_nurseries</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Production-nurseries</v>
       </c>
       <c r="B107" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B107</f>
@@ -24394,26 +24385,26 @@
         <v>1040</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E107" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C107=0,"",'ALUM_V8_vertical with IUCN'!C107)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F107" s="160" t="s">
+      <c r="F107" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G107" t="s">
         <v>1044</v>
       </c>
-      <c r="H107" s="161">
+      <c r="H107" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Shadehouses</v>
       </c>
       <c r="B108" t="str">
@@ -24424,26 +24415,26 @@
         <v>1040</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E108" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C108=0,"",'ALUM_V8_vertical with IUCN'!C108)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F108" s="160" t="s">
+      <c r="F108" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G108" t="s">
         <v>1044</v>
       </c>
-      <c r="H108" s="161">
+      <c r="H108" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Glasshouses</v>
       </c>
       <c r="B109" t="str">
@@ -24454,26 +24445,26 @@
         <v>1040</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E109" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C109=0,"",'ALUM_V8_vertical with IUCN'!C109)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F109" s="160" t="s">
+      <c r="F109" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G109" t="s">
         <v>1044</v>
       </c>
-      <c r="H109" s="161">
+      <c r="H109" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Glasshouseshydroponic</v>
       </c>
       <c r="B110" t="str">
@@ -24484,27 +24475,27 @@
         <v>1040</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E110" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C110=0,"",'ALUM_V8_vertical with IUCN'!C110)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F110" s="160" t="s">
+      <c r="F110" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G110" t="s">
         <v>1044</v>
       </c>
-      <c r="H110" s="161">
+      <c r="H110" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Abandoned_intensive_horticulture</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Abandoned-intensive-horticulture</v>
       </c>
       <c r="B111" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B111</f>
@@ -24514,54 +24505,54 @@
         <v>1040</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E111" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C111=0,"",'ALUM_V8_vertical with IUCN'!C111)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F111" s="160" t="s">
+      <c r="F111" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G111" t="s">
         <v>1044</v>
       </c>
-      <c r="H111" s="161">
+      <c r="H111" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Intensive_animal_production</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Intensive-animal-production</v>
       </c>
       <c r="B112" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B112</f>
         <v>Intensive animal production</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E112" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C112=0,"",'ALUM_V8_vertical with IUCN'!C112)</f>
         <v/>
       </c>
-      <c r="F112" s="160" t="s">
+      <c r="F112" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G112" t="s">
         <v>1044</v>
       </c>
-      <c r="H112" s="161">
+      <c r="H112" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Dairy_sheds_and_yards</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Dairy-sheds-and-yards</v>
       </c>
       <c r="B113" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B113</f>
@@ -24571,26 +24562,26 @@
         <v>1040</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E113" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C113=0,"",'ALUM_V8_vertical with IUCN'!C113)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F113" s="160" t="s">
+      <c r="F113" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G113" t="s">
         <v>1044</v>
       </c>
-      <c r="H113" s="161">
+      <c r="H113" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Feedlots</v>
       </c>
       <c r="B114" t="str">
@@ -24601,27 +24592,27 @@
         <v>1040</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E114" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C114=0,"",'ALUM_V8_vertical with IUCN'!C114)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F114" s="160" t="s">
+      <c r="F114" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G114" t="s">
         <v>1044</v>
       </c>
-      <c r="H114" s="161">
+      <c r="H114" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Poultry_farms</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Poultry-farms</v>
       </c>
       <c r="B115" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B115</f>
@@ -24631,26 +24622,26 @@
         <v>1040</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E115" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C115=0,"",'ALUM_V8_vertical with IUCN'!C115)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F115" s="160" t="s">
+      <c r="F115" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G115" t="s">
         <v>1044</v>
       </c>
-      <c r="H115" s="161">
+      <c r="H115" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Piggeries</v>
       </c>
       <c r="B116" t="str">
@@ -24661,26 +24652,26 @@
         <v>1040</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E116" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C116=0,"",'ALUM_V8_vertical with IUCN'!C116)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F116" s="160" t="s">
+      <c r="F116" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G116" t="s">
         <v>1044</v>
       </c>
-      <c r="H116" s="161">
+      <c r="H116" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Aquaculture</v>
       </c>
       <c r="B117" t="str">
@@ -24691,27 +24682,27 @@
         <v>1041</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/F3.4</v>
       </c>
       <c r="E117" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C117=0,"",'ALUM_V8_vertical with IUCN'!C117)</f>
         <v>F3.4 Freshwater aquafarms</v>
       </c>
-      <c r="F117" s="160" t="s">
+      <c r="F117" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G117" t="s">
         <v>1044</v>
       </c>
-      <c r="H117" s="161">
+      <c r="H117" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Horse_studs</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Horse-studs</v>
       </c>
       <c r="B118" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B118</f>
@@ -24721,27 +24712,27 @@
         <v>1040</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E118" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C118=0,"",'ALUM_V8_vertical with IUCN'!C118)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F118" s="160" t="s">
+      <c r="F118" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G118" t="s">
         <v>1044</v>
       </c>
-      <c r="H118" s="161">
+      <c r="H118" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Saleyards_or_stockyards_</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Saleyards-or-stockyards-</v>
       </c>
       <c r="B119" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B119</f>
@@ -24751,27 +24742,27 @@
         <v>1040</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E119" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C119=0,"",'ALUM_V8_vertical with IUCN'!C119)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F119" s="160" t="s">
+      <c r="F119" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G119" t="s">
         <v>1044</v>
       </c>
-      <c r="H119" s="161">
+      <c r="H119" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Abandoned_intensive_animal_production</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Abandoned-intensive-animal-production</v>
       </c>
       <c r="B120" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B120</f>
@@ -24781,54 +24772,54 @@
         <v>1040</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E120" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C120=0,"",'ALUM_V8_vertical with IUCN'!C120)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F120" s="160" t="s">
+      <c r="F120" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G120" t="s">
         <v>1044</v>
       </c>
-      <c r="H120" s="161">
+      <c r="H120" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Manufacturing_and_industrial</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Manufacturing-and-industrial</v>
       </c>
       <c r="B121" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B121</f>
         <v>Manufacturing and industrial</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E121" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C121=0,"",'ALUM_V8_vertical with IUCN'!C121)</f>
         <v/>
       </c>
-      <c r="F121" s="160" t="s">
+      <c r="F121" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G121" t="s">
         <v>1044</v>
       </c>
-      <c r="H121" s="161">
+      <c r="H121" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:General_purpose_factory</v>
+        <f t="shared" si="4"/>
+        <v>alum8:General-purpose-factory</v>
       </c>
       <c r="B122" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B122</f>
@@ -24838,27 +24829,27 @@
         <v>1040</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E122" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C122=0,"",'ALUM_V8_vertical with IUCN'!C122)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F122" s="160" t="s">
+      <c r="F122" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G122" t="s">
         <v>1044</v>
       </c>
-      <c r="H122" s="161">
+      <c r="H122" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Food_processing_factory</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Food-processing-factory</v>
       </c>
       <c r="B123" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B123</f>
@@ -24868,27 +24859,27 @@
         <v>1040</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E123" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C123=0,"",'ALUM_V8_vertical with IUCN'!C123)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F123" s="160" t="s">
+      <c r="F123" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G123" t="s">
         <v>1044</v>
       </c>
-      <c r="H123" s="161">
+      <c r="H123" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Major_industrial_complex</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Major-industrial-complex</v>
       </c>
       <c r="B124" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B124</f>
@@ -24898,27 +24889,27 @@
         <v>1040</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E124" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C124=0,"",'ALUM_V8_vertical with IUCN'!C124)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F124" s="160" t="s">
+      <c r="F124" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G124" t="s">
         <v>1044</v>
       </c>
-      <c r="H124" s="161">
+      <c r="H124" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Bulk_grain_storage</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Bulk-grain-storage</v>
       </c>
       <c r="B125" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B125</f>
@@ -24928,26 +24919,26 @@
         <v>1040</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E125" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C125=0,"",'ALUM_V8_vertical with IUCN'!C125)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F125" s="160" t="s">
+      <c r="F125" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G125" t="s">
         <v>1044</v>
       </c>
-      <c r="H125" s="161">
+      <c r="H125" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Abattoirs</v>
       </c>
       <c r="B126" t="str">
@@ -24958,27 +24949,27 @@
         <v>1040</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E126" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C126=0,"",'ALUM_V8_vertical with IUCN'!C126)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F126" s="160" t="s">
+      <c r="F126" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G126" t="s">
         <v>1044</v>
       </c>
-      <c r="H126" s="161">
+      <c r="H126" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Oil_refinery</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Oil-refinery</v>
       </c>
       <c r="B127" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B127</f>
@@ -24988,26 +24979,26 @@
         <v>1040</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E127" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C127=0,"",'ALUM_V8_vertical with IUCN'!C127)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F127" s="160" t="s">
+      <c r="F127" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G127" t="s">
         <v>1044</v>
       </c>
-      <c r="H127" s="161">
+      <c r="H127" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>alum8:Sawmill</v>
       </c>
       <c r="B128" t="str">
@@ -25018,27 +25009,27 @@
         <v>1040</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E128" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C128=0,"",'ALUM_V8_vertical with IUCN'!C128)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F128" s="160" t="s">
+      <c r="F128" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G128" t="s">
         <v>1044</v>
       </c>
-      <c r="H128" s="161">
+      <c r="H128" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Abandoned_manufacturing_and_industrial</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Abandoned-manufacturing-and-industrial</v>
       </c>
       <c r="B129" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B129</f>
@@ -25048,54 +25039,54 @@
         <v>1040</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E129" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C129=0,"",'ALUM_V8_vertical with IUCN'!C129)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F129" s="160" t="s">
+      <c r="F129" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G129" t="s">
         <v>1044</v>
       </c>
-      <c r="H129" s="161">
+      <c r="H129" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="3"/>
-        <v>alum8:Residential_and_farm_infrastructure</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Residential-and-farm-infrastructure</v>
       </c>
       <c r="B130" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B130</f>
         <v>Residential and farm infrastructure</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E130" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C130=0,"",'ALUM_V8_vertical with IUCN'!C130)</f>
         <v/>
       </c>
-      <c r="F130" s="160" t="s">
+      <c r="F130" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G130" t="s">
         <v>1044</v>
       </c>
-      <c r="H130" s="161">
+      <c r="H130" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A195" si="5">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B131," - ","")," ","_"),"/","_or_"))</f>
-        <v>alum8:Urban_residential</v>
+        <f t="shared" si="4"/>
+        <v>alum8:Urban-residential</v>
       </c>
       <c r="B131" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B131</f>
@@ -25105,27 +25096,27 @@
         <v>1040</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E131" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C131=0,"",'ALUM_V8_vertical with IUCN'!C131)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F131" s="160" t="s">
+      <c r="F131" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G131" t="s">
         <v>1044</v>
       </c>
-      <c r="H131" s="161">
+      <c r="H131" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Rural_residential_with_agriculture</v>
+        <f t="shared" ref="A132:A195" si="6">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B132," - ","")," ","-"),"/","-or-"))</f>
+        <v>alum8:Rural-residential-with-agriculture</v>
       </c>
       <c r="B132" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B132</f>
@@ -25135,27 +25126,27 @@
         <v>1040</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E132" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C132=0,"",'ALUM_V8_vertical with IUCN'!C132)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F132" s="160" t="s">
+      <c r="F132" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G132" t="s">
         <v>1044</v>
       </c>
-      <c r="H132" s="161">
+      <c r="H132" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Rural_residential_without_agriculture</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Rural-residential-without-agriculture</v>
       </c>
       <c r="B133" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B133</f>
@@ -25165,27 +25156,27 @@
         <v>1040</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E133" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C133=0,"",'ALUM_V8_vertical with IUCN'!C133)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F133" s="160" t="s">
+      <c r="F133" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G133" t="s">
         <v>1044</v>
       </c>
-      <c r="H133" s="161">
+      <c r="H133" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Remote_communities</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Remote-communities</v>
       </c>
       <c r="B134" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B134</f>
@@ -25195,27 +25186,27 @@
         <v>1040</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E134" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C134=0,"",'ALUM_V8_vertical with IUCN'!C134)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F134" s="160" t="s">
+      <c r="F134" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G134" t="s">
         <v>1044</v>
       </c>
-      <c r="H134" s="161">
+      <c r="H134" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Farm_buildings_or_infrastructure</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Farm-buildings-or-infrastructure</v>
       </c>
       <c r="B135" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B135</f>
@@ -25225,26 +25216,26 @@
         <v>1040</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E135" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C135=0,"",'ALUM_V8_vertical with IUCN'!C135)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F135" s="160" t="s">
+      <c r="F135" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G135" t="s">
         <v>1044</v>
       </c>
-      <c r="H135" s="161">
+      <c r="H135" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Services</v>
       </c>
       <c r="B136" t="str">
@@ -25252,27 +25243,27 @@
         <v>Services</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E136" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C136=0,"",'ALUM_V8_vertical with IUCN'!C136)</f>
         <v/>
       </c>
-      <c r="F136" s="160" t="s">
+      <c r="F136" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G136" t="s">
         <v>1044</v>
       </c>
-      <c r="H136" s="161">
+      <c r="H136" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Commercial_services</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Commercial-services</v>
       </c>
       <c r="B137" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B137</f>
@@ -25282,27 +25273,27 @@
         <v>1040</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E137" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C137=0,"",'ALUM_V8_vertical with IUCN'!C137)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F137" s="160" t="s">
+      <c r="F137" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G137" t="s">
         <v>1044</v>
       </c>
-      <c r="H137" s="161">
+      <c r="H137" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Public_services</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Public-services</v>
       </c>
       <c r="B138" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B138</f>
@@ -25312,27 +25303,27 @@
         <v>1040</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E138" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C138=0,"",'ALUM_V8_vertical with IUCN'!C138)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F138" s="160" t="s">
+      <c r="F138" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G138" t="s">
         <v>1044</v>
       </c>
-      <c r="H138" s="161">
+      <c r="H138" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Recreation_and_culture</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Recreation-and-culture</v>
       </c>
       <c r="B139" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B139</f>
@@ -25342,27 +25333,27 @@
         <v>1040</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E139" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C139=0,"",'ALUM_V8_vertical with IUCN'!C139)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F139" s="160" t="s">
+      <c r="F139" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G139" t="s">
         <v>1044</v>
       </c>
-      <c r="H139" s="161">
+      <c r="H139" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Defence_facilitiesurban</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Defence-facilitiesurban</v>
       </c>
       <c r="B140" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B140</f>
@@ -25372,27 +25363,27 @@
         <v>1040</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E140" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C140=0,"",'ALUM_V8_vertical with IUCN'!C140)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F140" s="160" t="s">
+      <c r="F140" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G140" t="s">
         <v>1044</v>
       </c>
-      <c r="H140" s="161">
+      <c r="H140" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Research_facilities</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Research-facilities</v>
       </c>
       <c r="B141" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B141</f>
@@ -25402,26 +25393,26 @@
         <v>1040</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E141" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C141=0,"",'ALUM_V8_vertical with IUCN'!C141)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F141" s="160" t="s">
+      <c r="F141" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G141" t="s">
         <v>1044</v>
       </c>
-      <c r="H141" s="161">
+      <c r="H141" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Utilities</v>
       </c>
       <c r="B142" t="str">
@@ -25429,27 +25420,27 @@
         <v>Utilities</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E142" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C142=0,"",'ALUM_V8_vertical with IUCN'!C142)</f>
         <v/>
       </c>
-      <c r="F142" s="160" t="s">
+      <c r="F142" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G142" t="s">
         <v>1044</v>
       </c>
-      <c r="H142" s="161">
+      <c r="H142" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Fuel_powered_electricity_generation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Fuel-powered-electricity-generation</v>
       </c>
       <c r="B143" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B143</f>
@@ -25459,27 +25450,27 @@
         <v>1040</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E143" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C143=0,"",'ALUM_V8_vertical with IUCN'!C143)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F143" s="160" t="s">
+      <c r="F143" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G143" t="s">
         <v>1044</v>
       </c>
-      <c r="H143" s="161">
+      <c r="H143" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Hydro_electricity_generation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Hydro-electricity-generation</v>
       </c>
       <c r="B144" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B144</f>
@@ -25489,27 +25480,27 @@
         <v>1040</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E144" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C144=0,"",'ALUM_V8_vertical with IUCN'!C144)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F144" s="160" t="s">
+      <c r="F144" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G144" t="s">
         <v>1044</v>
       </c>
-      <c r="H144" s="161">
+      <c r="H144" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Wind_electricity_generation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Wind-electricity-generation</v>
       </c>
       <c r="B145" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B145</f>
@@ -25519,27 +25510,27 @@
         <v>1040</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E145" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C145=0,"",'ALUM_V8_vertical with IUCN'!C145)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F145" s="160" t="s">
+      <c r="F145" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G145" t="s">
         <v>1044</v>
       </c>
-      <c r="H145" s="161">
+      <c r="H145" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Solar_electricity_generation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Solar-electricity-generation</v>
       </c>
       <c r="B146" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B146</f>
@@ -25549,27 +25540,27 @@
         <v>1040</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E146" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C146=0,"",'ALUM_V8_vertical with IUCN'!C146)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F146" s="160" t="s">
+      <c r="F146" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G146" t="s">
         <v>1044</v>
       </c>
-      <c r="H146" s="161">
+      <c r="H146" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Electricity_substations_and_transmission</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Electricity-substations-and-transmission</v>
       </c>
       <c r="B147" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B147</f>
@@ -25579,27 +25570,27 @@
         <v>1040</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E147" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C147=0,"",'ALUM_V8_vertical with IUCN'!C147)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F147" s="160" t="s">
+      <c r="F147" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G147" t="s">
         <v>1044</v>
       </c>
-      <c r="H147" s="161">
+      <c r="H147" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Gas_treatment,_storage_and_transmission</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Gas-treatment,-storage-and-transmission</v>
       </c>
       <c r="B148" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B148</f>
@@ -25609,27 +25600,27 @@
         <v>1040</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E148" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C148=0,"",'ALUM_V8_vertical with IUCN'!C148)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F148" s="160" t="s">
+      <c r="F148" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G148" t="s">
         <v>1044</v>
       </c>
-      <c r="H148" s="161">
+      <c r="H148" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Water_extraction_and_transmission</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Water-extraction-and-transmission</v>
       </c>
       <c r="B149" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B149</f>
@@ -25639,54 +25630,54 @@
         <v>1040</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E149" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C149=0,"",'ALUM_V8_vertical with IUCN'!C149)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F149" s="160" t="s">
+      <c r="F149" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G149" t="s">
         <v>1044</v>
       </c>
-      <c r="H149" s="161">
+      <c r="H149" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Transport_and_communication</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Transport-and-communication</v>
       </c>
       <c r="B150" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B150</f>
         <v>Transport and communication</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E150" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C150=0,"",'ALUM_V8_vertical with IUCN'!C150)</f>
         <v/>
       </c>
-      <c r="F150" s="160" t="s">
+      <c r="F150" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G150" t="s">
         <v>1044</v>
       </c>
-      <c r="H150" s="161">
+      <c r="H150" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Airports_or_aerodromes</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Airports-or-aerodromes</v>
       </c>
       <c r="B151" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B151</f>
@@ -25696,26 +25687,26 @@
         <v>1040</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E151" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C151=0,"",'ALUM_V8_vertical with IUCN'!C151)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F151" s="160" t="s">
+      <c r="F151" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G151" t="s">
         <v>1044</v>
       </c>
-      <c r="H151" s="161">
+      <c r="H151" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Roads</v>
       </c>
       <c r="B152" t="str">
@@ -25726,26 +25717,26 @@
         <v>1040</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E152" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C152=0,"",'ALUM_V8_vertical with IUCN'!C152)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F152" s="160" t="s">
+      <c r="F152" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G152" t="s">
         <v>1044</v>
       </c>
-      <c r="H152" s="161">
+      <c r="H152" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Railways</v>
       </c>
       <c r="B153" t="str">
@@ -25756,27 +25747,27 @@
         <v>1040</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E153" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C153=0,"",'ALUM_V8_vertical with IUCN'!C153)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F153" s="160" t="s">
+      <c r="F153" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G153" t="s">
         <v>1044</v>
       </c>
-      <c r="H153" s="161">
+      <c r="H153" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Ports_and_water_transport</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Ports-and-water-transport</v>
       </c>
       <c r="B154" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B154</f>
@@ -25786,27 +25777,27 @@
         <v>1040</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E154" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C154=0,"",'ALUM_V8_vertical with IUCN'!C154)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F154" s="160" t="s">
+      <c r="F154" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G154" t="s">
         <v>1044</v>
       </c>
-      <c r="H154" s="161">
+      <c r="H154" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Navigation_and_communication</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Navigation-and-communication</v>
       </c>
       <c r="B155" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B155</f>
@@ -25816,26 +25807,26 @@
         <v>1040</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" ref="D155:D196" si="6">(IF(LEN(A155),IF(ISNUMBER(SEARCH(" ",E155)),IF(ISNUMBER(SEARCH(".",E155)),_xlfn.CONCAT("get:groups/",LEFT(E155,FIND(" ",E155)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E155,FIND(" ",E155)-1))),"")))</f>
+        <f t="shared" ref="D155:D196" si="7">(IF(LEN(A155),IF(ISNUMBER(SEARCH(" ",E155)),IF(ISNUMBER(SEARCH(".",E155)),_xlfn.CONCAT("get:groups/",LEFT(E155,FIND(" ",E155)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E155,FIND(" ",E155)-1))),"")))</f>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E155" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C155=0,"",'ALUM_V8_vertical with IUCN'!C155)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F155" s="160" t="s">
+      <c r="F155" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G155" t="s">
         <v>1044</v>
       </c>
-      <c r="H155" s="161">
+      <c r="H155" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Mining</v>
       </c>
       <c r="B156" t="str">
@@ -25843,26 +25834,26 @@
         <v>Mining</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E156" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C156=0,"",'ALUM_V8_vertical with IUCN'!C156)</f>
         <v/>
       </c>
-      <c r="F156" s="160" t="s">
+      <c r="F156" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G156" t="s">
         <v>1044</v>
       </c>
-      <c r="H156" s="161">
+      <c r="H156" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Mines</v>
       </c>
       <c r="B157" t="str">
@@ -25873,26 +25864,26 @@
         <v>1040</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E157" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C157=0,"",'ALUM_V8_vertical with IUCN'!C157)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F157" s="160" t="s">
+      <c r="F157" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G157" t="s">
         <v>1044</v>
       </c>
-      <c r="H157" s="161">
+      <c r="H157" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Quarries</v>
       </c>
       <c r="B158" t="str">
@@ -25903,26 +25894,26 @@
         <v>1040</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E158" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C158=0,"",'ALUM_V8_vertical with IUCN'!C158)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F158" s="160" t="s">
+      <c r="F158" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G158" t="s">
         <v>1044</v>
       </c>
-      <c r="H158" s="161">
+      <c r="H158" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Tailings</v>
       </c>
       <c r="B159" t="str">
@@ -25933,27 +25924,27 @@
         <v>1040</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E159" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C159=0,"",'ALUM_V8_vertical with IUCN'!C159)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F159" s="160" t="s">
+      <c r="F159" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G159" t="s">
         <v>1044</v>
       </c>
-      <c r="H159" s="161">
+      <c r="H159" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Extractive_Industry_not_in_use</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Extractive-Industry-not-in-use</v>
       </c>
       <c r="B160" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B160</f>
@@ -25963,54 +25954,54 @@
         <v>1040</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E160" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C160=0,"",'ALUM_V8_vertical with IUCN'!C160)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F160" s="160" t="s">
+      <c r="F160" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G160" t="s">
         <v>1044</v>
       </c>
-      <c r="H160" s="161">
+      <c r="H160" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Waste_treatment_and_disposal</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Waste-treatment-and-disposal</v>
       </c>
       <c r="B161" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B161</f>
         <v>Waste treatment and disposal</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E161" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C161=0,"",'ALUM_V8_vertical with IUCN'!C161)</f>
         <v/>
       </c>
-      <c r="F161" s="160" t="s">
+      <c r="F161" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G161" t="s">
         <v>1044</v>
       </c>
-      <c r="H161" s="161">
+      <c r="H161" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Effluent_pond</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Effluent-pond</v>
       </c>
       <c r="B162" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B162</f>
@@ -26020,26 +26011,26 @@
         <v>1040</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E162" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C162=0,"",'ALUM_V8_vertical with IUCN'!C162)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F162" s="160" t="s">
+      <c r="F162" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G162" t="s">
         <v>1044</v>
       </c>
-      <c r="H162" s="161">
+      <c r="H162" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Landfill</v>
       </c>
       <c r="B163" t="str">
@@ -26050,27 +26041,27 @@
         <v>1040</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E163" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C163=0,"",'ALUM_V8_vertical with IUCN'!C163)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F163" s="160" t="s">
+      <c r="F163" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G163" t="s">
         <v>1044</v>
       </c>
-      <c r="H163" s="161">
+      <c r="H163" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Solid_garbage</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Solid-garbage</v>
       </c>
       <c r="B164" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B164</f>
@@ -26080,26 +26071,26 @@
         <v>1040</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E164" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C164=0,"",'ALUM_V8_vertical with IUCN'!C164)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F164" s="160" t="s">
+      <c r="F164" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G164" t="s">
         <v>1044</v>
       </c>
-      <c r="H164" s="161">
+      <c r="H164" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Incinerators</v>
       </c>
       <c r="B165" t="str">
@@ -26110,27 +26101,27 @@
         <v>1040</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E165" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C165=0,"",'ALUM_V8_vertical with IUCN'!C165)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F165" s="160" t="s">
+      <c r="F165" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G165" t="s">
         <v>1044</v>
       </c>
-      <c r="H165" s="161">
+      <c r="H165" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Sewage_or_sewerage</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Sewage-or-sewerage</v>
       </c>
       <c r="B166" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B166</f>
@@ -26140,26 +26131,26 @@
         <v>1040</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/T7.4</v>
       </c>
       <c r="E166" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C166=0,"",'ALUM_V8_vertical with IUCN'!C166)</f>
         <v>T7.4 Urban and industrial ecosystems</v>
       </c>
-      <c r="F166" s="160" t="s">
+      <c r="F166" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G166" t="s">
         <v>1044</v>
       </c>
-      <c r="H166" s="161">
+      <c r="H166" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Lake</v>
       </c>
       <c r="B167" t="str">
@@ -26167,26 +26158,26 @@
         <v>Lake</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E167" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C167=0,"",'ALUM_V8_vertical with IUCN'!C167)</f>
         <v/>
       </c>
-      <c r="F167" s="160" t="s">
+      <c r="F167" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G167" t="s">
         <v>1044</v>
       </c>
-      <c r="H167" s="161">
+      <c r="H167" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Lakeconservation</v>
       </c>
       <c r="B168" t="str">
@@ -26197,26 +26188,26 @@
         <v>1040</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/F2</v>
       </c>
       <c r="E168" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C168=0,"",'ALUM_V8_vertical with IUCN'!C168)</f>
         <v>F2 Lakes</v>
       </c>
-      <c r="F168" s="160" t="s">
+      <c r="F168" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G168" t="s">
         <v>1044</v>
       </c>
-      <c r="H168" s="161">
+      <c r="H168" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Lakeproduction</v>
       </c>
       <c r="B169" t="str">
@@ -26227,27 +26218,27 @@
         <v>1040</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/F2</v>
       </c>
       <c r="E169" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C169=0,"",'ALUM_V8_vertical with IUCN'!C169)</f>
         <v>F2 Lakes</v>
       </c>
-      <c r="F169" s="160" t="s">
+      <c r="F169" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G169" t="s">
         <v>1044</v>
       </c>
-      <c r="H169" s="161">
+      <c r="H169" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Lakeintensive_use</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Lakeintensive-use</v>
       </c>
       <c r="B170" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B170</f>
@@ -26257,26 +26248,26 @@
         <v>1040</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/F2</v>
       </c>
       <c r="E170" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C170=0,"",'ALUM_V8_vertical with IUCN'!C170)</f>
         <v>F2 Lakes</v>
       </c>
-      <c r="F170" s="160" t="s">
+      <c r="F170" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G170" t="s">
         <v>1044</v>
       </c>
-      <c r="H170" s="161">
+      <c r="H170" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Lakesaline</v>
       </c>
       <c r="B171" t="str">
@@ -26287,26 +26278,26 @@
         <v>1042</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F2.6</v>
       </c>
       <c r="E171" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C171=0,"",'ALUM_V8_vertical with IUCN'!C171)</f>
         <v>F2.6 Permanent salt and soda lakes</v>
       </c>
-      <c r="F171" s="160" t="s">
+      <c r="F171" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G171" t="s">
         <v>1044</v>
       </c>
-      <c r="H171" s="161">
+      <c r="H171" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Lakesaline</v>
       </c>
       <c r="B172" t="str">
@@ -26317,53 +26308,53 @@
         <v>1042</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F2.7</v>
       </c>
       <c r="E172" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C172=0,"",'ALUM_V8_vertical with IUCN'!C172)</f>
         <v>F2.7 Ephemeral salt lakes</v>
       </c>
-      <c r="F172" s="160" t="s">
+      <c r="F172" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G172" t="s">
         <v>1044</v>
       </c>
-      <c r="H172" s="161">
+      <c r="H172" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Reservoir_or_dam</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Reservoir-or-dam</v>
       </c>
       <c r="B173" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B173</f>
         <v>Reservoir/dam</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E173" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C173=0,"",'ALUM_V8_vertical with IUCN'!C173)</f>
         <v/>
       </c>
-      <c r="F173" s="160" t="s">
+      <c r="F173" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G173" t="s">
         <v>1044</v>
       </c>
-      <c r="H173" s="161">
+      <c r="H173" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Reservoir</v>
       </c>
       <c r="B174" t="str">
@@ -26374,27 +26365,27 @@
         <v>1040</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F3.1</v>
       </c>
       <c r="E174" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C174=0,"",'ALUM_V8_vertical with IUCN'!C174)</f>
         <v>F3.1 Large reservoirs</v>
       </c>
-      <c r="F174" s="160" t="s">
+      <c r="F174" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G174" t="s">
         <v>1044</v>
       </c>
-      <c r="H174" s="161">
+      <c r="H174" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Water_storageintensive_use_or_farm_dams</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Water-storageintensive-use-or-farm-dams</v>
       </c>
       <c r="B175" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B175</f>
@@ -26404,27 +26395,27 @@
         <v>1040</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F3.1</v>
       </c>
       <c r="E175" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C175=0,"",'ALUM_V8_vertical with IUCN'!C175)</f>
         <v>F3.1 Large reservoirs</v>
       </c>
-      <c r="F175" s="160" t="s">
+      <c r="F175" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G175" t="s">
         <v>1044</v>
       </c>
-      <c r="H175" s="161">
+      <c r="H175" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Evaporation_basin</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Evaporation-basin</v>
       </c>
       <c r="B176" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B176</f>
@@ -26434,26 +26425,26 @@
         <v>1040</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F3.1</v>
       </c>
       <c r="E176" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C176=0,"",'ALUM_V8_vertical with IUCN'!C176)</f>
         <v>F3.1 Large reservoirs</v>
       </c>
-      <c r="F176" s="160" t="s">
+      <c r="F176" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G176" t="s">
         <v>1044</v>
       </c>
-      <c r="H176" s="161">
+      <c r="H176" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:River</v>
       </c>
       <c r="B177" t="str">
@@ -26461,26 +26452,26 @@
         <v>River</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E177" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C177=0,"",'ALUM_V8_vertical with IUCN'!C177)</f>
         <v/>
       </c>
-      <c r="F177" s="160" t="s">
+      <c r="F177" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G177" t="s">
         <v>1044</v>
       </c>
-      <c r="H177" s="161">
+      <c r="H177" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Riverconservation</v>
       </c>
       <c r="B178" t="str">
@@ -26491,26 +26482,26 @@
         <v>1040</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/F1</v>
       </c>
       <c r="E178" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C178=0,"",'ALUM_V8_vertical with IUCN'!C178)</f>
         <v>F1 Rivers and streams</v>
       </c>
-      <c r="F178" s="160" t="s">
+      <c r="F178" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G178" t="s">
         <v>1044</v>
       </c>
-      <c r="H178" s="161">
+      <c r="H178" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Riverproduction</v>
       </c>
       <c r="B179" t="str">
@@ -26521,27 +26512,27 @@
         <v>1040</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/F1</v>
       </c>
       <c r="E179" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C179=0,"",'ALUM_V8_vertical with IUCN'!C179)</f>
         <v>F1 Rivers and streams</v>
       </c>
-      <c r="F179" s="160" t="s">
+      <c r="F179" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G179" t="s">
         <v>1044</v>
       </c>
-      <c r="H179" s="161">
+      <c r="H179" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Riverintensive_use</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Riverintensive-use</v>
       </c>
       <c r="B180" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B180</f>
@@ -26551,54 +26542,54 @@
         <v>1040</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/F1</v>
       </c>
       <c r="E180" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C180=0,"",'ALUM_V8_vertical with IUCN'!C180)</f>
         <v>F1 Rivers and streams</v>
       </c>
-      <c r="F180" s="160" t="s">
+      <c r="F180" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G180" t="s">
         <v>1044</v>
       </c>
-      <c r="H180" s="161">
+      <c r="H180" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Channel_or_aqueduct</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Channel-or-aqueduct</v>
       </c>
       <c r="B181" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B181</f>
         <v>Channel/aqueduct</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E181" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C181=0,"",'ALUM_V8_vertical with IUCN'!C181)</f>
         <v/>
       </c>
-      <c r="F181" s="160" t="s">
+      <c r="F181" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G181" t="s">
         <v>1044</v>
       </c>
-      <c r="H181" s="161">
+      <c r="H181" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Supply_channel_or_aqueduct</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Supply-channel-or-aqueduct</v>
       </c>
       <c r="B182" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B182</f>
@@ -26608,27 +26599,27 @@
         <v>1040</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F3.5</v>
       </c>
       <c r="E182" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C182=0,"",'ALUM_V8_vertical with IUCN'!C182)</f>
         <v>F3.5 Canals, ditches and drains</v>
       </c>
-      <c r="F182" s="160" t="s">
+      <c r="F182" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G182" t="s">
         <v>1044</v>
       </c>
-      <c r="H182" s="161">
+      <c r="H182" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Drainage_channel_or_aqueduct</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Drainage-channel-or-aqueduct</v>
       </c>
       <c r="B183" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B183</f>
@@ -26638,26 +26629,26 @@
         <v>1040</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F3.5</v>
       </c>
       <c r="E183" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C183=0,"",'ALUM_V8_vertical with IUCN'!C183)</f>
         <v>F3.5 Canals, ditches and drains</v>
       </c>
-      <c r="F183" s="160" t="s">
+      <c r="F183" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G183" t="s">
         <v>1044</v>
       </c>
-      <c r="H183" s="161">
+      <c r="H183" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>alum8:Stormwater</v>
       </c>
       <c r="B184" t="str">
@@ -26668,54 +26659,54 @@
         <v>1040</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/F3.5</v>
       </c>
       <c r="E184" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C184=0,"",'ALUM_V8_vertical with IUCN'!C184)</f>
         <v>F3.5 Canals, ditches and drains</v>
       </c>
-      <c r="F184" s="160" t="s">
+      <c r="F184" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G184" t="s">
         <v>1044</v>
       </c>
-      <c r="H184" s="161">
+      <c r="H184" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Marsh_or_wetland</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Marsh-or-wetland</v>
       </c>
       <c r="B185" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B185</f>
         <v>Marsh/wetland</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E185" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C185=0,"",'ALUM_V8_vertical with IUCN'!C185)</f>
         <v/>
       </c>
-      <c r="F185" s="160" t="s">
+      <c r="F185" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G185" t="s">
         <v>1044</v>
       </c>
-      <c r="H185" s="161">
+      <c r="H185" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Marsh_or_wetlandconservation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Marsh-or-wetlandconservation</v>
       </c>
       <c r="B186" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B186</f>
@@ -26725,27 +26716,27 @@
         <v>1040</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/TF1</v>
       </c>
       <c r="E186" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C186=0,"",'ALUM_V8_vertical with IUCN'!C186)</f>
         <v>TF1 Palustrine wetlands biome</v>
       </c>
-      <c r="F186" s="160" t="s">
+      <c r="F186" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G186" t="s">
         <v>1044</v>
       </c>
-      <c r="H186" s="161">
+      <c r="H186" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Marsh_or_wetlandproduction</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Marsh-or-wetlandproduction</v>
       </c>
       <c r="B187" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B187</f>
@@ -26755,27 +26746,27 @@
         <v>1040</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/TF1</v>
       </c>
       <c r="E187" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C187=0,"",'ALUM_V8_vertical with IUCN'!C187)</f>
         <v>TF1 Palustrine wetlands biome</v>
       </c>
-      <c r="F187" s="160" t="s">
+      <c r="F187" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G187" t="s">
         <v>1044</v>
       </c>
-      <c r="H187" s="161">
+      <c r="H187" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Marsh_or_wetlandintensive_use</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Marsh-or-wetlandintensive-use</v>
       </c>
       <c r="B188" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B188</f>
@@ -26785,27 +26776,27 @@
         <v>1040</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/TF1</v>
       </c>
       <c r="E188" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C188=0,"",'ALUM_V8_vertical with IUCN'!C188)</f>
         <v>TF1 Palustrine wetlands biome</v>
       </c>
-      <c r="F188" s="160" t="s">
+      <c r="F188" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G188" t="s">
         <v>1044</v>
       </c>
-      <c r="H188" s="161">
+      <c r="H188" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Marsh_or_wetlandsaline</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Marsh-or-wetlandsaline</v>
       </c>
       <c r="B189" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B189</f>
@@ -26815,54 +26806,54 @@
         <v>1041</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/MFT1.3</v>
       </c>
       <c r="E189" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C189=0,"",'ALUM_V8_vertical with IUCN'!C189)</f>
         <v>MFT1.3 Coastal saltmarshes and reedbeds</v>
       </c>
-      <c r="F189" s="160" t="s">
+      <c r="F189" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G189" t="s">
         <v>1044</v>
       </c>
-      <c r="H189" s="161">
+      <c r="H189" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Estuary_or_coastal_waters</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Estuary-or-coastal-waters</v>
       </c>
       <c r="B190" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B190</f>
         <v>Estuary/coastal waters</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E190" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C190=0,"",'ALUM_V8_vertical with IUCN'!C190)</f>
         <v/>
       </c>
-      <c r="F190" s="160" t="s">
+      <c r="F190" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G190" t="s">
         <v>1044</v>
       </c>
-      <c r="H190" s="161">
+      <c r="H190" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Estuary_or_coastal_watersconservation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Estuary-or-coastal-watersconservation</v>
       </c>
       <c r="B191" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B191</f>
@@ -26872,27 +26863,27 @@
         <v>1042</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/FM1</v>
       </c>
       <c r="E191" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C191=0,"",'ALUM_V8_vertical with IUCN'!C191)</f>
         <v>FM1 Semi-confined transitional waters biome</v>
       </c>
-      <c r="F191" s="160" t="s">
+      <c r="F191" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G191" t="s">
         <v>1044</v>
       </c>
-      <c r="H191" s="161">
+      <c r="H191" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Estuary_or_coastal_watersconservation</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Estuary-or-coastal-watersconservation</v>
       </c>
       <c r="B192" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B192</f>
@@ -26902,27 +26893,27 @@
         <v>1042</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/MFT1.1</v>
       </c>
       <c r="E192" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C192=0,"",'ALUM_V8_vertical with IUCN'!C192)</f>
         <v>MFT1.1 Coastal river deltas</v>
       </c>
-      <c r="F192" s="160" t="s">
+      <c r="F192" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G192" t="s">
         <v>1044</v>
       </c>
-      <c r="H192" s="161">
+      <c r="H192" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Estuary_or_coastal_watersproduction</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Estuary-or-coastal-watersproduction</v>
       </c>
       <c r="B193" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B193</f>
@@ -26932,27 +26923,27 @@
         <v>1042</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/FM1</v>
       </c>
       <c r="E193" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C193=0,"",'ALUM_V8_vertical with IUCN'!C193)</f>
         <v>FM1 Semi-confined transitional waters biome</v>
       </c>
-      <c r="F193" s="160" t="s">
+      <c r="F193" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G193" t="s">
         <v>1044</v>
       </c>
-      <c r="H193" s="161">
+      <c r="H193" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Estuary_or_coastal_watersproduction</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Estuary-or-coastal-watersproduction</v>
       </c>
       <c r="B194" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B194</f>
@@ -26962,27 +26953,27 @@
         <v>1042</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/MFT1.1</v>
       </c>
       <c r="E194" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C194=0,"",'ALUM_V8_vertical with IUCN'!C194)</f>
         <v>MFT1.1 Coastal river deltas</v>
       </c>
-      <c r="F194" s="160" t="s">
+      <c r="F194" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G194" t="s">
         <v>1044</v>
       </c>
-      <c r="H194" s="161">
+      <c r="H194" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" si="5"/>
-        <v>alum8:Estuary_or_coastal_watersintensive_use</v>
+        <f t="shared" si="6"/>
+        <v>alum8:Estuary-or-coastal-watersintensive-use</v>
       </c>
       <c r="B195" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B195</f>
@@ -26992,27 +26983,27 @@
         <v>1042</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:biomes/FM1</v>
       </c>
       <c r="E195" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C195=0,"",'ALUM_V8_vertical with IUCN'!C195)</f>
         <v>FM1 Semi-confined transitional waters biome</v>
       </c>
-      <c r="F195" s="160" t="s">
+      <c r="F195" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G195" t="s">
         <v>1044</v>
       </c>
-      <c r="H195" s="161">
+      <c r="H195" s="151">
         <v>45261</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f t="shared" ref="A196" si="7">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B196," - ","")," ","_"),"/","_or_"))</f>
-        <v>alum8:Estuary_or_coastal_watersintensive_use</v>
+        <f t="shared" ref="A196" si="8">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B196," - ","")," ","-"),"/","-or-"))</f>
+        <v>alum8:Estuary-or-coastal-watersintensive-use</v>
       </c>
       <c r="B196" t="str">
         <f>'ALUM_V8_vertical with IUCN'!B196</f>
@@ -27022,20 +27013,20 @@
         <v>1042</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>get:groups/MFT1.1</v>
       </c>
       <c r="E196" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C196=0,"",'ALUM_V8_vertical with IUCN'!C196)</f>
         <v>MFT1.1 Coastal river deltas</v>
       </c>
-      <c r="F196" s="160" t="s">
+      <c r="F196" s="150" t="s">
         <v>1043</v>
       </c>
       <c r="G196" t="s">
         <v>1044</v>
       </c>
-      <c r="H196" s="161">
+      <c r="H196" s="151">
         <v>45261</v>
       </c>
     </row>
@@ -27047,15 +27038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27187,6 +27169,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -27197,14 +27188,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27222,6 +27205,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>

--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C215534-B76D-48E8-81A8-13525A9E56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A0BFD-D55D-41F0-A1CE-188DFA234A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="3240" windowWidth="17280" windowHeight="16200" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="3900" windowWidth="17280" windowHeight="16200" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -50,6 +50,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={7A7A686C-B1C4-45F8-B450-552E69DD158E}</author>
+  </authors>
+  <commentList>
+    <comment ref="C191" authorId="0" shapeId="0" xr:uid="{7A7A686C-B1C4-45F8-B450-552E69DD158E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    One item per line please </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={0881399C-9480-46CC-A4A5-3D9FD195EE39}</author>
   </authors>
   <commentList>
@@ -68,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1052">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3401,12 +3419,33 @@
   <si>
     <t>mailto:Craig.Macfarlane@csiro.au</t>
   </si>
+  <si>
+    <t>Why not T7.3 here?</t>
+  </si>
+  <si>
+    <t>Why not T7.2 here?</t>
+  </si>
+  <si>
+    <t>Why not T7.1 here?</t>
+  </si>
+  <si>
+    <t>Why not T7.4 here?</t>
+  </si>
+  <si>
+    <t>Why not F3.1 here?</t>
+  </si>
+  <si>
+    <t>Why not F1 here?</t>
+  </si>
+  <si>
+    <t>Why not F3.5 here?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3721,6 +3760,12 @@
       <sz val="9"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4049,7 +4094,7 @@
     <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4378,6 +4423,7 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -4412,6 +4458,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4701,6 +4751,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C191" dT="2024-01-03T02:34:22.58" personId="{00000000-0000-0000-0000-000000000000}" id="{7A7A686C-B1C4-45F8-B450-552E69DD158E}">
+    <text xml:space="preserve">One item per line please </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="G2" dT="2023-12-31T06:22:35.80" personId="{00000000-0000-0000-0000-000000000000}" id="{0881399C-9480-46CC-A4A5-3D9FD195EE39}">
     <text xml:space="preserve">An ORCID is preferred here. 
 I can see three Craig MacFarlane in ORCID but the details are hidden
@@ -19189,13 +19247,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19467,7 +19525,9 @@
       <c r="B25" s="116" t="s">
         <v>984</v>
       </c>
-      <c r="C25" s="135"/>
+      <c r="C25" s="162" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -19520,7 +19580,9 @@
       <c r="B30" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="135"/>
+      <c r="C30" s="162" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -19584,7 +19646,9 @@
       <c r="B36" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="135"/>
+      <c r="C36" s="162" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -19681,7 +19745,9 @@
       <c r="B45" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="135"/>
+      <c r="C45" s="162" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -19789,7 +19855,9 @@
       <c r="B55" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="135"/>
+      <c r="C55" s="162" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -19895,7 +19963,9 @@
       <c r="B65" s="116" t="s">
         <v>985</v>
       </c>
-      <c r="C65" s="135"/>
+      <c r="C65" s="162" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -19948,7 +20018,9 @@
       <c r="B70" s="116" t="s">
         <v>504</v>
       </c>
-      <c r="C70" s="135"/>
+      <c r="C70" s="162" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -19994,14 +20066,13 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="116" t="s">
         <v>345</v>
       </c>
       <c r="B75" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="135"/>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -20109,7 +20180,9 @@
       <c r="B85" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="135"/>
+      <c r="C85" s="162" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -20217,7 +20290,9 @@
       <c r="B95" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="135"/>
+      <c r="C95" s="162" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -20334,7 +20409,9 @@
       <c r="B106" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="135"/>
+      <c r="C106" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -20495,7 +20572,9 @@
       <c r="B121" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="135"/>
+      <c r="C121" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -20592,7 +20671,9 @@
       <c r="B130" s="116" t="s">
         <v>499</v>
       </c>
-      <c r="C130" s="135"/>
+      <c r="C130" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -20656,7 +20737,9 @@
       <c r="B136" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="135"/>
+      <c r="C136" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -20720,7 +20803,9 @@
       <c r="B142" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="135"/>
+      <c r="C142" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -20806,7 +20891,9 @@
       <c r="B150" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="C150" s="135"/>
+      <c r="C150" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -20870,7 +20957,9 @@
       <c r="B156" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="135"/>
+      <c r="C156" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -20923,7 +21012,9 @@
       <c r="B161" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="C161" s="135"/>
+      <c r="C161" s="162" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -21051,7 +21142,9 @@
       <c r="B173" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="C173" s="135"/>
+      <c r="C173" s="162" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -21093,7 +21186,9 @@
       <c r="B177" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="C177" s="137"/>
+      <c r="C177" s="162" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -21135,7 +21230,9 @@
       <c r="B181" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="135"/>
+      <c r="C181" s="162" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -21301,6 +21398,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21309,7 +21407,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A196"/>
     </sheetView>
@@ -21992,11 +22090,11 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E25" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C25=0,"",'ALUM_V8_vertical with IUCN'!C25)</f>
-        <v/>
+        <v>Why not T7.3 here?</v>
       </c>
       <c r="F25" s="150" t="s">
         <v>1043</v>
@@ -22139,11 +22237,11 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E30" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C30=0,"",'ALUM_V8_vertical with IUCN'!C30)</f>
-        <v/>
+        <v>Why not T7.2 here?</v>
       </c>
       <c r="F30" s="150" t="s">
         <v>1043</v>
@@ -22316,11 +22414,11 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E36" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C36=0,"",'ALUM_V8_vertical with IUCN'!C36)</f>
-        <v/>
+        <v>Why not T7.1 here?</v>
       </c>
       <c r="F36" s="150" t="s">
         <v>1043</v>
@@ -22583,11 +22681,11 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E45" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C45=0,"",'ALUM_V8_vertical with IUCN'!C45)</f>
-        <v/>
+        <v>Why not T7.1 here?</v>
       </c>
       <c r="F45" s="150" t="s">
         <v>1043</v>
@@ -22880,11 +22978,11 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E55" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C55=0,"",'ALUM_V8_vertical with IUCN'!C55)</f>
-        <v/>
+        <v>Why not T7.1 here?</v>
       </c>
       <c r="F55" s="150" t="s">
         <v>1043</v>
@@ -23159,11 +23257,11 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E65" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C65=0,"",'ALUM_V8_vertical with IUCN'!C65)</f>
-        <v/>
+        <v>Why not T7.3 here?</v>
       </c>
       <c r="F65" s="150" t="s">
         <v>1043</v>
@@ -23306,11 +23404,11 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E70" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C70=0,"",'ALUM_V8_vertical with IUCN'!C70)</f>
-        <v/>
+        <v>Why not T7.2 here?</v>
       </c>
       <c r="F70" s="150" t="s">
         <v>1043</v>
@@ -23453,11 +23551,11 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E75" t="str">
-        <f>IF('ALUM_V8_vertical with IUCN'!C75=0,"",'ALUM_V8_vertical with IUCN'!C75)</f>
-        <v/>
+        <f>IF('ALUM_V8_vertical with IUCN'!C95=0,"",'ALUM_V8_vertical with IUCN'!C95)</f>
+        <v>Why not T7.1 here?</v>
       </c>
       <c r="F75" s="150" t="s">
         <v>1043</v>
@@ -23750,11 +23848,11 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E85" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C85=0,"",'ALUM_V8_vertical with IUCN'!C85)</f>
-        <v/>
+        <v>Why not T7.1 here?</v>
       </c>
       <c r="F85" s="150" t="s">
         <v>1043</v>
@@ -24049,9 +24147,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E95" t="str">
-        <f>IF('ALUM_V8_vertical with IUCN'!C95=0,"",'ALUM_V8_vertical with IUCN'!C95)</f>
-        <v/>
+      <c r="E95" t="e">
+        <f>IF('ALUM_V8_vertical with IUCN'!#REF!=0,"",'ALUM_V8_vertical with IUCN'!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F95" s="150" t="s">
         <v>1043</v>
@@ -24356,11 +24454,11 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E106" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C106=0,"",'ALUM_V8_vertical with IUCN'!C106)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F106" s="150" t="s">
         <v>1043</v>
@@ -24800,11 +24898,11 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E121" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C121=0,"",'ALUM_V8_vertical with IUCN'!C121)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F121" s="150" t="s">
         <v>1043</v>
@@ -25067,11 +25165,11 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E130" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C130=0,"",'ALUM_V8_vertical with IUCN'!C130)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F130" s="150" t="s">
         <v>1043</v>
@@ -25244,11 +25342,11 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E136" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C136=0,"",'ALUM_V8_vertical with IUCN'!C136)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F136" s="150" t="s">
         <v>1043</v>
@@ -25421,11 +25519,11 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E142" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C142=0,"",'ALUM_V8_vertical with IUCN'!C142)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F142" s="150" t="s">
         <v>1043</v>
@@ -25658,11 +25756,11 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E150" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C150=0,"",'ALUM_V8_vertical with IUCN'!C150)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F150" s="150" t="s">
         <v>1043</v>
@@ -25835,11 +25933,11 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E156" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C156=0,"",'ALUM_V8_vertical with IUCN'!C156)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F156" s="150" t="s">
         <v>1043</v>
@@ -25982,11 +26080,11 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E161" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C161=0,"",'ALUM_V8_vertical with IUCN'!C161)</f>
-        <v/>
+        <v>Why not T7.4 here?</v>
       </c>
       <c r="F161" s="150" t="s">
         <v>1043</v>
@@ -26336,11 +26434,11 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E173" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C173=0,"",'ALUM_V8_vertical with IUCN'!C173)</f>
-        <v/>
+        <v>Why not F3.1 here?</v>
       </c>
       <c r="F173" s="150" t="s">
         <v>1043</v>
@@ -26453,11 +26551,11 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>get:biomes/Why</v>
       </c>
       <c r="E177" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C177=0,"",'ALUM_V8_vertical with IUCN'!C177)</f>
-        <v/>
+        <v>Why not F1 here?</v>
       </c>
       <c r="F177" s="150" t="s">
         <v>1043</v>
@@ -26570,11 +26668,11 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>get:groups/Why</v>
       </c>
       <c r="E181" t="str">
         <f>IF('ALUM_V8_vertical with IUCN'!C181=0,"",'ALUM_V8_vertical with IUCN'!C181)</f>
-        <v/>
+        <v>Why not F3.5 here?</v>
       </c>
       <c r="F181" s="150" t="s">
         <v>1043</v>
@@ -27038,6 +27136,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27169,15 +27276,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -27188,6 +27286,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27205,14 +27311,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>

--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A0BFD-D55D-41F0-A1CE-188DFA234A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F48036-4A95-49E2-B4CC-B41E797D9D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="3900" windowWidth="17280" windowHeight="16200" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1053">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3440,6 +3440,9 @@
   <si>
     <t>Why not F3.5 here?</t>
   </si>
+  <si>
+    <t>Zinc</t>
+  </si>
 </sst>
 </file>
 
@@ -3449,6 +3452,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3760,12 +3770,6 @@
       <sz val="9"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4084,17 +4088,17 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4103,193 +4107,202 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4297,16 +4310,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4315,115 +4319,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="46" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -4458,10 +4463,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4827,25 +4828,25 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="153" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9933,8 +9934,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AX76"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AX41"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9971,25 +9972,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="O1" s="154" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="O1" s="155" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -10008,10 +10009,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="154" t="s">
+      <c r="Q2" s="155" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="154"/>
+      <c r="R2" s="155"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -10032,10 +10033,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="156" t="s">
+      <c r="AP2" s="157" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="156"/>
+      <c r="AQ2" s="157"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -10102,10 +10103,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="155" t="s">
+      <c r="AT3" s="156" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="155"/>
+      <c r="AU3" s="156"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -10876,8 +10877,8 @@
         <v>808</v>
       </c>
       <c r="AD15" s="133"/>
-      <c r="AE15" s="133" t="s">
-        <v>953</v>
+      <c r="AE15" s="163" t="s">
+        <v>1052</v>
       </c>
       <c r="AO15" s="135" t="s">
         <v>528</v>
@@ -13295,13 +13296,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="159" t="s">
+      <c r="A1" s="158"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="160" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="160"/>
-      <c r="E1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
@@ -18359,13 +18360,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="159" t="s">
+      <c r="A1" s="158"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="160" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="160"/>
-      <c r="E1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
@@ -19251,8 +19252,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
@@ -19525,7 +19526,7 @@
       <c r="B25" s="116" t="s">
         <v>984</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="152" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -19580,7 +19581,7 @@
       <c r="B30" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="152" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -19646,7 +19647,7 @@
       <c r="B36" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="C36" s="152" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -19745,7 +19746,7 @@
       <c r="B45" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="162" t="s">
+      <c r="C45" s="152" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -19855,7 +19856,7 @@
       <c r="B55" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="162" t="s">
+      <c r="C55" s="152" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -19963,7 +19964,7 @@
       <c r="B65" s="116" t="s">
         <v>985</v>
       </c>
-      <c r="C65" s="162" t="s">
+      <c r="C65" s="152" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -20018,7 +20019,7 @@
       <c r="B70" s="116" t="s">
         <v>504</v>
       </c>
-      <c r="C70" s="162" t="s">
+      <c r="C70" s="152" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -20180,7 +20181,7 @@
       <c r="B85" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="162" t="s">
+      <c r="C85" s="152" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -20290,7 +20291,7 @@
       <c r="B95" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="162" t="s">
+      <c r="C95" s="152" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -20409,7 +20410,7 @@
       <c r="B106" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="162" t="s">
+      <c r="C106" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -20572,7 +20573,7 @@
       <c r="B121" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="162" t="s">
+      <c r="C121" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -20671,7 +20672,7 @@
       <c r="B130" s="116" t="s">
         <v>499</v>
       </c>
-      <c r="C130" s="162" t="s">
+      <c r="C130" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -20737,7 +20738,7 @@
       <c r="B136" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="162" t="s">
+      <c r="C136" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -20803,7 +20804,7 @@
       <c r="B142" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="162" t="s">
+      <c r="C142" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -20891,7 +20892,7 @@
       <c r="B150" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="C150" s="162" t="s">
+      <c r="C150" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -20957,7 +20958,7 @@
       <c r="B156" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="162" t="s">
+      <c r="C156" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -21012,7 +21013,7 @@
       <c r="B161" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="C161" s="162" t="s">
+      <c r="C161" s="152" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -21142,7 +21143,7 @@
       <c r="B173" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="C173" s="162" t="s">
+      <c r="C173" s="152" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -21186,7 +21187,7 @@
       <c r="B177" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="C177" s="162" t="s">
+      <c r="C177" s="152" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -21230,7 +21231,7 @@
       <c r="B181" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="162" t="s">
+      <c r="C181" s="152" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -21409,7 +21410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A196"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27136,12 +27137,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27277,18 +27278,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27312,11 +27315,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F48036-4A95-49E2-B4CC-B41E797D9D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8C5E3-2B77-44FE-B128-572CA3E0D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1052">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3439,9 +3439,6 @@
   </si>
   <si>
     <t>Why not F3.5 here?</t>
-  </si>
-  <si>
-    <t>Zinc</t>
   </si>
 </sst>
 </file>
@@ -10878,7 +10875,7 @@
       </c>
       <c r="AD15" s="133"/>
       <c r="AE15" s="163" t="s">
-        <v>1052</v>
+        <v>953</v>
       </c>
       <c r="AO15" s="135" t="s">
         <v>528</v>
@@ -19253,8 +19250,8 @@
   <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21410,7 +21407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27137,12 +27134,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27278,20 +27275,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27315,9 +27310,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8C5E3-2B77-44FE-B128-572CA3E0D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A849C2-F2DD-4091-BA3E-944314CFC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="1995" windowWidth="29595" windowHeight="16200" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -65,28 +65,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={0881399C-9480-46CC-A4A5-3D9FD195EE39}</author>
-  </authors>
-  <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0881399C-9480-46CC-A4A5-3D9FD195EE39}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    An ORCID is preferred here. 
-I can see three Craig MacFarlane in ORCID but the details are hidden
-Your ResearcherID on your CSIRO webpage is broken ☹️ </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4570" uniqueCount="1058">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3417,9 +3397,6 @@
     <t>semapv:ManualMappingCuration</t>
   </si>
   <si>
-    <t>mailto:Craig.Macfarlane@csiro.au</t>
-  </si>
-  <si>
     <t>Why not T7.3 here?</t>
   </si>
   <si>
@@ -3439,13 +3416,34 @@
   </si>
   <si>
     <t>Why not F3.5 here?</t>
+  </si>
+  <si>
+    <t>orcid:0009-0001-6090-9959</t>
+  </si>
+  <si>
+    <t>author_label</t>
+  </si>
+  <si>
+    <t>Craig MacFarlane</t>
+  </si>
+  <si>
+    <t>reviewer_id</t>
+  </si>
+  <si>
+    <t>reviewer_label</t>
+  </si>
+  <si>
+    <t>Anna Richards</t>
+  </si>
+  <si>
+    <t>orcid:0000-0002-2934-5497</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3767,6 +3765,12 @@
       <sz val="9"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4095,7 +4099,7 @@
     <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4395,6 +4399,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="42" fillId="12" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4425,7 +4430,7 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -4755,16 +4760,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G2" dT="2023-12-31T06:22:35.80" personId="{00000000-0000-0000-0000-000000000000}" id="{0881399C-9480-46CC-A4A5-3D9FD195EE39}">
-    <text xml:space="preserve">An ORCID is preferred here. 
-I can see three Craig MacFarlane in ORCID but the details are hidden
-Your ResearcherID on your CSIRO webpage is broken ☹️ </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
@@ -4825,25 +4820,25 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9931,7 +9926,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AX76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
@@ -9969,25 +9964,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="O1" s="155" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="O1" s="156" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -10006,10 +10001,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="155" t="s">
+      <c r="Q2" s="156" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="155"/>
+      <c r="R2" s="156"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -10030,10 +10025,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="157" t="s">
+      <c r="AP2" s="158" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="157"/>
+      <c r="AQ2" s="158"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -10100,10 +10095,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="156" t="s">
+      <c r="AT3" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="156"/>
+      <c r="AU3" s="157"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -10874,7 +10869,7 @@
         <v>808</v>
       </c>
       <c r="AD15" s="133"/>
-      <c r="AE15" s="163" t="s">
+      <c r="AE15" s="153" t="s">
         <v>953</v>
       </c>
       <c r="AO15" s="135" t="s">
@@ -13293,13 +13288,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160" t="s">
+      <c r="A1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
@@ -18357,13 +18352,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160" t="s">
+      <c r="A1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
@@ -19524,7 +19519,7 @@
         <v>984</v>
       </c>
       <c r="C25" s="152" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19579,7 +19574,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="152" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19645,7 +19640,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="152" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19744,7 +19739,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="152" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19854,7 +19849,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="152" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -19962,7 +19957,7 @@
         <v>985</v>
       </c>
       <c r="C65" s="152" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20017,7 +20012,7 @@
         <v>504</v>
       </c>
       <c r="C70" s="152" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20179,7 +20174,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="152" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20289,7 +20284,7 @@
         <v>49</v>
       </c>
       <c r="C95" s="152" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20408,7 +20403,7 @@
         <v>114</v>
       </c>
       <c r="C106" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20571,7 +20566,7 @@
         <v>126</v>
       </c>
       <c r="C121" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20670,7 +20665,7 @@
         <v>499</v>
       </c>
       <c r="C130" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20736,7 +20731,7 @@
         <v>130</v>
       </c>
       <c r="C136" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20802,7 +20797,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20890,7 +20885,7 @@
         <v>144</v>
       </c>
       <c r="C150" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -20956,7 +20951,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -21011,7 +21006,7 @@
         <v>162</v>
       </c>
       <c r="C161" s="152" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -21141,7 +21136,7 @@
         <v>236</v>
       </c>
       <c r="C173" s="152" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -21185,7 +21180,7 @@
         <v>185</v>
       </c>
       <c r="C177" s="152" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -21229,7 +21224,7 @@
         <v>192</v>
       </c>
       <c r="C181" s="152" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -21401,13 +21396,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAEF26-8574-478F-B8F3-4FDF27AEE69E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAEF26-8574-478F-B8F3-4FDF27AEE69E}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189:XFD189"/>
+      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21418,13 +21413,13 @@
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
         <v>1025</v>
       </c>
@@ -21447,16 +21442,25 @@
         <v>1031</v>
       </c>
       <c r="H1" s="149" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I1" s="149" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J1" s="149" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K1" s="149" t="s">
         <v>1032</v>
       </c>
-      <c r="I1" s="149" t="s">
+      <c r="L1" s="149" t="s">
         <v>1033</v>
       </c>
-      <c r="J1" s="149" t="s">
+      <c r="M1" s="149" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f t="shared" ref="A2" si="0">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2," - ","")," ","-"),"/","-or-"))</f>
         <v>alum8:Nature-conservation</v>
@@ -21476,14 +21480,23 @@
       <c r="F2" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H2" s="151">
+      <c r="G2" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H2" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I2" s="164" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J2" s="164" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K2" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3," - ","")," ","-"),"/","-or-"))</f>
         <v>alum8:Strict-nature-reserves</v>
@@ -21503,14 +21516,19 @@
       <c r="F3" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H3" s="151">
+      <c r="G3" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H3" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="2">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4," - ","")," ","-"),"/","-or-"))</f>
         <v>alum8:Wilderness-area</v>
@@ -21530,14 +21548,19 @@
       <c r="F4" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H4" s="151">
+      <c r="G4" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H4" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="2"/>
         <v>alum8:National-park</v>
@@ -21557,14 +21580,19 @@
       <c r="F5" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H5" s="151">
+      <c r="G5" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H5" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Natural-feature-protection</v>
@@ -21584,14 +21612,19 @@
       <c r="F6" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G6" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H6" s="151">
+      <c r="G6" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H6" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Habitat-or-species-management-area</v>
@@ -21611,14 +21644,19 @@
       <c r="F7" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G7" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H7" s="151">
+      <c r="G7" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H7" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Protected-landscape</v>
@@ -21638,14 +21676,19 @@
       <c r="F8" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H8" s="151">
+      <c r="G8" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H8" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Other-conserved-area</v>
@@ -21665,14 +21708,19 @@
       <c r="F9" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H9" s="151">
+      <c r="G9" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H9" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Managed-resource-protection</v>
@@ -21692,14 +21740,19 @@
       <c r="F10" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H10" s="151">
+      <c r="G10" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H10" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Biodiversity</v>
@@ -21719,14 +21772,19 @@
       <c r="F11" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H11" s="151">
+      <c r="G11" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H11" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Surface-water-supply</v>
@@ -21746,14 +21804,19 @@
       <c r="F12" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G12" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H12" s="151">
+      <c r="G12" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H12" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Groundwater</v>
@@ -21773,14 +21836,19 @@
       <c r="F13" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G13" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H13" s="151">
+      <c r="G13" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H13" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Landscape</v>
@@ -21800,14 +21868,19 @@
       <c r="F14" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G14" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H14" s="151">
+      <c r="G14" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H14" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Traditional-Indigenous-uses</v>
@@ -21827,14 +21900,19 @@
       <c r="F15" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H15" s="151">
+      <c r="G15" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H15" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Other-minimal-use</v>
@@ -21854,14 +21932,19 @@
       <c r="F16" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G16" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H16" s="151">
+      <c r="G16" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Defence-landnatural-areas</v>
@@ -21881,14 +21964,19 @@
       <c r="F17" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H17" s="151">
+      <c r="G17" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H17" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Stock-route</v>
@@ -21908,14 +21996,19 @@
       <c r="F18" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G18" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H18" s="151">
+      <c r="G18" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H18" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Residual-native-cover</v>
@@ -21935,14 +22028,19 @@
       <c r="F19" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G19" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H19" s="151">
+      <c r="G19" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H19" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Rehabilitation</v>
@@ -21962,14 +22060,19 @@
       <c r="F20" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G20" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H20" s="151">
+      <c r="G20" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H20" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Grazing-native-vegetation</v>
@@ -21989,14 +22092,19 @@
       <c r="F21" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G21" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H21" s="151">
+      <c r="G21" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H21" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Production-native-forests</v>
@@ -22016,14 +22124,19 @@
       <c r="F22" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G22" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H22" s="151">
+      <c r="G22" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H22" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Wood-production-forestry</v>
@@ -22043,14 +22156,19 @@
       <c r="F23" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G23" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H23" s="151">
+      <c r="G23" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H23" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Other-forest-production</v>
@@ -22070,14 +22188,19 @@
       <c r="F24" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H24" s="151">
+      <c r="G24" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H24" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Plantation-forests</v>
@@ -22097,14 +22220,19 @@
       <c r="F25" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H25" s="151">
+      <c r="G25" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H25" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Hardwood-plantation-forestry</v>
@@ -22127,14 +22255,19 @@
       <c r="F26" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G26" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H26" s="151">
+      <c r="G26" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H26" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Softwood-plantation-forestry</v>
@@ -22157,14 +22290,19 @@
       <c r="F27" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G27" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H27" s="151">
+      <c r="G27" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H27" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Other-forest-plantation</v>
@@ -22187,14 +22325,19 @@
       <c r="F28" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G28" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H28" s="151">
+      <c r="G28" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Environmental-forest-plantation</v>
@@ -22217,14 +22360,19 @@
       <c r="F29" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G29" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H29" s="151">
+      <c r="G29" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H29" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Grazing-modified-pastures</v>
@@ -22244,14 +22392,19 @@
       <c r="F30" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G30" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H30" s="151">
+      <c r="G30" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H30" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Native-or-exotic-pasture-mosaic</v>
@@ -22274,14 +22427,19 @@
       <c r="F31" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G31" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H31" s="151">
+      <c r="G31" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H31" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Woody-fodder-plants-</v>
@@ -22304,14 +22462,19 @@
       <c r="F32" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G32" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H32" s="151">
+      <c r="G32" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H32" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Pasture-legumes</v>
@@ -22334,14 +22497,19 @@
       <c r="F33" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G33" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H33" s="151">
+      <c r="G33" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H33" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Pasture-legume-or-grass-mixtures</v>
@@ -22364,14 +22532,19 @@
       <c r="F34" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G34" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H34" s="151">
+      <c r="G34" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H34" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Sown-grasses</v>
@@ -22394,14 +22567,19 @@
       <c r="F35" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G35" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H35" s="151">
+      <c r="G35" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H35" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Cropping</v>
@@ -22421,14 +22599,19 @@
       <c r="F36" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G36" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H36" s="151">
+      <c r="G36" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H36" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Cereals</v>
@@ -22451,14 +22634,19 @@
       <c r="F37" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G37" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H37" s="151">
+      <c r="G37" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H37" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Beverage-and-spice-crops</v>
@@ -22481,14 +22669,19 @@
       <c r="F38" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G38" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H38" s="151">
+      <c r="G38" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H38" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Hay-and-silage-</v>
@@ -22511,14 +22704,19 @@
       <c r="F39" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G39" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H39" s="151">
+      <c r="G39" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H39" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Oilseeds</v>
@@ -22541,14 +22739,19 @@
       <c r="F40" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G40" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H40" s="151">
+      <c r="G40" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H40" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Sugar</v>
@@ -22571,14 +22774,19 @@
       <c r="F41" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G41" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H41" s="151">
+      <c r="G41" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H41" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Cotton</v>
@@ -22601,14 +22809,19 @@
       <c r="F42" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H42" s="151">
+      <c r="G42" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H42" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Alkaloid-poppies</v>
@@ -22631,14 +22844,19 @@
       <c r="F43" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G43" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H43" s="151">
+      <c r="G43" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H43" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Pulses</v>
@@ -22661,14 +22879,19 @@
       <c r="F44" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G44" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H44" s="151">
+      <c r="G44" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H44" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Perennial-horticulture</v>
@@ -22688,14 +22911,19 @@
       <c r="F45" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G45" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H45" s="151">
+      <c r="G45" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H45" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Tree-fruits</v>
@@ -22718,14 +22946,19 @@
       <c r="F46" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G46" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H46" s="151">
+      <c r="G46" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H46" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Olives</v>
@@ -22748,14 +22981,19 @@
       <c r="F47" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G47" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H47" s="151">
+      <c r="G47" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H47" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Tree-nuts</v>
@@ -22778,14 +23016,19 @@
       <c r="F48" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G48" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H48" s="151">
+      <c r="G48" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H48" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Vine-fruits</v>
@@ -22808,14 +23051,19 @@
       <c r="F49" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G49" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H49" s="151">
+      <c r="G49" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H49" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Shrub-berries-and-fruits</v>
@@ -22838,14 +23086,19 @@
       <c r="F50" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G50" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H50" s="151">
+      <c r="G50" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H50" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Perennial-flowers-and-bulbs</v>
@@ -22868,14 +23121,19 @@
       <c r="F51" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G51" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H51" s="151">
+      <c r="G51" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H51" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Perennial-vegetables-and-herbs</v>
@@ -22898,14 +23156,19 @@
       <c r="F52" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G52" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H52" s="151">
+      <c r="G52" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H52" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Citrus</v>
@@ -22928,14 +23191,19 @@
       <c r="F53" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G53" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H53" s="151">
+      <c r="G53" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H53" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Grapes</v>
@@ -22958,14 +23226,19 @@
       <c r="F54" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G54" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H54" s="151">
+      <c r="G54" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H54" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Seasonal-horticulture</v>
@@ -22985,14 +23258,19 @@
       <c r="F55" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G55" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H55" s="151">
+      <c r="G55" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H55" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Seasonal-fruits-</v>
@@ -23015,14 +23293,19 @@
       <c r="F56" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G56" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H56" s="151">
+      <c r="G56" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H56" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Seasonal-flowers-and-bulbs</v>
@@ -23045,14 +23328,19 @@
       <c r="F57" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G57" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H57" s="151">
+      <c r="G57" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H57" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Seasonal-vegetables-and-herbs</v>
@@ -23075,14 +23363,19 @@
       <c r="F58" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G58" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H58" s="151">
+      <c r="G58" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H58" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Land-in-transition</v>
@@ -23102,14 +23395,19 @@
       <c r="F59" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G59" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H59" s="151">
+      <c r="G59" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H59" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Degraded-land</v>
@@ -23129,14 +23427,19 @@
       <c r="F60" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G60" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H60" s="151">
+      <c r="G60" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H60" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Abandoned-land</v>
@@ -23156,14 +23459,19 @@
       <c r="F61" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G61" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H61" s="151">
+      <c r="G61" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H61" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I61" s="164"/>
+      <c r="J61" s="164"/>
+      <c r="K61" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Land-under-rehabilitation</v>
@@ -23183,14 +23491,19 @@
       <c r="F62" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G62" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H62" s="151">
+      <c r="G62" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H62" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I62" s="164"/>
+      <c r="J62" s="164"/>
+      <c r="K62" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="2"/>
         <v>alum8:No-defined-use</v>
@@ -23210,14 +23523,19 @@
       <c r="F63" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G63" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H63" s="151">
+      <c r="G63" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H63" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I63" s="164"/>
+      <c r="J63" s="164"/>
+      <c r="K63" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Abandoned-perennial-horticulture</v>
@@ -23237,14 +23555,19 @@
       <c r="F64" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G64" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H64" s="151">
+      <c r="G64" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H64" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I64" s="164"/>
+      <c r="J64" s="164"/>
+      <c r="K64" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Irrigated-plantation-forests</v>
@@ -23264,14 +23587,19 @@
       <c r="F65" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G65" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H65" s="151">
+      <c r="G65" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H65" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
+      <c r="K65" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Irrigated-hardwood-plantation-forestry</v>
@@ -23294,14 +23622,19 @@
       <c r="F66" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G66" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H66" s="151">
+      <c r="G66" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H66" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I66" s="164"/>
+      <c r="J66" s="164"/>
+      <c r="K66" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>alum8:Irrigated-softwood-plantation-forestry</v>
@@ -23324,14 +23657,19 @@
       <c r="F67" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G67" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H67" s="151">
+      <c r="G67" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H67" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="4">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B68," - ","")," ","-"),"/","-or-"))</f>
         <v>alum8:Irrigated-other-forest-plantation</v>
@@ -23354,14 +23692,19 @@
       <c r="F68" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G68" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H68" s="151">
+      <c r="G68" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H68" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-environmental-forest-plantation</v>
@@ -23384,14 +23727,19 @@
       <c r="F69" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G69" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H69" s="151">
+      <c r="G69" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H69" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I69" s="164"/>
+      <c r="J69" s="164"/>
+      <c r="K69" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Grazing-irrigated-modified-pastures</v>
@@ -23411,14 +23759,19 @@
       <c r="F70" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G70" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H70" s="151">
+      <c r="G70" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H70" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I70" s="164"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-woody-fodder-plants</v>
@@ -23441,14 +23794,19 @@
       <c r="F71" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G71" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H71" s="151">
+      <c r="G71" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H71" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I71" s="164"/>
+      <c r="J71" s="164"/>
+      <c r="K71" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-pasture-legumes</v>
@@ -23471,14 +23829,19 @@
       <c r="F72" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G72" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H72" s="151">
+      <c r="G72" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H72" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-legume-or-grass-mixtures</v>
@@ -23501,14 +23864,19 @@
       <c r="F73" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G73" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H73" s="151">
+      <c r="G73" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H73" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I73" s="164"/>
+      <c r="J73" s="164"/>
+      <c r="K73" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-sown-grasses</v>
@@ -23531,14 +23899,19 @@
       <c r="F74" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G74" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H74" s="151">
+      <c r="G74" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H74" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I74" s="164"/>
+      <c r="J74" s="164"/>
+      <c r="K74" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-cropping</v>
@@ -23558,14 +23931,19 @@
       <c r="F75" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G75" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H75" s="151">
+      <c r="G75" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H75" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I75" s="164"/>
+      <c r="J75" s="164"/>
+      <c r="K75" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-cereals</v>
@@ -23588,14 +23966,19 @@
       <c r="F76" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G76" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H76" s="151">
+      <c r="G76" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H76" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I76" s="164"/>
+      <c r="J76" s="164"/>
+      <c r="K76" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-beverage-and-spice-crops</v>
@@ -23618,14 +24001,19 @@
       <c r="F77" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G77" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H77" s="151">
+      <c r="G77" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H77" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I77" s="164"/>
+      <c r="J77" s="164"/>
+      <c r="K77" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-hay-and-silage-</v>
@@ -23648,14 +24036,19 @@
       <c r="F78" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G78" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H78" s="151">
+      <c r="G78" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H78" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-oilseeds</v>
@@ -23678,14 +24071,19 @@
       <c r="F79" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G79" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H79" s="151">
+      <c r="G79" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H79" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I79" s="164"/>
+      <c r="J79" s="164"/>
+      <c r="K79" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-sugar</v>
@@ -23708,14 +24106,19 @@
       <c r="F80" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G80" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H80" s="151">
+      <c r="G80" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H80" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I80" s="164"/>
+      <c r="J80" s="164"/>
+      <c r="K80" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-cotton</v>
@@ -23738,14 +24141,19 @@
       <c r="F81" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G81" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H81" s="151">
+      <c r="G81" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H81" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I81" s="164"/>
+      <c r="J81" s="164"/>
+      <c r="K81" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-alkaloid-poppies</v>
@@ -23768,14 +24176,19 @@
       <c r="F82" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G82" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H82" s="151">
+      <c r="G82" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H82" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-pulses</v>
@@ -23798,14 +24211,19 @@
       <c r="F83" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G83" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H83" s="151">
+      <c r="G83" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H83" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I83" s="164"/>
+      <c r="J83" s="164"/>
+      <c r="K83" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-rice</v>
@@ -23828,14 +24246,19 @@
       <c r="F84" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G84" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H84" s="151">
+      <c r="G84" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H84" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I84" s="164"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-perennial-horticulture</v>
@@ -23855,14 +24278,19 @@
       <c r="F85" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G85" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H85" s="151">
+      <c r="G85" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H85" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I85" s="164"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-tree-fruits</v>
@@ -23885,14 +24313,19 @@
       <c r="F86" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G86" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H86" s="151">
+      <c r="G86" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H86" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I86" s="164"/>
+      <c r="J86" s="164"/>
+      <c r="K86" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-olives</v>
@@ -23915,14 +24348,19 @@
       <c r="F87" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G87" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H87" s="151">
+      <c r="G87" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H87" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I87" s="164"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-tree-nuts</v>
@@ -23945,14 +24383,19 @@
       <c r="F88" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G88" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H88" s="151">
+      <c r="G88" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H88" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I88" s="164"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-vine-fruits</v>
@@ -23975,14 +24418,19 @@
       <c r="F89" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G89" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H89" s="151">
+      <c r="G89" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H89" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I89" s="164"/>
+      <c r="J89" s="164"/>
+      <c r="K89" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-shrub-berries-and-fruits</v>
@@ -24005,14 +24453,19 @@
       <c r="F90" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G90" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H90" s="151">
+      <c r="G90" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H90" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I90" s="164"/>
+      <c r="J90" s="164"/>
+      <c r="K90" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated--perennial-flowers-and-bulbs</v>
@@ -24035,14 +24488,19 @@
       <c r="F91" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G91" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H91" s="151">
+      <c r="G91" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H91" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I91" s="164"/>
+      <c r="J91" s="164"/>
+      <c r="K91" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-perennial-vegetables-and-herbs</v>
@@ -24065,14 +24523,19 @@
       <c r="F92" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G92" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H92" s="151">
+      <c r="G92" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H92" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I92" s="164"/>
+      <c r="J92" s="164"/>
+      <c r="K92" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-citrus</v>
@@ -24095,14 +24558,19 @@
       <c r="F93" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G93" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H93" s="151">
+      <c r="G93" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H93" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I93" s="164"/>
+      <c r="J93" s="164"/>
+      <c r="K93" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-grapes</v>
@@ -24125,14 +24593,19 @@
       <c r="F94" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G94" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H94" s="151">
+      <c r="G94" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H94" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I94" s="164"/>
+      <c r="J94" s="164"/>
+      <c r="K94" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-seasonal-horticulture</v>
@@ -24152,14 +24625,19 @@
       <c r="F95" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G95" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H95" s="151">
+      <c r="G95" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H95" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I95" s="164"/>
+      <c r="J95" s="164"/>
+      <c r="K95" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-seasonal-fruits-</v>
@@ -24182,14 +24660,19 @@
       <c r="F96" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G96" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H96" s="151">
+      <c r="G96" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H96" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I96" s="164"/>
+      <c r="J96" s="164"/>
+      <c r="K96" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-seasonal-flowers-and-bulbs</v>
@@ -24212,14 +24695,19 @@
       <c r="F97" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G97" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H97" s="151">
+      <c r="G97" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H97" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I97" s="164"/>
+      <c r="J97" s="164"/>
+      <c r="K97" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-seasonal-vegetables-and-herbs</v>
@@ -24242,14 +24730,19 @@
       <c r="F98" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G98" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H98" s="151">
+      <c r="G98" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H98" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I98" s="164"/>
+      <c r="J98" s="164"/>
+      <c r="K98" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-turf-farming</v>
@@ -24272,14 +24765,19 @@
       <c r="F99" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G99" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H99" s="151">
+      <c r="G99" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H99" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I99" s="164"/>
+      <c r="J99" s="164"/>
+      <c r="K99" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-land-in-transition</v>
@@ -24299,14 +24797,19 @@
       <c r="F100" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G100" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H100" s="151">
+      <c r="G100" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H100" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I100" s="164"/>
+      <c r="J100" s="164"/>
+      <c r="K100" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Degraded-irrigated-land</v>
@@ -24326,14 +24829,19 @@
       <c r="F101" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G101" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H101" s="151">
+      <c r="G101" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H101" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I101" s="164"/>
+      <c r="J101" s="164"/>
+      <c r="K101" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Abandoned-irrigated-land</v>
@@ -24353,14 +24861,19 @@
       <c r="F102" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G102" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H102" s="151">
+      <c r="G102" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H102" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I102" s="164"/>
+      <c r="J102" s="164"/>
+      <c r="K102" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Irrigated-land-under-rehabilitation</v>
@@ -24380,14 +24893,19 @@
       <c r="F103" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G103" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H103" s="151">
+      <c r="G103" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H103" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I103" s="164"/>
+      <c r="J103" s="164"/>
+      <c r="K103" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="4"/>
         <v>alum8:No-defined-useirrigation</v>
@@ -24407,14 +24925,19 @@
       <c r="F104" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G104" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H104" s="151">
+      <c r="G104" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H104" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I104" s="164"/>
+      <c r="J104" s="164"/>
+      <c r="K104" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Abandoned-irrigated-perennial-horticulture</v>
@@ -24434,14 +24957,19 @@
       <c r="F105" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G105" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H105" s="151">
+      <c r="G105" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H105" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I105" s="164"/>
+      <c r="J105" s="164"/>
+      <c r="K105" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Intensive-horticulture</v>
@@ -24461,14 +24989,19 @@
       <c r="F106" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G106" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H106" s="151">
+      <c r="G106" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H106" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I106" s="164"/>
+      <c r="J106" s="164"/>
+      <c r="K106" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Production-nurseries</v>
@@ -24491,14 +25024,19 @@
       <c r="F107" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G107" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H107" s="151">
+      <c r="G107" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H107" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I107" s="164"/>
+      <c r="J107" s="164"/>
+      <c r="K107" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Shadehouses</v>
@@ -24521,14 +25059,19 @@
       <c r="F108" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G108" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H108" s="151">
+      <c r="G108" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H108" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I108" s="164"/>
+      <c r="J108" s="164"/>
+      <c r="K108" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Glasshouses</v>
@@ -24551,14 +25094,19 @@
       <c r="F109" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G109" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H109" s="151">
+      <c r="G109" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H109" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I109" s="164"/>
+      <c r="J109" s="164"/>
+      <c r="K109" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Glasshouseshydroponic</v>
@@ -24581,14 +25129,19 @@
       <c r="F110" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G110" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H110" s="151">
+      <c r="G110" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H110" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I110" s="164"/>
+      <c r="J110" s="164"/>
+      <c r="K110" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Abandoned-intensive-horticulture</v>
@@ -24611,14 +25164,19 @@
       <c r="F111" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G111" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H111" s="151">
+      <c r="G111" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H111" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I111" s="164"/>
+      <c r="J111" s="164"/>
+      <c r="K111" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Intensive-animal-production</v>
@@ -24638,14 +25196,19 @@
       <c r="F112" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G112" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H112" s="151">
+      <c r="G112" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H112" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I112" s="164"/>
+      <c r="J112" s="164"/>
+      <c r="K112" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Dairy-sheds-and-yards</v>
@@ -24668,14 +25231,19 @@
       <c r="F113" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G113" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H113" s="151">
+      <c r="G113" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H113" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I113" s="164"/>
+      <c r="J113" s="164"/>
+      <c r="K113" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Feedlots</v>
@@ -24698,14 +25266,19 @@
       <c r="F114" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G114" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H114" s="151">
+      <c r="G114" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H114" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I114" s="164"/>
+      <c r="J114" s="164"/>
+      <c r="K114" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Poultry-farms</v>
@@ -24728,14 +25301,19 @@
       <c r="F115" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G115" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H115" s="151">
+      <c r="G115" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H115" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I115" s="164"/>
+      <c r="J115" s="164"/>
+      <c r="K115" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Piggeries</v>
@@ -24758,14 +25336,19 @@
       <c r="F116" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G116" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H116" s="151">
+      <c r="G116" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H116" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I116" s="164"/>
+      <c r="J116" s="164"/>
+      <c r="K116" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Aquaculture</v>
@@ -24788,14 +25371,19 @@
       <c r="F117" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G117" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H117" s="151">
+      <c r="G117" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H117" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I117" s="164"/>
+      <c r="J117" s="164"/>
+      <c r="K117" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Horse-studs</v>
@@ -24818,14 +25406,19 @@
       <c r="F118" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G118" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H118" s="151">
+      <c r="G118" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H118" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I118" s="164"/>
+      <c r="J118" s="164"/>
+      <c r="K118" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Saleyards-or-stockyards-</v>
@@ -24848,14 +25441,19 @@
       <c r="F119" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G119" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H119" s="151">
+      <c r="G119" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H119" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I119" s="164"/>
+      <c r="J119" s="164"/>
+      <c r="K119" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Abandoned-intensive-animal-production</v>
@@ -24878,14 +25476,19 @@
       <c r="F120" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G120" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H120" s="151">
+      <c r="G120" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H120" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I120" s="164"/>
+      <c r="J120" s="164"/>
+      <c r="K120" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Manufacturing-and-industrial</v>
@@ -24905,14 +25508,19 @@
       <c r="F121" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G121" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H121" s="151">
+      <c r="G121" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H121" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I121" s="164"/>
+      <c r="J121" s="164"/>
+      <c r="K121" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f t="shared" si="4"/>
         <v>alum8:General-purpose-factory</v>
@@ -24935,14 +25543,19 @@
       <c r="F122" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G122" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H122" s="151">
+      <c r="G122" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H122" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I122" s="164"/>
+      <c r="J122" s="164"/>
+      <c r="K122" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Food-processing-factory</v>
@@ -24965,14 +25578,19 @@
       <c r="F123" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G123" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H123" s="151">
+      <c r="G123" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H123" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I123" s="164"/>
+      <c r="J123" s="164"/>
+      <c r="K123" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Major-industrial-complex</v>
@@ -24995,14 +25613,19 @@
       <c r="F124" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G124" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H124" s="151">
+      <c r="G124" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H124" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I124" s="164"/>
+      <c r="J124" s="164"/>
+      <c r="K124" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Bulk-grain-storage</v>
@@ -25025,14 +25648,19 @@
       <c r="F125" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G125" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H125" s="151">
+      <c r="G125" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H125" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I125" s="164"/>
+      <c r="J125" s="164"/>
+      <c r="K125" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Abattoirs</v>
@@ -25055,14 +25683,19 @@
       <c r="F126" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G126" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H126" s="151">
+      <c r="G126" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H126" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I126" s="164"/>
+      <c r="J126" s="164"/>
+      <c r="K126" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Oil-refinery</v>
@@ -25085,14 +25718,19 @@
       <c r="F127" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G127" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H127" s="151">
+      <c r="G127" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H127" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I127" s="164"/>
+      <c r="J127" s="164"/>
+      <c r="K127" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Sawmill</v>
@@ -25115,14 +25753,19 @@
       <c r="F128" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G128" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H128" s="151">
+      <c r="G128" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H128" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I128" s="164"/>
+      <c r="J128" s="164"/>
+      <c r="K128" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Abandoned-manufacturing-and-industrial</v>
@@ -25145,14 +25788,19 @@
       <c r="F129" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G129" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H129" s="151">
+      <c r="G129" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H129" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I129" s="164"/>
+      <c r="J129" s="164"/>
+      <c r="K129" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Residential-and-farm-infrastructure</v>
@@ -25172,14 +25820,19 @@
       <c r="F130" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G130" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H130" s="151">
+      <c r="G130" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H130" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I130" s="164"/>
+      <c r="J130" s="164"/>
+      <c r="K130" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" si="4"/>
         <v>alum8:Urban-residential</v>
@@ -25202,14 +25855,19 @@
       <c r="F131" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G131" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H131" s="151">
+      <c r="G131" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H131" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I131" s="164"/>
+      <c r="J131" s="164"/>
+      <c r="K131" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A195" si="6">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B132," - ","")," ","-"),"/","-or-"))</f>
         <v>alum8:Rural-residential-with-agriculture</v>
@@ -25232,14 +25890,19 @@
       <c r="F132" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G132" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H132" s="151">
+      <c r="G132" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H132" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I132" s="164"/>
+      <c r="J132" s="164"/>
+      <c r="K132" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Rural-residential-without-agriculture</v>
@@ -25262,14 +25925,19 @@
       <c r="F133" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G133" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H133" s="151">
+      <c r="G133" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H133" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I133" s="164"/>
+      <c r="J133" s="164"/>
+      <c r="K133" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Remote-communities</v>
@@ -25292,14 +25960,19 @@
       <c r="F134" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G134" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H134" s="151">
+      <c r="G134" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H134" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I134" s="164"/>
+      <c r="J134" s="164"/>
+      <c r="K134" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Farm-buildings-or-infrastructure</v>
@@ -25322,14 +25995,19 @@
       <c r="F135" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G135" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H135" s="151">
+      <c r="G135" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H135" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I135" s="164"/>
+      <c r="J135" s="164"/>
+      <c r="K135" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Services</v>
@@ -25349,14 +26027,19 @@
       <c r="F136" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G136" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H136" s="151">
+      <c r="G136" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H136" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I136" s="164"/>
+      <c r="J136" s="164"/>
+      <c r="K136" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Commercial-services</v>
@@ -25379,14 +26062,19 @@
       <c r="F137" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G137" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H137" s="151">
+      <c r="G137" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H137" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I137" s="164"/>
+      <c r="J137" s="164"/>
+      <c r="K137" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Public-services</v>
@@ -25409,14 +26097,19 @@
       <c r="F138" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G138" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H138" s="151">
+      <c r="G138" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H138" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I138" s="164"/>
+      <c r="J138" s="164"/>
+      <c r="K138" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Recreation-and-culture</v>
@@ -25439,14 +26132,19 @@
       <c r="F139" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G139" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H139" s="151">
+      <c r="G139" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H139" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I139" s="164"/>
+      <c r="J139" s="164"/>
+      <c r="K139" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Defence-facilitiesurban</v>
@@ -25469,14 +26167,19 @@
       <c r="F140" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G140" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H140" s="151">
+      <c r="G140" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H140" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I140" s="164"/>
+      <c r="J140" s="164"/>
+      <c r="K140" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Research-facilities</v>
@@ -25499,14 +26202,19 @@
       <c r="F141" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G141" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H141" s="151">
+      <c r="G141" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H141" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I141" s="164"/>
+      <c r="J141" s="164"/>
+      <c r="K141" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Utilities</v>
@@ -25526,14 +26234,19 @@
       <c r="F142" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G142" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H142" s="151">
+      <c r="G142" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H142" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I142" s="164"/>
+      <c r="J142" s="164"/>
+      <c r="K142" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Fuel-powered-electricity-generation</v>
@@ -25556,14 +26269,19 @@
       <c r="F143" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G143" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H143" s="151">
+      <c r="G143" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H143" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I143" s="164"/>
+      <c r="J143" s="164"/>
+      <c r="K143" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Hydro-electricity-generation</v>
@@ -25586,14 +26304,19 @@
       <c r="F144" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G144" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H144" s="151">
+      <c r="G144" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H144" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I144" s="164"/>
+      <c r="J144" s="164"/>
+      <c r="K144" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Wind-electricity-generation</v>
@@ -25616,14 +26339,19 @@
       <c r="F145" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G145" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H145" s="151">
+      <c r="G145" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H145" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I145" s="164"/>
+      <c r="J145" s="164"/>
+      <c r="K145" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Solar-electricity-generation</v>
@@ -25646,14 +26374,19 @@
       <c r="F146" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G146" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H146" s="151">
+      <c r="G146" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H146" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I146" s="164"/>
+      <c r="J146" s="164"/>
+      <c r="K146" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Electricity-substations-and-transmission</v>
@@ -25676,14 +26409,19 @@
       <c r="F147" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G147" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H147" s="151">
+      <c r="G147" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H147" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I147" s="164"/>
+      <c r="J147" s="164"/>
+      <c r="K147" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Gas-treatment,-storage-and-transmission</v>
@@ -25706,14 +26444,19 @@
       <c r="F148" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G148" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H148" s="151">
+      <c r="G148" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H148" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I148" s="164"/>
+      <c r="J148" s="164"/>
+      <c r="K148" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Water-extraction-and-transmission</v>
@@ -25736,14 +26479,19 @@
       <c r="F149" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G149" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H149" s="151">
+      <c r="G149" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H149" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I149" s="164"/>
+      <c r="J149" s="164"/>
+      <c r="K149" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Transport-and-communication</v>
@@ -25763,14 +26511,19 @@
       <c r="F150" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G150" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H150" s="151">
+      <c r="G150" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H150" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I150" s="164"/>
+      <c r="J150" s="164"/>
+      <c r="K150" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Airports-or-aerodromes</v>
@@ -25793,14 +26546,19 @@
       <c r="F151" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G151" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H151" s="151">
+      <c r="G151" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H151" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I151" s="164"/>
+      <c r="J151" s="164"/>
+      <c r="K151" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Roads</v>
@@ -25823,14 +26581,19 @@
       <c r="F152" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G152" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H152" s="151">
+      <c r="G152" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H152" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I152" s="164"/>
+      <c r="J152" s="164"/>
+      <c r="K152" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Railways</v>
@@ -25853,14 +26616,19 @@
       <c r="F153" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G153" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H153" s="151">
+      <c r="G153" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H153" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I153" s="164"/>
+      <c r="J153" s="164"/>
+      <c r="K153" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Ports-and-water-transport</v>
@@ -25883,14 +26651,19 @@
       <c r="F154" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G154" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H154" s="151">
+      <c r="G154" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H154" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I154" s="164"/>
+      <c r="J154" s="164"/>
+      <c r="K154" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Navigation-and-communication</v>
@@ -25913,14 +26686,19 @@
       <c r="F155" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G155" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H155" s="151">
+      <c r="G155" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H155" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I155" s="164"/>
+      <c r="J155" s="164"/>
+      <c r="K155" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Mining</v>
@@ -25940,14 +26718,19 @@
       <c r="F156" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G156" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H156" s="151">
+      <c r="G156" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H156" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I156" s="164"/>
+      <c r="J156" s="164"/>
+      <c r="K156" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Mines</v>
@@ -25970,14 +26753,19 @@
       <c r="F157" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G157" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H157" s="151">
+      <c r="G157" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H157" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I157" s="164"/>
+      <c r="J157" s="164"/>
+      <c r="K157" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Quarries</v>
@@ -26000,14 +26788,19 @@
       <c r="F158" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G158" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H158" s="151">
+      <c r="G158" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H158" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I158" s="164"/>
+      <c r="J158" s="164"/>
+      <c r="K158" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Tailings</v>
@@ -26030,14 +26823,19 @@
       <c r="F159" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G159" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H159" s="151">
+      <c r="G159" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H159" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I159" s="164"/>
+      <c r="J159" s="164"/>
+      <c r="K159" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Extractive-Industry-not-in-use</v>
@@ -26060,14 +26858,19 @@
       <c r="F160" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G160" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H160" s="151">
+      <c r="G160" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H160" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I160" s="164"/>
+      <c r="J160" s="164"/>
+      <c r="K160" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Waste-treatment-and-disposal</v>
@@ -26087,14 +26890,19 @@
       <c r="F161" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G161" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H161" s="151">
+      <c r="G161" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H161" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I161" s="164"/>
+      <c r="J161" s="164"/>
+      <c r="K161" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Effluent-pond</v>
@@ -26117,14 +26925,19 @@
       <c r="F162" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G162" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H162" s="151">
+      <c r="G162" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H162" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I162" s="164"/>
+      <c r="J162" s="164"/>
+      <c r="K162" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Landfill</v>
@@ -26147,14 +26960,19 @@
       <c r="F163" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G163" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H163" s="151">
+      <c r="G163" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H163" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I163" s="164"/>
+      <c r="J163" s="164"/>
+      <c r="K163" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Solid-garbage</v>
@@ -26177,14 +26995,19 @@
       <c r="F164" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G164" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H164" s="151">
+      <c r="G164" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H164" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I164" s="164"/>
+      <c r="J164" s="164"/>
+      <c r="K164" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Incinerators</v>
@@ -26207,14 +27030,19 @@
       <c r="F165" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G165" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H165" s="151">
+      <c r="G165" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H165" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I165" s="164"/>
+      <c r="J165" s="164"/>
+      <c r="K165" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Sewage-or-sewerage</v>
@@ -26237,14 +27065,19 @@
       <c r="F166" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G166" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H166" s="151">
+      <c r="G166" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H166" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I166" s="164"/>
+      <c r="J166" s="164"/>
+      <c r="K166" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Lake</v>
@@ -26264,14 +27097,19 @@
       <c r="F167" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G167" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H167" s="151">
+      <c r="G167" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H167" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I167" s="164"/>
+      <c r="J167" s="164"/>
+      <c r="K167" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Lakeconservation</v>
@@ -26294,14 +27132,19 @@
       <c r="F168" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G168" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H168" s="151">
+      <c r="G168" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H168" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I168" s="164"/>
+      <c r="J168" s="164"/>
+      <c r="K168" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Lakeproduction</v>
@@ -26324,14 +27167,19 @@
       <c r="F169" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G169" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H169" s="151">
+      <c r="G169" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H169" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I169" s="164"/>
+      <c r="J169" s="164"/>
+      <c r="K169" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Lakeintensive-use</v>
@@ -26354,14 +27202,19 @@
       <c r="F170" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G170" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H170" s="151">
+      <c r="G170" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H170" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I170" s="164"/>
+      <c r="J170" s="164"/>
+      <c r="K170" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Lakesaline</v>
@@ -26384,14 +27237,19 @@
       <c r="F171" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G171" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H171" s="151">
+      <c r="G171" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H171" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I171" s="164"/>
+      <c r="J171" s="164"/>
+      <c r="K171" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Lakesaline</v>
@@ -26414,14 +27272,19 @@
       <c r="F172" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G172" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H172" s="151">
+      <c r="G172" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H172" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I172" s="164"/>
+      <c r="J172" s="164"/>
+      <c r="K172" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Reservoir-or-dam</v>
@@ -26441,14 +27304,19 @@
       <c r="F173" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G173" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H173" s="151">
+      <c r="G173" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H173" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I173" s="164"/>
+      <c r="J173" s="164"/>
+      <c r="K173" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Reservoir</v>
@@ -26471,14 +27339,19 @@
       <c r="F174" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G174" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H174" s="151">
+      <c r="G174" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H174" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I174" s="164"/>
+      <c r="J174" s="164"/>
+      <c r="K174" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Water-storageintensive-use-or-farm-dams</v>
@@ -26501,14 +27374,19 @@
       <c r="F175" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G175" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H175" s="151">
+      <c r="G175" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H175" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I175" s="164"/>
+      <c r="J175" s="164"/>
+      <c r="K175" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Evaporation-basin</v>
@@ -26531,14 +27409,19 @@
       <c r="F176" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G176" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H176" s="151">
+      <c r="G176" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H176" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I176" s="164"/>
+      <c r="J176" s="164"/>
+      <c r="K176" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
         <f t="shared" si="6"/>
         <v>alum8:River</v>
@@ -26558,14 +27441,19 @@
       <c r="F177" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G177" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H177" s="151">
+      <c r="G177" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H177" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I177" s="164"/>
+      <c r="J177" s="164"/>
+      <c r="K177" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Riverconservation</v>
@@ -26588,14 +27476,19 @@
       <c r="F178" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G178" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H178" s="151">
+      <c r="G178" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H178" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I178" s="164"/>
+      <c r="J178" s="164"/>
+      <c r="K178" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Riverproduction</v>
@@ -26618,14 +27511,19 @@
       <c r="F179" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G179" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H179" s="151">
+      <c r="G179" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H179" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I179" s="164"/>
+      <c r="J179" s="164"/>
+      <c r="K179" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Riverintensive-use</v>
@@ -26648,14 +27546,19 @@
       <c r="F180" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G180" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H180" s="151">
+      <c r="G180" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H180" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I180" s="164"/>
+      <c r="J180" s="164"/>
+      <c r="K180" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Channel-or-aqueduct</v>
@@ -26675,14 +27578,19 @@
       <c r="F181" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G181" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H181" s="151">
+      <c r="G181" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H181" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I181" s="164"/>
+      <c r="J181" s="164"/>
+      <c r="K181" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Supply-channel-or-aqueduct</v>
@@ -26705,14 +27613,19 @@
       <c r="F182" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H182" s="151">
+      <c r="G182" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H182" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I182" s="164"/>
+      <c r="J182" s="164"/>
+      <c r="K182" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Drainage-channel-or-aqueduct</v>
@@ -26735,14 +27648,19 @@
       <c r="F183" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G183" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H183" s="151">
+      <c r="G183" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H183" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I183" s="164"/>
+      <c r="J183" s="164"/>
+      <c r="K183" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Stormwater</v>
@@ -26765,14 +27683,19 @@
       <c r="F184" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G184" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H184" s="151">
+      <c r="G184" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H184" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I184" s="164"/>
+      <c r="J184" s="164"/>
+      <c r="K184" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Marsh-or-wetland</v>
@@ -26792,14 +27715,19 @@
       <c r="F185" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G185" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H185" s="151">
+      <c r="G185" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H185" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I185" s="164"/>
+      <c r="J185" s="164"/>
+      <c r="K185" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Marsh-or-wetlandconservation</v>
@@ -26822,14 +27750,19 @@
       <c r="F186" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G186" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H186" s="151">
+      <c r="G186" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H186" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I186" s="164"/>
+      <c r="J186" s="164"/>
+      <c r="K186" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Marsh-or-wetlandproduction</v>
@@ -26852,14 +27785,19 @@
       <c r="F187" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G187" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H187" s="151">
+      <c r="G187" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H187" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I187" s="164"/>
+      <c r="J187" s="164"/>
+      <c r="K187" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Marsh-or-wetlandintensive-use</v>
@@ -26882,14 +27820,19 @@
       <c r="F188" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G188" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H188" s="151">
+      <c r="G188" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H188" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I188" s="164"/>
+      <c r="J188" s="164"/>
+      <c r="K188" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Marsh-or-wetlandsaline</v>
@@ -26912,14 +27855,19 @@
       <c r="F189" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G189" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H189" s="151">
+      <c r="G189" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H189" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I189" s="164"/>
+      <c r="J189" s="164"/>
+      <c r="K189" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Estuary-or-coastal-waters</v>
@@ -26939,14 +27887,19 @@
       <c r="F190" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G190" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H190" s="151">
+      <c r="G190" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H190" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I190" s="164"/>
+      <c r="J190" s="164"/>
+      <c r="K190" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Estuary-or-coastal-watersconservation</v>
@@ -26969,14 +27922,19 @@
       <c r="F191" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G191" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H191" s="151">
+      <c r="G191" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H191" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I191" s="164"/>
+      <c r="J191" s="164"/>
+      <c r="K191" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Estuary-or-coastal-watersconservation</v>
@@ -26999,14 +27957,19 @@
       <c r="F192" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G192" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H192" s="151">
+      <c r="G192" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H192" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I192" s="164"/>
+      <c r="J192" s="164"/>
+      <c r="K192" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Estuary-or-coastal-watersproduction</v>
@@ -27029,14 +27992,19 @@
       <c r="F193" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G193" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H193" s="151">
+      <c r="G193" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H193" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I193" s="164"/>
+      <c r="J193" s="164"/>
+      <c r="K193" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Estuary-or-coastal-watersproduction</v>
@@ -27059,14 +28027,19 @@
       <c r="F194" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G194" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H194" s="151">
+      <c r="G194" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H194" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I194" s="164"/>
+      <c r="J194" s="164"/>
+      <c r="K194" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
         <f t="shared" si="6"/>
         <v>alum8:Estuary-or-coastal-watersintensive-use</v>
@@ -27089,14 +28062,19 @@
       <c r="F195" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G195" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H195" s="151">
+      <c r="G195" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H195" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I195" s="164"/>
+      <c r="J195" s="164"/>
+      <c r="K195" s="151">
         <v>45261</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
         <f t="shared" ref="A196" si="8">_xlfn.CONCAT("alum8:",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B196," - ","")," ","-"),"/","-or-"))</f>
         <v>alum8:Estuary-or-coastal-watersintensive-use</v>
@@ -27119,27 +28097,31 @@
       <c r="F196" s="150" t="s">
         <v>1043</v>
       </c>
-      <c r="G196" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H196" s="151">
+      <c r="G196" s="164" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H196" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I196" s="164"/>
+      <c r="J196" s="164"/>
+      <c r="K196" s="151">
         <v>45261</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27275,18 +28257,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27310,11 +28294,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUMv8-IUCNGET.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD8A66-6031-4C94-AD71-8C0CDF90D7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19EDB2-93D5-4C32-879C-2C7EB35AE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="commodities" sheetId="9" r:id="rId4"/>
     <sheet name="management" sheetId="10" r:id="rId5"/>
     <sheet name="ALUM_V8_vertical with IUCN" sheetId="11" r:id="rId6"/>
-    <sheet name="SSSOM" sheetId="14" r:id="rId7"/>
+    <sheet name="header" sheetId="15" r:id="rId7"/>
+    <sheet name="SSSOM" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">commodities!$A$2:$F$268</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="1230">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3445,9 +3446,6 @@
     <t>Unclassified</t>
   </si>
   <si>
-    <t>FM1 Semi-confined transitional waters</t>
-  </si>
-  <si>
     <t>alum8:Strict-nature-reserves</t>
   </si>
   <si>
@@ -3928,17 +3926,51 @@
     <t>Insufficient information for classification</t>
   </si>
   <si>
-    <t>Will be mapped using NVIS dataset</t>
+    <t>creator_id: https://orcid.org/0000-0002-3884-3420</t>
+  </si>
+  <si>
+    <t>curie_map:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   get: https://global-ecosystems.org/explore/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   skos: http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   semapv: https://w3id.org/semapv/vocab/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   orcid: https://orcid.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   status: https://w3id.org/sssom/status/</t>
+  </si>
+  <si>
+    <t>license: https://creativecommons.org/publicdomain/zero/1.0/</t>
+  </si>
+  <si>
+    <t>alum8: TBA</t>
+  </si>
+  <si>
+    <t>mapping_set_id: http://w3id.org/env/crosswalk/alum82get/2024-05-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4579,19 +4611,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4600,193 +4633,202 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4794,16 +4836,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4812,119 +4845,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -4932,8 +4966,16 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{6E4AE3D0-7BAA-41EF-A73F-6403105D203D}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5014,10 +5056,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21949,13 +21987,85 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB4D65-9DAF-4373-8A3E-AE42C6AE42AD}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="104.140625" style="165" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="165"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="165" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="165" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="165" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="165" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="165" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="165" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAEF26-8574-478F-B8F3-4FDF27AEE69E}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159:E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22018,7 +22128,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -22055,7 +22165,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -22092,7 +22202,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -22129,7 +22239,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -22166,7 +22276,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -22203,7 +22313,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -22240,7 +22350,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -22277,7 +22387,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -22314,7 +22424,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -22351,7 +22461,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22388,7 +22498,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -22425,7 +22535,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B13" t="s">
         <v>1010</v>
@@ -22462,7 +22572,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B14" t="s">
         <v>478</v>
@@ -22499,7 +22609,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -22536,7 +22646,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B16" t="s">
         <v>391</v>
@@ -22566,14 +22676,14 @@
         <v>1055</v>
       </c>
       <c r="L16" t="s">
-        <v>1221</v>
+        <v>1057</v>
       </c>
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -22603,14 +22713,14 @@
         <v>1055</v>
       </c>
       <c r="L17" t="s">
-        <v>1221</v>
+        <v>1057</v>
       </c>
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B18" t="s">
         <v>991</v>
@@ -22640,14 +22750,14 @@
         <v>1055</v>
       </c>
       <c r="L18" t="s">
-        <v>1221</v>
+        <v>1057</v>
       </c>
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B19" t="s">
         <v>233</v>
@@ -22677,14 +22787,14 @@
         <v>1055</v>
       </c>
       <c r="L19" t="s">
-        <v>1221</v>
+        <v>1057</v>
       </c>
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B20" t="s">
         <v>986</v>
@@ -22719,7 +22829,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B21" t="s">
         <v>989</v>
@@ -22754,7 +22864,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B22" t="s">
         <v>482</v>
@@ -22789,7 +22899,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B23" t="s">
         <v>483</v>
@@ -22824,7 +22934,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B24" t="s">
         <v>95</v>
@@ -22859,7 +22969,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
@@ -22894,7 +23004,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B26" t="s">
         <v>385</v>
@@ -22929,7 +23039,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B27" t="s">
         <v>386</v>
@@ -22964,7 +23074,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B28" t="s">
         <v>101</v>
@@ -22999,7 +23109,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B29" t="s">
         <v>104</v>
@@ -23034,7 +23144,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B30" t="s">
         <v>335</v>
@@ -23069,7 +23179,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B31" t="s">
         <v>509</v>
@@ -23104,7 +23214,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B32" t="s">
         <v>558</v>
@@ -23139,7 +23249,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B33" t="s">
         <v>109</v>
@@ -23174,7 +23284,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B34" t="s">
         <v>111</v>
@@ -23209,7 +23319,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B35" t="s">
         <v>431</v>
@@ -23244,7 +23354,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B36" t="s">
         <v>477</v>
@@ -23279,7 +23389,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -23314,7 +23424,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B38" t="s">
         <v>620</v>
@@ -23349,7 +23459,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -23384,7 +23494,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -23419,7 +23529,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B41" t="s">
         <v>627</v>
@@ -23454,7 +23564,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B42" t="s">
         <v>512</v>
@@ -23489,7 +23599,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B43" t="s">
         <v>514</v>
@@ -23524,7 +23634,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B44" t="s">
         <v>406</v>
@@ -23559,7 +23669,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B45" t="s">
         <v>438</v>
@@ -23594,7 +23704,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B46" t="s">
         <v>484</v>
@@ -23629,7 +23739,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B47" t="s">
         <v>516</v>
@@ -23664,7 +23774,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B48" t="s">
         <v>518</v>
@@ -23699,7 +23809,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B49" t="s">
         <v>394</v>
@@ -23729,14 +23839,14 @@
         <v>1055</v>
       </c>
       <c r="L49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M49" s="154"/>
       <c r="N49" s="154"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B50" t="s">
         <v>395</v>
@@ -23766,14 +23876,14 @@
         <v>1055</v>
       </c>
       <c r="L50" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M50" s="154"/>
       <c r="N50" s="154"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B51" t="s">
         <v>396</v>
@@ -23803,14 +23913,14 @@
         <v>1055</v>
       </c>
       <c r="L51" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M51" s="154"/>
       <c r="N51" s="154"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B52" t="s">
         <v>397</v>
@@ -23840,14 +23950,14 @@
         <v>1055</v>
       </c>
       <c r="L52" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M52" s="154"/>
       <c r="N52" s="154"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B53" t="s">
         <v>445</v>
@@ -23877,14 +23987,14 @@
         <v>1055</v>
       </c>
       <c r="L53" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M53" s="154"/>
       <c r="N53" s="154"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B54" t="s">
         <v>987</v>
@@ -23919,7 +24029,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B55" t="s">
         <v>990</v>
@@ -23954,7 +24064,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B56" t="s">
         <v>488</v>
@@ -23989,7 +24099,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B57" t="s">
         <v>505</v>
@@ -24024,7 +24134,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -24059,7 +24169,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -24094,7 +24204,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -24129,7 +24239,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -24164,7 +24274,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -24199,7 +24309,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B63" t="s">
         <v>507</v>
@@ -24234,7 +24344,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B64" t="s">
         <v>508</v>
@@ -24269,7 +24379,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B65" t="s">
         <v>655</v>
@@ -24304,7 +24414,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -24339,7 +24449,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -24374,7 +24484,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B68" t="s">
         <v>489</v>
@@ -24409,7 +24519,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B69" t="s">
         <v>490</v>
@@ -24444,7 +24554,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B70" t="s">
         <v>464</v>
@@ -24479,7 +24589,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B71" t="s">
         <v>42</v>
@@ -24514,7 +24624,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B72" t="s">
         <v>621</v>
@@ -24549,7 +24659,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -24584,7 +24694,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -24619,7 +24729,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B75" t="s">
         <v>653</v>
@@ -24654,7 +24764,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B76" t="s">
         <v>513</v>
@@ -24689,7 +24799,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B77" t="s">
         <v>515</v>
@@ -24724,7 +24834,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B78" t="s">
         <v>405</v>
@@ -24759,7 +24869,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B79" t="s">
         <v>437</v>
@@ -24794,7 +24904,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B80" t="s">
         <v>491</v>
@@ -24829,7 +24939,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B81" t="s">
         <v>517</v>
@@ -24864,7 +24974,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B82" t="s">
         <v>519</v>
@@ -24899,7 +25009,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B83" t="s">
         <v>404</v>
@@ -24934,7 +25044,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B84" t="s">
         <v>398</v>
@@ -24964,14 +25074,14 @@
         <v>1055</v>
       </c>
       <c r="L84" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M84" s="154"/>
       <c r="N84" s="154"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B85" t="s">
         <v>399</v>
@@ -25001,14 +25111,14 @@
         <v>1055</v>
       </c>
       <c r="L85" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M85" s="154"/>
       <c r="N85" s="154"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B86" t="s">
         <v>400</v>
@@ -25038,14 +25148,14 @@
         <v>1055</v>
       </c>
       <c r="L86" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M86" s="154"/>
       <c r="N86" s="154"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B87" t="s">
         <v>992</v>
@@ -25075,14 +25185,14 @@
         <v>1055</v>
       </c>
       <c r="L87" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M87" s="154"/>
       <c r="N87" s="154"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B88" t="s">
         <v>449</v>
@@ -25112,14 +25222,14 @@
         <v>1055</v>
       </c>
       <c r="L88" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M88" s="154"/>
       <c r="N88" s="154"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B89" t="s">
         <v>597</v>
@@ -25154,7 +25264,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B90" t="s">
         <v>116</v>
@@ -25189,7 +25299,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B91" t="s">
         <v>118</v>
@@ -25224,7 +25334,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B92" t="s">
         <v>982</v>
@@ -25259,7 +25369,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B93" t="s">
         <v>451</v>
@@ -25294,7 +25404,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B94" t="s">
         <v>494</v>
@@ -25329,7 +25439,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B95" t="s">
         <v>521</v>
@@ -25364,7 +25474,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B96" t="s">
         <v>497</v>
@@ -25399,7 +25509,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B97" t="s">
         <v>498</v>
@@ -25434,7 +25544,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B98" t="s">
         <v>235</v>
@@ -25469,7 +25579,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B99" t="s">
         <v>465</v>
@@ -25504,7 +25614,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B100" t="s">
         <v>656</v>
@@ -25539,7 +25649,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B101" t="s">
         <v>524</v>
@@ -25574,7 +25684,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B102" t="s">
         <v>448</v>
@@ -25609,7 +25719,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B103" t="s">
         <v>408</v>
@@ -25644,7 +25754,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B104" t="s">
         <v>410</v>
@@ -25679,7 +25789,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B105" t="s">
         <v>412</v>
@@ -25714,7 +25824,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B106" t="s">
         <v>415</v>
@@ -25749,7 +25859,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B107" t="s">
         <v>418</v>
@@ -25784,7 +25894,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B108" t="s">
         <v>423</v>
@@ -25819,7 +25929,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B109" t="s">
         <v>419</v>
@@ -25854,7 +25964,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B110" t="s">
         <v>128</v>
@@ -25889,7 +25999,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B111" t="s">
         <v>500</v>
@@ -25924,7 +26034,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B112" t="s">
         <v>501</v>
@@ -25959,7 +26069,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B113" t="s">
         <v>454</v>
@@ -25994,7 +26104,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B114" t="s">
         <v>443</v>
@@ -26029,7 +26139,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B115" t="s">
         <v>132</v>
@@ -26064,7 +26174,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B116" t="s">
         <v>134</v>
@@ -26099,7 +26209,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B117" t="s">
         <v>136</v>
@@ -26134,7 +26244,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B118" t="s">
         <v>502</v>
@@ -26169,7 +26279,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B119" t="s">
         <v>139</v>
@@ -26204,7 +26314,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B120" t="s">
         <v>424</v>
@@ -26239,7 +26349,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B121" t="s">
         <v>426</v>
@@ -26274,7 +26384,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B122" t="s">
         <v>654</v>
@@ -26309,7 +26419,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B123" t="s">
         <v>526</v>
@@ -26344,7 +26454,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B124" t="s">
         <v>430</v>
@@ -26379,7 +26489,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B125" t="s">
         <v>143</v>
@@ -26414,7 +26524,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B126" t="s">
         <v>463</v>
@@ -26449,7 +26559,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B127" t="s">
         <v>146</v>
@@ -26484,7 +26594,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B128" t="s">
         <v>148</v>
@@ -26519,7 +26629,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B129" t="s">
         <v>150</v>
@@ -26554,7 +26664,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B130" t="s">
         <v>152</v>
@@ -26589,7 +26699,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B131" t="s">
         <v>154</v>
@@ -26624,7 +26734,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B132" t="s">
         <v>157</v>
@@ -26659,7 +26769,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B133" t="s">
         <v>159</v>
@@ -26694,7 +26804,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B134" t="s">
         <v>161</v>
@@ -26729,7 +26839,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B135" t="s">
         <v>522</v>
@@ -26764,7 +26874,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B136" t="s">
         <v>184</v>
@@ -26799,7 +26909,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B137" t="s">
         <v>166</v>
@@ -26834,7 +26944,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B138" t="s">
         <v>168</v>
@@ -26869,7 +26979,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B139" t="s">
         <v>170</v>
@@ -26904,7 +27014,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B140" t="s">
         <v>506</v>
@@ -26939,7 +27049,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B141" t="s">
         <v>174</v>
@@ -26947,12 +27057,11 @@
       <c r="C141" t="s">
         <v>1040</v>
       </c>
-      <c r="D141" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/F2</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1024</v>
+      <c r="D141" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E141" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F141" s="150" t="s">
         <v>1043</v>
@@ -26977,7 +27086,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B142" t="s">
         <v>176</v>
@@ -26985,12 +27094,11 @@
       <c r="C142" t="s">
         <v>1040</v>
       </c>
-      <c r="D142" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/F2</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1024</v>
+      <c r="D142" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E142" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F142" s="150" t="s">
         <v>1043</v>
@@ -27015,7 +27123,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B143" t="s">
         <v>178</v>
@@ -27023,12 +27131,11 @@
       <c r="C143" t="s">
         <v>1040</v>
       </c>
-      <c r="D143" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/F2</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1024</v>
+      <c r="D143" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E143" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F143" s="150" t="s">
         <v>1043</v>
@@ -27053,7 +27160,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B144" t="s">
         <v>457</v>
@@ -27088,7 +27195,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B145" t="s">
         <v>457</v>
@@ -27123,7 +27230,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B146" t="s">
         <v>179</v>
@@ -27158,7 +27265,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B147" t="s">
         <v>387</v>
@@ -27193,7 +27300,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B148" t="s">
         <v>183</v>
@@ -27228,7 +27335,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B149" t="s">
         <v>187</v>
@@ -27236,12 +27343,11 @@
       <c r="C149" t="s">
         <v>1040</v>
       </c>
-      <c r="D149" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/F1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1021</v>
+      <c r="D149" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E149" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F149" s="150" t="s">
         <v>1043</v>
@@ -27266,7 +27372,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B150" t="s">
         <v>189</v>
@@ -27274,12 +27380,11 @@
       <c r="C150" t="s">
         <v>1040</v>
       </c>
-      <c r="D150" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/F1</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1021</v>
+      <c r="D150" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E150" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F150" s="150" t="s">
         <v>1043</v>
@@ -27304,7 +27409,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B151" t="s">
         <v>191</v>
@@ -27312,12 +27417,11 @@
       <c r="C151" t="s">
         <v>1040</v>
       </c>
-      <c r="D151" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/F1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1021</v>
+      <c r="D151" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E151" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F151" s="150" t="s">
         <v>1043</v>
@@ -27342,7 +27446,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B152" t="s">
         <v>194</v>
@@ -27377,7 +27481,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B153" t="s">
         <v>196</v>
@@ -27412,7 +27516,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B154" t="s">
         <v>164</v>
@@ -27447,7 +27551,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B155" t="s">
         <v>199</v>
@@ -27455,12 +27559,11 @@
       <c r="C155" t="s">
         <v>1040</v>
       </c>
-      <c r="D155" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/TF1</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1035</v>
+      <c r="D155" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E155" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F155" s="150" t="s">
         <v>1043</v>
@@ -27485,7 +27588,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B156" t="s">
         <v>201</v>
@@ -27493,12 +27596,11 @@
       <c r="C156" t="s">
         <v>1040</v>
       </c>
-      <c r="D156" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/TF1</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1035</v>
+      <c r="D156" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E156" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F156" s="150" t="s">
         <v>1043</v>
@@ -27523,7 +27625,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B157" t="s">
         <v>203</v>
@@ -27531,12 +27633,11 @@
       <c r="C157" t="s">
         <v>1040</v>
       </c>
-      <c r="D157" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/TF1</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1035</v>
+      <c r="D157" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E157" s="104" t="s">
+        <v>1059</v>
       </c>
       <c r="F157" s="150" t="s">
         <v>1043</v>
@@ -27561,7 +27662,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B158" t="s">
         <v>459</v>
@@ -27596,7 +27697,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B159" t="s">
         <v>206</v>
@@ -27604,12 +27705,11 @@
       <c r="C159" s="104" t="s">
         <v>1040</v>
       </c>
-      <c r="D159" t="str">
-        <f t="shared" si="2"/>
-        <v>get:biomes/FM1</v>
+      <c r="D159" s="104" t="s">
+        <v>1058</v>
       </c>
       <c r="E159" s="104" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F159" s="150" t="s">
         <v>1043</v>
@@ -27634,7 +27734,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B160" t="s">
         <v>206</v>
@@ -27642,12 +27742,11 @@
       <c r="C160" s="104" t="s">
         <v>1040</v>
       </c>
-      <c r="D160" t="str">
-        <f t="shared" ref="D160:D164" si="3">(IF(LEN(A160),IF(ISNUMBER(SEARCH(" ",E160)),IF(ISNUMBER(SEARCH(".",E160)),_xlfn.CONCAT("get:groups/",LEFT(E160,FIND(" ",E160)-1)),_xlfn.CONCAT("get:biomes/",LEFT(E160,FIND(" ",E160)-1))),"")))</f>
-        <v>get:biomes/FM1</v>
+      <c r="D160" s="104" t="s">
+        <v>1058</v>
       </c>
       <c r="E160" s="104" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F160" s="150" t="s">
         <v>1043</v>
@@ -27672,7 +27771,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B161" t="s">
         <v>208</v>
@@ -27680,12 +27779,11 @@
       <c r="C161" s="104" t="s">
         <v>1040</v>
       </c>
-      <c r="D161" t="str">
-        <f t="shared" si="3"/>
-        <v>get:biomes/FM1</v>
+      <c r="D161" s="104" t="s">
+        <v>1058</v>
       </c>
       <c r="E161" s="104" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F161" s="150" t="s">
         <v>1043</v>
@@ -27710,7 +27808,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B162" t="s">
         <v>208</v>
@@ -27718,12 +27816,11 @@
       <c r="C162" s="104" t="s">
         <v>1040</v>
       </c>
-      <c r="D162" t="str">
-        <f t="shared" si="3"/>
-        <v>get:biomes/FM1</v>
+      <c r="D162" s="104" t="s">
+        <v>1058</v>
       </c>
       <c r="E162" s="104" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F162" s="150" t="s">
         <v>1043</v>
@@ -27748,7 +27845,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B163" t="s">
         <v>210</v>
@@ -27756,12 +27853,11 @@
       <c r="C163" s="104" t="s">
         <v>1040</v>
       </c>
-      <c r="D163" t="str">
-        <f t="shared" si="3"/>
-        <v>get:biomes/FM1</v>
+      <c r="D163" s="104" t="s">
+        <v>1058</v>
       </c>
       <c r="E163" s="104" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F163" s="150" t="s">
         <v>1043</v>
@@ -27786,7 +27882,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B164" t="s">
         <v>210</v>
@@ -27794,12 +27890,11 @@
       <c r="C164" s="104" t="s">
         <v>1040</v>
       </c>
-      <c r="D164" t="str">
-        <f t="shared" si="3"/>
-        <v>get:biomes/FM1</v>
+      <c r="D164" s="104" t="s">
+        <v>1058</v>
       </c>
       <c r="E164" s="104" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F164" s="150" t="s">
         <v>1043</v>
@@ -27823,44 +27918,49 @@
       <c r="N164" s="154"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C159:C164 E159:E164 C2:E13">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="C159:C164">
+    <cfRule type="containsBlanks" dxfId="8" priority="12">
+      <formula>LEN(TRIM(C159))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E19">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:E15">
+  <conditionalFormatting sqref="C49:E53">
     <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(C15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160:E160">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(C160))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161:E164">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(C161))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:E14">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(C14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:E53">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(C49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:E88">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(C84))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:E19">
+  <conditionalFormatting sqref="C160:C164">
+    <cfRule type="containsBlanks" dxfId="4" priority="9">
+      <formula>LEN(TRIM(C160))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141:E143">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(D141))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149:E151">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(D149))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155:E157">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D155))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159:E164">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C16))=0</formula>
+      <formula>LEN(TRIM(D159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27869,6 +27969,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -28000,15 +28109,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28019,6 +28119,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28036,16 +28146,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
